--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
-    <sheet name="报价" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="保险" sheetId="3" r:id="rId2"/>
+    <sheet name="报价" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>序号</t>
   </si>
@@ -191,6 +191,88 @@
   </si>
   <si>
     <t>斯柯达SVW71415AL轿车</t>
+  </si>
+  <si>
+    <t>保障项目</t>
+  </si>
+  <si>
+    <t>总额</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>2018.11.15</t>
+  </si>
+  <si>
+    <t>险种</t>
+  </si>
+  <si>
+    <t>保额</t>
+  </si>
+  <si>
+    <t>实缴金额</t>
+  </si>
+  <si>
+    <t>附加座位险：200</t>
+  </si>
+  <si>
+    <t>商业险</t>
+  </si>
+  <si>
+    <t>机动车损失保险</t>
+  </si>
+  <si>
+    <t>第三者责任保险</t>
+  </si>
+  <si>
+    <t>100W</t>
+  </si>
+  <si>
+    <t>不计免赔(车损险)</t>
+  </si>
+  <si>
+    <t>不计免赔(三者险)</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>交强险</t>
+  </si>
+  <si>
+    <t>机动车强制责任保险</t>
+  </si>
+  <si>
+    <t>车船税</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>2019.11.15</t>
+  </si>
+  <si>
+    <t>机动车损失保险(含不计免赔)</t>
+  </si>
+  <si>
+    <t>550礼品卡
+折现：490</t>
+  </si>
+  <si>
+    <t>1次小保养
+3个漆面
+2次代驾
+6次洗车
+5天机场停车
+550元超市购物卡（个人送）
+金钥匙（代办理赔）
+非事故救援（100公里内免费）
+事故救援（50公里内免费）
+代办年检</t>
+  </si>
+  <si>
+    <t>第三者责任保险(含不计免赔)</t>
   </si>
   <si>
     <t>太平洋</t>
@@ -213,12 +295,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +330,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,28 +436,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,100 +481,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,19 +504,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,169 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,8 +724,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -614,18 +737,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,21 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,21 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,6 +810,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,146 +839,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -867,16 +985,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1229,193 +1368,193 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="14.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>5068</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>224.64</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>47.16</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="6"/>
+      <c r="E3" s="14"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="6"/>
+      <c r="E4" s="14"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="6"/>
+      <c r="E5" s="14"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>9890</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>112.86</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>73.19</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1427,13 +1566,13 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>282</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1443,13 +1582,13 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>128</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="3:13">
       <c r="C9"/>
@@ -1459,13 +1598,13 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="3:13">
       <c r="C10"/>
@@ -1475,13 +1614,13 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11"/>
@@ -1491,13 +1630,13 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12"/>
@@ -1507,187 +1646,187 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>15000</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>4008200410</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>0</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>15500</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>104</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:12">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>16200</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>48.63</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>48.63</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>48.63</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" ht="18" customHeight="1"/>
     <row r="26" ht="18" customHeight="1"/>
@@ -1732,10 +1871,420 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:XFD24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="38.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="34" customHeight="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="8">
+        <f>SUM(F11)</f>
+        <v>5676.81</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="9">
+        <v>139900</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2378.5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1679.6</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>356.77</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="9">
+        <v>251.94</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11">
+        <f>SUM(F3:F6)</f>
+        <v>4666.81</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="9">
+        <v>122000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>950</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11">
+        <f>SUM(F8:F9)</f>
+        <v>1010</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <f>SUM(F7,F10)</f>
+        <v>5676.81</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="8" customHeight="1"/>
+    <row r="13" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9">
+        <v>130667</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1743.73</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-490</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(F19,G13)</f>
+        <v>3640.09</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1231.36</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11">
+        <f>SUM(F13:F14)</f>
+        <v>2975.09</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="9">
+        <v>122000</v>
+      </c>
+      <c r="F16" s="9">
+        <v>855</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>300</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11">
+        <f>SUM(F16:F17)</f>
+        <v>1155</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
+        <f>SUM(F15,F18)</f>
+        <v>4130.09</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="20" customHeight="1"/>
+    <row r="21" s="5" customFormat="1" ht="20" customHeight="1"/>
+    <row r="22" s="5" customFormat="1" ht="20" customHeight="1"/>
+    <row r="23" s="5" customFormat="1" ht="20" customHeight="1"/>
+    <row r="24" s="5" customFormat="1" ht="20" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1746,24 +2295,24 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
@@ -1772,21 +2321,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>序号</t>
   </si>
@@ -275,6 +275,24 @@
     <t>第三者责任保险(含不计免赔)</t>
   </si>
   <si>
+    <t>2020.10.22</t>
+  </si>
+  <si>
+    <t>折现：855</t>
+  </si>
+  <si>
+    <t>1次小保养
+2次代驾
+机场停车5天*2
+3次漆面</t>
+  </si>
+  <si>
+    <t>不计免赔</t>
+  </si>
+  <si>
+    <t>150W</t>
+  </si>
+  <si>
     <t>太平洋</t>
   </si>
   <si>
@@ -295,8 +313,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -351,18 +369,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +409,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,45 +459,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -444,7 +467,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,8 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,19 +499,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -528,13 +546,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,169 +654,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,11 +742,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +754,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,32 +797,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,20 +823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,133 +857,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1871,10 +1889,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1919,7 +1937,6 @@
       <c r="J1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="3"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -2244,33 +2261,204 @@
       <c r="I19" s="4"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" s="5" customFormat="1" ht="20" customHeight="1"/>
-    <row r="21" s="5" customFormat="1" ht="20" customHeight="1"/>
-    <row r="22" s="5" customFormat="1" ht="20" customHeight="1"/>
-    <row r="23" s="5" customFormat="1" ht="20" customHeight="1"/>
-    <row r="24" s="5" customFormat="1" ht="20" customHeight="1"/>
+    <row r="20" s="6" customFormat="1" ht="8" customHeight="1"/>
+    <row r="21" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="9">
+        <v>120593.8</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1187.05</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-855</v>
+      </c>
+      <c r="H21" s="8">
+        <f>SUM(F29,G21)</f>
+        <v>2733.3</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
+        <v>178.06</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1011.47</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="9">
+        <v>151.72</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11">
+        <f>SUM(F21:F24)</f>
+        <v>2528.3</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>760</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
+        <v>300</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="11">
+        <f>SUM(F26:F27)</f>
+        <v>1060</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13">
+        <f>SUM(F25,F28)</f>
+        <v>3588.3</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A29"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:B29"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G21:G29"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="H13:H19"/>
+    <mergeCell ref="H21:H29"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="J13:J19"/>
+    <mergeCell ref="J21:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2299,12 +2487,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -2312,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>序号</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>博世空调滤清器</t>
+  </si>
+  <si>
+    <t>2020.12.26</t>
+  </si>
+  <si>
+    <t>牟平路35号途虎</t>
+  </si>
+  <si>
+    <t>壳牌/Shell 超凡喜力 天然气全合成机油 都市光影版 ULTRA 5W-40 SP A3/B4 4L</t>
   </si>
   <si>
     <t>购车日期</t>
@@ -313,10 +322,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -376,15 +385,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,15 +455,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,51 +472,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -473,9 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,21 +502,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -546,49 +555,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,133 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,20 +749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,9 +796,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,41 +831,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,19 +866,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,112 +887,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1789,8 +1798,43 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5"/>
+    <row r="16" ht="66" spans="1:13">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>21696</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5"/>
@@ -1803,46 +1847,46 @@
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -1889,10 +1933,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1923,19 +1967,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1946,36 +1990,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" s="8">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" s="9">
         <v>139900</v>
@@ -1993,10 +2037,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" s="9">
         <v>1679.6</v>
@@ -2011,7 +2055,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
@@ -2027,7 +2071,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9">
         <v>251.94</v>
@@ -2042,7 +2086,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="11">
@@ -2058,10 +2102,10 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E8" s="9">
         <v>122000</v>
@@ -2079,7 +2123,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
@@ -2095,7 +2139,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="11">
@@ -2111,7 +2155,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2128,13 +2172,13 @@
     <row r="13" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" s="9">
         <v>130667</v>
@@ -2150,10 +2194,10 @@
         <v>3640.09</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2161,10 +2205,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="9">
         <v>1231.36</v>
@@ -2179,7 +2223,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11">
@@ -2195,10 +2239,10 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E16" s="9">
         <v>122000</v>
@@ -2216,7 +2260,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9">
@@ -2232,7 +2276,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="11">
@@ -2248,7 +2292,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2265,13 +2309,13 @@
     <row r="21" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" s="9">
         <v>120593.8</v>
@@ -2287,10 +2331,10 @@
         <v>2733.3</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2298,7 +2342,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9">
@@ -2314,10 +2358,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F23" s="9">
         <v>1011.47</v>
@@ -2332,7 +2376,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F24" s="9">
         <v>151.72</v>
@@ -2347,7 +2391,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="11">
@@ -2363,10 +2407,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9">
@@ -2382,7 +2426,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9">
@@ -2398,7 +2442,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="11">
@@ -2414,7 +2458,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -2427,14 +2471,16 @@
       <c r="I29" s="4"/>
       <c r="J29" s="9"/>
     </row>
+    <row r="30" s="6" customFormat="1" ht="8" customHeight="1"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A21:A29"/>
@@ -2487,12 +2533,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -2500,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
     <sheet name="保险" sheetId="3" r:id="rId2"/>
     <sheet name="报价" sheetId="2" r:id="rId3"/>
+    <sheet name="罚款" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
   <si>
     <t>序号</t>
   </si>
@@ -316,24 +317,183 @@
 包括金钥匙理赔等
 550元购物卡</t>
   </si>
+  <si>
+    <t>违法时间</t>
+  </si>
+  <si>
+    <t>违法地点</t>
+  </si>
+  <si>
+    <t>违法行为</t>
+  </si>
+  <si>
+    <t>记分</t>
+  </si>
+  <si>
+    <t>罚款金额</t>
+  </si>
+  <si>
+    <t>处理机关</t>
+  </si>
+  <si>
+    <t>交款标记</t>
+  </si>
+  <si>
+    <t>顺安路华中东路口</t>
+  </si>
+  <si>
+    <t>驾驶机动车违反道路交通信号灯通行的</t>
+  </si>
+  <si>
+    <t>安庆市公安局交警支队二大队</t>
+  </si>
+  <si>
+    <t>已交款</t>
+  </si>
+  <si>
+    <t>中环路内圈张杨路入口匝道</t>
+  </si>
+  <si>
+    <t>违反禁令标志指示</t>
+  </si>
+  <si>
+    <t>上海市公安局交通警察总队机动支队</t>
+  </si>
+  <si>
+    <t>佳高路金高路西约45米</t>
+  </si>
+  <si>
+    <t>不按规定停车且驾驶人不在现场</t>
+  </si>
+  <si>
+    <t>上海市公安局浦东分局交通警察支队</t>
+  </si>
+  <si>
+    <t>环湖西一路出申港大道北路北约120米</t>
+  </si>
+  <si>
+    <t>人民路:人民路棋盘山路口100米</t>
+  </si>
+  <si>
+    <t>违反规定停放、临时停车且驾驶人不在现场或驾驶人虽在现场拒绝立即驶离，妨碍其他车辆、行人通行的</t>
+  </si>
+  <si>
+    <t>安庆市公安局公共管理警察支队</t>
+  </si>
+  <si>
+    <t>S20外环高速外圈近27.2KM路段</t>
+  </si>
+  <si>
+    <t>驾驶中型以上载客载货汽车、校车、危险物品运输车辆以外的其他机动车行驶超过规定时速20%以上未达到50%的</t>
+  </si>
+  <si>
+    <t>迎宾路（小孤山路与中兴大街路段）</t>
+  </si>
+  <si>
+    <t>安庆市公安局交警支队四大队</t>
+  </si>
+  <si>
+    <t>浙桥路出金科路西约30米</t>
+  </si>
+  <si>
+    <t>不按规定停车且驾驶人虽在现场拒绝立即驶离</t>
+  </si>
+  <si>
+    <t>江浦南路-金华村通道路口</t>
+  </si>
+  <si>
+    <t>昆山市公安局交通警察大队</t>
+  </si>
+  <si>
+    <t>卡园一路出顾唐路东约120米</t>
+  </si>
+  <si>
+    <t>不按规定使用灯光</t>
+  </si>
+  <si>
+    <t>卡园一路卡园二路西约1米</t>
+  </si>
+  <si>
+    <t>王港派出所</t>
+  </si>
+  <si>
+    <t>卡园一路顾唐路东约249米</t>
+  </si>
+  <si>
+    <t>宏雅路上丰路南约55米</t>
+  </si>
+  <si>
+    <t>黄浮高速4公里800米</t>
+  </si>
+  <si>
+    <t>驾驶中型以上载客载货汽车、校车、危险物品运输车辆以外的其他机动车在高速公路上行驶超过规定时速20%以上未达到50%的</t>
+  </si>
+  <si>
+    <t>黄山支队高速六大队</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2F973F"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA2030D"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -378,39 +538,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +563,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -433,7 +592,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +614,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,8 +636,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -472,23 +652,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,27 +676,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +691,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,6 +727,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,13 +745,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,98 +911,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -750,16 +922,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,27 +952,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,6 +993,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -840,9 +1010,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,183 +1053,231 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,193 +1630,193 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="14.125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="19" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="4">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="20">
         <v>5068</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="20">
         <v>224.64</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="20">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="20">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="20">
         <v>47.16</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="20">
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="14"/>
+      <c r="E3" s="30"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="20">
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="14"/>
+      <c r="E4" s="30"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="20">
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="14"/>
+      <c r="E5" s="30"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="20">
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="4">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="20">
         <v>9890</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="20">
         <v>112.86</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="20">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="20">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="20">
         <v>73.19</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="20">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1593,13 +1828,13 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="20">
         <v>282</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1609,13 +1844,13 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="20">
         <v>128</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="3:13">
       <c r="C9"/>
@@ -1625,13 +1860,13 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="20">
         <v>0</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="3:13">
       <c r="C10"/>
@@ -1641,13 +1876,13 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="20">
         <v>0</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11"/>
@@ -1657,13 +1892,13 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="20">
         <v>0</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12"/>
@@ -1673,222 +1908,222 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="20">
         <v>0</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
-      <c r="A13" s="4">
+      <c r="A13" s="20">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="20">
         <v>15000</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="20">
         <v>4008200410</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="20">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="20">
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="20">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="20">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="20">
         <v>0</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="20">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="20">
         <v>15500</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="20">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="20">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="20">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="20">
         <v>104</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="20">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:12">
-      <c r="A15" s="4">
+      <c r="A15" s="20">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="20">
         <v>16200</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="20">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="20">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="20">
         <v>48.63</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="20">
         <v>48.63</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="20">
         <v>48.63</v>
       </c>
     </row>
     <row r="16" ht="66" spans="1:13">
-      <c r="A16" s="5">
+      <c r="A16" s="21">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="20">
         <v>21696</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="20">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="20">
         <v>0</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="20">
         <v>0</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="20">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="20">
         <v>0</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" ht="18" customHeight="1"/>
     <row r="26" ht="18" customHeight="1"/>
@@ -1941,537 +2176,537 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="38.25" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.375" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="17" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="20" customWidth="1"/>
+    <col min="6" max="6" width="18" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="20" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="38.25" style="20" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="20" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="34" customHeight="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="19" customFormat="1" ht="34" customHeight="1" spans="1:14">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="24">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="25">
         <v>139900</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="25">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="25">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25">
         <v>356.77</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="25">
         <v>251.94</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11">
+      <c r="E7" s="25"/>
+      <c r="F7" s="27">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="25">
         <v>122000</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="25">
         <v>950</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>60</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11">
+      <c r="E10" s="25"/>
+      <c r="F10" s="27">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="8" customHeight="1"/>
-    <row r="13" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" s="22" customFormat="1" ht="8" customHeight="1"/>
+    <row r="13" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="25">
         <v>130667</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="25">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="20">
         <v>-490</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="24">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+    <row r="14" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="25">
         <v>1231.36</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="10" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11">
+      <c r="E15" s="25"/>
+      <c r="F15" s="27">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="25">
         <v>122000</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="25">
         <v>855</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25">
         <v>300</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11">
+      <c r="E18" s="25"/>
+      <c r="F18" s="27">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" s="21" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="8" customHeight="1"/>
-    <row r="21" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" s="22" customFormat="1" ht="8" customHeight="1"/>
+    <row r="21" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="25">
         <v>120593.8</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="25">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="20">
         <v>-855</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="24">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
+    <row r="22" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>178.06</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="25">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="25">
         <v>151.72</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="10" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11">
+      <c r="E25" s="25"/>
+      <c r="F25" s="27">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25">
         <v>760</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25">
         <v>300</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11">
+      <c r="E28" s="25"/>
+      <c r="F28" s="27">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" s="21" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" s="6" customFormat="1" ht="8" customHeight="1"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" s="22" customFormat="1" ht="8" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="C1:F1"/>
@@ -2528,11 +2763,11 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="17" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2545,7 +2780,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2555,4 +2790,456 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43497.7472222222</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43508.7909722222</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43685.35625</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>200</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43813.6430555556</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>200</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" ht="53" customHeight="1" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43845.6541666667</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43868.6493055556</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" ht="54" customHeight="1" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43953.5826388889</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43960.75625</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44019.65625</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>200</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:8">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44060.3277777778</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>100</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44066.4194444444</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>200</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:8">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44078.6104166667</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44102.6451388889</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>200</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44106.6069444444</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="10">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10">
+        <v>200</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="2:7">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
+        <f>SUM(E2:E15)</f>
+        <v>34</v>
+      </c>
+      <c r="F16" s="13">
+        <f>SUM(F2:F15)</f>
+        <v>2500</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="2:7">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1"/>
+    <row r="22" ht="15" customHeight="1"/>
+    <row r="23" ht="15" customHeight="1"/>
+    <row r="24" ht="15" customHeight="1"/>
+    <row r="25" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1"/>
+    <row r="27" ht="15" customHeight="1"/>
+  </sheetData>
+  <sortState ref="A2:H15">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
   <si>
     <t>序号</t>
   </si>
@@ -430,6 +430,36 @@
   </si>
   <si>
     <t>黄山支队高速六大队</t>
+  </si>
+  <si>
+    <t>佳高路金高路西约100米</t>
+  </si>
+  <si>
+    <t>佳高路金高路西约150米</t>
+  </si>
+  <si>
+    <t>金桥派出所</t>
+  </si>
+  <si>
+    <t>罗山高架路东侧高科中路入口匝道</t>
+  </si>
+  <si>
+    <t>上海市公安局交通警察总队机动二支队</t>
+  </si>
+  <si>
+    <t>杭瑞高速155公里800米</t>
+  </si>
+  <si>
+    <t>驾驶中型以上载客载货汽车、危险物品运输车辆以外的其他机动车在高速公路上行驶超过规定时速10%未达20%的</t>
+  </si>
+  <si>
+    <t>黄山支队高速一大队</t>
+  </si>
+  <si>
+    <t>宏雅路上丰路南约93米</t>
+  </si>
+  <si>
+    <t>上海市公安局浦东分局交通警察支队机动大队</t>
   </si>
 </sst>
 </file>
@@ -442,7 +472,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,19 +509,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2F973F"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA2030D"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -539,8 +556,68 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,9 +630,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,67 +686,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,45 +698,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -727,25 +744,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,91 +894,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,61 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +949,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,67 +1045,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,10 +1058,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,137 +1070,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,14 +1210,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1212,7 +1235,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1220,64 +1243,49 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1636,187 +1644,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25" style="20" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="20" customWidth="1"/>
-    <col min="7" max="8" width="14.125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="20" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="17" customWidth="1"/>
+    <col min="7" max="8" width="14.125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="17" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="17" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="16" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="20">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>5068</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <v>224.64</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <v>0</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.17</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="17">
         <v>47.16</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="30"/>
+      <c r="E3" s="27"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="17">
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="25"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="30"/>
+      <c r="E4" s="27"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="25"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="30"/>
+      <c r="E5" s="27"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>9890</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>112.86</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="17">
         <v>73.19</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="17">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1828,13 +1836,13 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <v>282</v>
       </c>
-      <c r="M7" s="25"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1844,13 +1852,13 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="17">
         <v>128</v>
       </c>
-      <c r="M8" s="25"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="3:13">
       <c r="C9"/>
@@ -1860,13 +1868,13 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="M9" s="25"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="3:13">
       <c r="C10"/>
@@ -1876,13 +1884,13 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <v>0</v>
       </c>
-      <c r="M10" s="25"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11"/>
@@ -1892,13 +1900,13 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <v>0</v>
       </c>
-      <c r="M11" s="25"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12"/>
@@ -1908,222 +1916,222 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="17">
         <v>0</v>
       </c>
-      <c r="M12" s="25"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
-      <c r="A13" s="20">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>15000</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>4008200410</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="17">
         <v>0</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="17">
         <v>0</v>
       </c>
-      <c r="M13" s="25"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
-      <c r="A14" s="20">
+      <c r="A14" s="17">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>15500</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>0</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="17">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <v>104</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="17">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:12">
-      <c r="A15" s="20">
+      <c r="A15" s="17">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>16200</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="17">
         <v>0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>0</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>48.63</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="17">
         <v>48.63</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="17">
         <v>48.63</v>
       </c>
     </row>
     <row r="16" ht="66" spans="1:13">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>6</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>21696</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="17">
         <v>0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>0</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>0</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="17">
         <v>0</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="17">
         <v>0</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="18"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" ht="18" customHeight="1"/>
     <row r="26" ht="18" customHeight="1"/>
@@ -2176,537 +2184,537 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="20" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="20" customWidth="1"/>
-    <col min="6" max="6" width="18" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="20" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="38.25" style="20" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="20" customWidth="1"/>
-    <col min="12" max="12" width="20.875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="20" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="26.375" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="17" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="38.25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="34" customHeight="1" spans="1:14">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="16" customFormat="1" ht="34" customHeight="1" spans="1:14">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" s="20" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="20">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="21">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+    <row r="3" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>139900</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22">
         <v>356.77</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>251.94</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="26" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="27">
+      <c r="E7" s="22"/>
+      <c r="F7" s="24">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>122000</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>950</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>60</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="26" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="27">
+      <c r="E10" s="22"/>
+      <c r="F10" s="24">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="28" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" s="22" customFormat="1" ht="8" customHeight="1"/>
-    <row r="13" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" s="19" customFormat="1" ht="8" customHeight="1"/>
+    <row r="13" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>130667</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>-490</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="21">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+    <row r="14" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>1231.36</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="26" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27">
+      <c r="E15" s="22"/>
+      <c r="F15" s="24">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>122000</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>855</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22">
         <v>300</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27">
+      <c r="E18" s="22"/>
+      <c r="F18" s="24">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" s="21" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="28" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" s="22" customFormat="1" ht="8" customHeight="1"/>
-    <row r="21" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" s="19" customFormat="1" ht="8" customHeight="1"/>
+    <row r="21" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>120593.8</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="17">
         <v>-855</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="21">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
+    <row r="22" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
         <v>178.06</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>151.72</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="26" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27">
+      <c r="E25" s="22"/>
+      <c r="F25" s="24">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22">
         <v>760</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22">
         <v>300</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" s="21" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="26" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="27">
+      <c r="E28" s="22"/>
+      <c r="F28" s="24">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" s="21" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="28" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" s="22" customFormat="1" ht="8" customHeight="1"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" s="19" customFormat="1" ht="8" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="C1:F1"/>
@@ -2763,11 +2771,11 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="14" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2780,7 +2788,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2795,21 +2803,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="66.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2817,424 +2825,539 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" ht="42" customHeight="1" spans="1:8">
+    <row r="2" ht="20" customHeight="1" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>43497.7472222222</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>6</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>200</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:8">
+    <row r="3" ht="20" customHeight="1" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>43508.7909722222</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="12">
         <v>200</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
+    <row r="4" ht="20" customHeight="1" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>43685.35625</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>200</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
+    <row r="5" ht="20" customHeight="1" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>43813.6430555556</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>200</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" ht="53" customHeight="1" spans="1:8">
+    <row r="6" ht="38" customHeight="1" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>43845.6541666667</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>100</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:8">
+    <row r="7" ht="40" customHeight="1" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>43868.6493055556</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <v>6</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="12">
         <v>200</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:8">
+    <row r="8" ht="39" customHeight="1" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>43953.5826388889</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>100</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:8">
+    <row r="9" ht="20" customHeight="1" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>43960.75625</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>200</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:8">
+    <row r="10" ht="20" customHeight="1" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>44019.65625</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>6</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>200</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:8">
+    <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>44060.3277777778</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>100</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:8">
+    <row r="12" ht="20" customHeight="1" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>44066.4194444444</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>200</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:8">
+    <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>44078.6104166667</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="12">
         <v>200</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:8">
+    <row r="14" ht="20" customHeight="1" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>44102.6451388889</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>200</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:8">
+    <row r="15" ht="40" customHeight="1" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>44106.6069444444</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>200</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="2:7">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13">
-        <f>SUM(E2:E15)</f>
-        <v>34</v>
-      </c>
-      <c r="F16" s="13">
-        <f>SUM(F2:F15)</f>
-        <v>2500</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="2:7">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1"/>
+    <row r="16" ht="20" customHeight="1" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44214.4006944444</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44215.3979166667</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" ht="38" customHeight="1" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44222.6277777778</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44245.3576388889</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44257.5472222222</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>200</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="5:6">
+      <c r="E21" s="2">
+        <f>SUM(E2:E20)</f>
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
+        <f>SUM(F2:F20)</f>
+        <v>3400</v>
+      </c>
+    </row>
     <row r="22" ht="15" customHeight="1"/>
     <row r="23" ht="15" customHeight="1"/>
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
     <row r="26" ht="15" customHeight="1"/>
     <row r="27" ht="15" customHeight="1"/>
+    <row r="28" ht="15" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
   <si>
     <t>序号</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>壳牌/Shell 超凡喜力 天然气全合成机油 都市光影版 ULTRA 5W-40 SP A3/B4 4L</t>
+  </si>
+  <si>
+    <t>2021.4.3</t>
+  </si>
+  <si>
+    <t>清洗空调蒸发箱</t>
+  </si>
+  <si>
+    <t>金豫路32号途虎</t>
+  </si>
+  <si>
+    <t>3M多功能空调系统清洗三件套</t>
+  </si>
+  <si>
+    <t>蒸发箱可视化清洗</t>
   </si>
   <si>
     <t>购车日期</t>
@@ -555,11 +570,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,8 +608,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -587,111 +707,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -744,79 +759,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,91 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,6 +970,80 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -976,80 +1065,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1058,10 +1073,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,137 +1085,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,6 +1298,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1636,10 +1654,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1746,7 +1766,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="17">
@@ -1992,7 +2012,7 @@
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="29" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="17">
@@ -2042,7 +2062,7 @@
       </c>
     </row>
     <row r="16" ht="66" spans="1:13">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -2079,93 +2099,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="18"/>
+    <row r="17" ht="33" spans="1:12">
+      <c r="A17" s="17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="17">
+        <v>24885</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="17">
+        <v>199</v>
+      </c>
+      <c r="L17" s="17">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11">
+      <c r="F18" s="28"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="17">
+        <v>159</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="18"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:3">
-      <c r="A20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:3">
-      <c r="A21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:3">
-      <c r="A22" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="22" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:3">
+      <c r="A25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:3">
-      <c r="A23" s="17" t="s">
+      <c r="B25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:3">
+      <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:3">
-      <c r="A24" s="17" t="s">
+      <c r="B26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:3">
+      <c r="A27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" ht="18" customHeight="1"/>
-    <row r="26" ht="18" customHeight="1"/>
-    <row r="27" ht="18" customHeight="1"/>
+      <c r="B27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:3">
+      <c r="A28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:3">
+      <c r="A29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" ht="18" customHeight="1"/>
+    <row r="31" ht="18" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="39">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2178,8 +2268,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD30"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E29"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2210,19 +2300,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -2233,36 +2323,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H2" s="21">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" s="22">
         <v>139900</v>
@@ -2280,10 +2370,10 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" s="22">
         <v>1679.6</v>
@@ -2298,7 +2388,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22">
@@ -2314,7 +2404,7 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6" s="22">
         <v>251.94</v>
@@ -2329,7 +2419,7 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="24">
@@ -2345,10 +2435,10 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E8" s="22">
         <v>122000</v>
@@ -2366,7 +2456,7 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22">
@@ -2382,7 +2472,7 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="24">
@@ -2398,7 +2488,7 @@
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -2415,13 +2505,13 @@
     <row r="13" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E13" s="22">
         <v>130667</v>
@@ -2437,10 +2527,10 @@
         <v>3640.09</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2448,10 +2538,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" s="22">
         <v>1231.36</v>
@@ -2466,7 +2556,7 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24">
@@ -2482,10 +2572,10 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22">
         <v>122000</v>
@@ -2503,7 +2593,7 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22">
@@ -2519,7 +2609,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="24">
@@ -2535,7 +2625,7 @@
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2552,13 +2642,13 @@
     <row r="21" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A21" s="17"/>
       <c r="B21" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E21" s="22">
         <v>120593.8</v>
@@ -2574,10 +2664,10 @@
         <v>2733.3</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2585,7 +2675,7 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22">
@@ -2601,10 +2691,10 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F23" s="22">
         <v>1011.47</v>
@@ -2619,7 +2709,7 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F24" s="22">
         <v>151.72</v>
@@ -2634,7 +2724,7 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="24">
@@ -2650,10 +2740,10 @@
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22">
@@ -2669,7 +2759,7 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22">
@@ -2685,7 +2775,7 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="24">
@@ -2701,7 +2791,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2776,12 +2866,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -2789,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
@@ -2805,7 +2895,7 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2826,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:8">
@@ -2855,10 +2945,10 @@
         <v>43497.7472222222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="8">
         <v>6</v>
@@ -2867,10 +2957,10 @@
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
@@ -2881,10 +2971,10 @@
         <v>43508.7909722222</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3" s="12">
         <v>3</v>
@@ -2893,10 +2983,10 @@
         <v>200</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
@@ -2907,10 +2997,10 @@
         <v>43685.35625</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -2919,10 +3009,10 @@
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
@@ -2933,10 +3023,10 @@
         <v>43813.6430555556</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -2945,10 +3035,10 @@
         <v>200</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:8">
@@ -2959,10 +3049,10 @@
         <v>43845.6541666667</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -2971,10 +3061,10 @@
         <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
@@ -2985,10 +3075,10 @@
         <v>43868.6493055556</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E7" s="12">
         <v>6</v>
@@ -2997,10 +3087,10 @@
         <v>200</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:8">
@@ -3011,10 +3101,10 @@
         <v>43953.5826388889</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E8" s="8">
         <v>6</v>
@@ -3023,10 +3113,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
@@ -3037,10 +3127,10 @@
         <v>43960.75625</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3049,10 +3139,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -3063,10 +3153,10 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8">
         <v>6</v>
@@ -3075,10 +3165,10 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
@@ -3089,10 +3179,10 @@
         <v>44060.3277777778</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -3101,10 +3191,10 @@
         <v>100</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -3115,10 +3205,10 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -3127,10 +3217,10 @@
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
@@ -3141,10 +3231,10 @@
         <v>44078.6104166667</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -3153,10 +3243,10 @@
         <v>200</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -3167,10 +3257,10 @@
         <v>44102.6451388889</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -3179,10 +3269,10 @@
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:8">
@@ -3193,10 +3283,10 @@
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E15" s="8">
         <v>6</v>
@@ -3205,10 +3295,10 @@
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -3219,10 +3309,10 @@
         <v>44214.4006944444</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -3231,10 +3321,10 @@
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
@@ -3245,10 +3335,10 @@
         <v>44215.3979166667</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -3257,10 +3347,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" ht="38" customHeight="1" spans="1:8">
@@ -3271,10 +3361,10 @@
         <v>44222.6277777778</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E18" s="8">
         <v>3</v>
@@ -3283,10 +3373,10 @@
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:8">
@@ -3297,10 +3387,10 @@
         <v>44245.3576388889</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E19" s="8">
         <v>3</v>
@@ -3309,10 +3399,10 @@
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
@@ -3323,10 +3413,10 @@
         <v>44257.5472222222</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -3335,10 +3425,10 @@
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="5:6">

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="146">
   <si>
     <t>序号</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>蒸发箱可视化清洗</t>
+  </si>
+  <si>
+    <t>2021.4.9</t>
   </si>
   <si>
     <t>购车日期</t>
@@ -484,8 +487,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -571,46 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +596,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +612,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +620,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,22 +641,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +671,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,187 +762,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,17 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -990,15 +982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,6 +1010,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1046,6 +1038,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1073,10 +1076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,133 +1088,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,9 +1660,9 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17:L18"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2139,9 +2142,6 @@
     </row>
     <row r="18" spans="6:11">
       <c r="F18" s="28"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
       <c r="J18" s="17" t="s">
         <v>54</v>
       </c>
@@ -2149,8 +2149,43 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="17">
+        <v>8</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="17">
+        <v>24885</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>53</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="17">
+        <v>53</v>
+      </c>
+      <c r="L19" s="17">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="18"/>
@@ -2169,46 +2204,46 @@
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
       <c r="A25" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
       <c r="A26" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
       <c r="A27" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
       <c r="A28" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="22"/>
     </row>
@@ -2300,19 +2335,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -2323,36 +2358,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="21">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="22">
         <v>139900</v>
@@ -2370,10 +2405,10 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="22">
         <v>1679.6</v>
@@ -2388,7 +2423,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22">
@@ -2404,7 +2439,7 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="22">
         <v>251.94</v>
@@ -2419,7 +2454,7 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="24">
@@ -2435,10 +2470,10 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="22">
         <v>122000</v>
@@ -2456,7 +2491,7 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22">
@@ -2472,7 +2507,7 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="24">
@@ -2488,7 +2523,7 @@
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -2505,13 +2540,13 @@
     <row r="13" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="22">
         <v>130667</v>
@@ -2527,10 +2562,10 @@
         <v>3640.09</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2538,10 +2573,10 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="22">
         <v>1231.36</v>
@@ -2556,7 +2591,7 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24">
@@ -2572,10 +2607,10 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="22">
         <v>122000</v>
@@ -2593,7 +2628,7 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22">
@@ -2609,7 +2644,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="24">
@@ -2625,7 +2660,7 @@
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2642,13 +2677,13 @@
     <row r="21" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A21" s="17"/>
       <c r="B21" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="22">
         <v>120593.8</v>
@@ -2664,10 +2699,10 @@
         <v>2733.3</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2675,7 +2710,7 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22">
@@ -2691,10 +2726,10 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" s="22">
         <v>1011.47</v>
@@ -2709,7 +2744,7 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="22">
         <v>151.72</v>
@@ -2724,7 +2759,7 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="24">
@@ -2740,10 +2775,10 @@
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22">
@@ -2759,7 +2794,7 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22">
@@ -2775,7 +2810,7 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="24">
@@ -2791,7 +2826,7 @@
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2866,12 +2901,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -2879,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
@@ -2895,8 +2930,8 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -2916,25 +2951,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:8">
@@ -2945,10 +2980,10 @@
         <v>43497.7472222222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="8">
         <v>6</v>
@@ -2957,10 +2992,10 @@
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
@@ -2971,10 +3006,10 @@
         <v>43508.7909722222</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="12">
         <v>3</v>
@@ -2983,10 +3018,10 @@
         <v>200</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
@@ -2997,10 +3032,10 @@
         <v>43685.35625</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -3009,10 +3044,10 @@
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
@@ -3023,10 +3058,10 @@
         <v>43813.6430555556</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -3035,10 +3070,10 @@
         <v>200</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:8">
@@ -3049,10 +3084,10 @@
         <v>43845.6541666667</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -3061,10 +3096,10 @@
         <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
@@ -3075,10 +3110,10 @@
         <v>43868.6493055556</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="12">
         <v>6</v>
@@ -3087,10 +3122,10 @@
         <v>200</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:8">
@@ -3101,10 +3136,10 @@
         <v>43953.5826388889</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="E8" s="8">
         <v>6</v>
@@ -3113,10 +3148,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
@@ -3127,10 +3162,10 @@
         <v>43960.75625</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3139,10 +3174,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -3153,10 +3188,10 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="8">
         <v>6</v>
@@ -3165,10 +3200,10 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
@@ -3179,10 +3214,10 @@
         <v>44060.3277777778</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -3191,10 +3226,10 @@
         <v>100</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -3205,10 +3240,10 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -3217,10 +3252,10 @@
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
@@ -3231,10 +3266,10 @@
         <v>44078.6104166667</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -3243,10 +3278,10 @@
         <v>200</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -3257,10 +3292,10 @@
         <v>44102.6451388889</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -3269,10 +3304,10 @@
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:8">
@@ -3283,10 +3318,10 @@
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" s="8">
         <v>6</v>
@@ -3295,10 +3330,10 @@
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -3309,10 +3344,10 @@
         <v>44214.4006944444</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -3321,10 +3356,10 @@
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
@@ -3335,10 +3370,10 @@
         <v>44215.3979166667</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -3347,10 +3382,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" ht="38" customHeight="1" spans="1:8">
@@ -3361,10 +3396,10 @@
         <v>44222.6277777778</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8">
         <v>3</v>
@@ -3373,10 +3408,10 @@
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:8">
@@ -3387,10 +3422,10 @@
         <v>44245.3576388889</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" s="8">
         <v>3</v>
@@ -3399,10 +3434,10 @@
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
@@ -3413,10 +3448,10 @@
         <v>44257.5472222222</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -3425,10 +3460,10 @@
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="5:6">

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
   <si>
     <t>序号</t>
   </si>
@@ -485,9 +485,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -574,7 +574,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +632,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,97 +701,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -711,7 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,13 +762,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,13 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,151 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,54 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1038,18 +990,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,6 +1018,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1076,10 +1076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,133 +1088,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1659,7 +1659,7 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17:C18"/>
@@ -2930,8 +2930,8 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -3466,21 +3466,42 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="5:6">
-      <c r="E21" s="2">
-        <f>SUM(E2:E20)</f>
-        <v>40</v>
-      </c>
-      <c r="F21" s="2">
-        <f>SUM(F2:F20)</f>
-        <v>3400</v>
+    <row r="21" ht="19" customHeight="1" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44342.76875</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>200</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1"/>
     <row r="23" ht="15" customHeight="1"/>
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
-    <row r="26" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1" spans="6:6">
+      <c r="F26" s="2">
+        <f>SUM(F2:F25)</f>
+        <v>3600</v>
+      </c>
+    </row>
     <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
   </sheetData>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>序号</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>2021.4.9</t>
+  </si>
+  <si>
+    <t>2021.9.11</t>
+  </si>
+  <si>
+    <t>壳牌/Shell 超凡喜力 新升级高效动力版 SP A3/B4 5W-40 4L</t>
+  </si>
+  <si>
+    <t>空气滤清器</t>
+  </si>
+  <si>
+    <t>金豫路33号途虎</t>
   </si>
   <si>
     <t>购车日期</t>
@@ -485,10 +497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -560,17 +572,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -582,21 +601,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,22 +628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -655,7 +645,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -664,14 +654,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,17 +699,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +708,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +723,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,187 +774,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,21 +983,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1005,6 +1002,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1015,15 +1027,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,16 +1057,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1073,148 +1085,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,18 +1255,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1283,21 +1295,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1312,54 +1324,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1655,17 +1667,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17:C18"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="17" customWidth="1"/>
@@ -1759,7 +1771,7 @@
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1776,7 +1788,7 @@
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="22"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
       <c r="E4" s="27"/>
@@ -1791,7 +1803,7 @@
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="22"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
       <c r="E5" s="27"/>
@@ -1806,7 +1818,7 @@
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
       <c r="A6" s="17">
@@ -1847,11 +1859,11 @@
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" ht="15" spans="3:13">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -1865,7 +1877,7 @@
       <c r="K7" s="17">
         <v>282</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1881,9 +1893,9 @@
       <c r="K8" s="17">
         <v>128</v>
       </c>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="3:13">
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" ht="15" spans="3:13">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1897,9 +1909,9 @@
       <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="3:13">
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" ht="29" spans="3:13">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1913,9 +1925,9 @@
       <c r="K10" s="17">
         <v>0</v>
       </c>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="3:13">
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" ht="15" spans="3:13">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1929,9 +1941,9 @@
       <c r="K11" s="17">
         <v>0</v>
       </c>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="3:13">
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" ht="15" spans="3:13">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -1945,7 +1957,7 @@
       <c r="K12" s="17">
         <v>0</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
       <c r="A13" s="17">
@@ -1984,7 +1996,7 @@
       <c r="L13" s="17">
         <v>0</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
       <c r="A14" s="17">
@@ -2064,7 +2076,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:13">
+    <row r="16" ht="72" spans="1:13">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:12">
+    <row r="17" ht="29" spans="1:12">
       <c r="A17" s="17">
         <v>7</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="6:11">
+    <row r="18" ht="15" spans="6:11">
       <c r="F18" s="28"/>
       <c r="J18" s="17" t="s">
         <v>54</v>
@@ -2149,7 +2161,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" ht="20" customHeight="1" spans="1:12">
       <c r="A19" s="17">
         <v>8</v>
       </c>
@@ -2187,11 +2199,62 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="18"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="18"/>
+    <row r="20" ht="58" spans="1:12">
+      <c r="A20" s="17">
+        <v>9</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="17">
+        <v>26951</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="17">
+        <v>39</v>
+      </c>
+      <c r="H20" s="17">
+        <v>-10</v>
+      </c>
+      <c r="I20" s="17">
+        <v>25</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="17">
+        <v>289</v>
+      </c>
+      <c r="L20" s="17">
+        <f>SUM(G20,K20,I20,H20)</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:12">
+      <c r="A21" s="17">
+        <v>10</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="17">
+        <v>26951</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="17">
+        <f>SUM(G21,K21,I21,H21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="18"/>
@@ -2204,48 +2267,48 @@
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
       <c r="A25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
       <c r="A26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
       <c r="A27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
       <c r="A28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" ht="18" customHeight="1"/>
     <row r="31" ht="18" customHeight="1"/>
@@ -2292,14 +2355,14 @@
     <mergeCell ref="M6:M12"/>
     <mergeCell ref="M17:M18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:XFD30"/>
   <sheetViews>
@@ -2307,7 +2370,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" style="17" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="17" customWidth="1"/>
@@ -2335,19 +2398,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -2358,45 +2421,45 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="21">
+        <v>76</v>
+      </c>
+      <c r="H2" s="23">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="22">
+        <v>79</v>
+      </c>
+      <c r="E3" s="24">
         <v>139900</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="24">
         <v>2378.5</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
@@ -2405,16 +2468,16 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="22">
+        <v>81</v>
+      </c>
+      <c r="F4" s="24">
         <v>1679.6</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
@@ -2423,14 +2486,14 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22">
+        <v>82</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24">
         <v>356.77</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
@@ -2439,13 +2502,13 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="22">
+        <v>83</v>
+      </c>
+      <c r="F6" s="24">
         <v>251.94</v>
       </c>
       <c r="G6" s="17"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
@@ -2453,16 +2516,16 @@
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="24">
+      <c r="D7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
@@ -2470,19 +2533,19 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="22">
+        <v>86</v>
+      </c>
+      <c r="E8" s="24">
         <v>122000</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="24">
         <v>950</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
@@ -2491,14 +2554,14 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+        <v>87</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>60</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
@@ -2506,33 +2569,33 @@
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24">
+      <c r="D10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
     <row r="11" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="C11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="26">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
@@ -2540,32 +2603,32 @@
     <row r="13" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="22">
+        <v>90</v>
+      </c>
+      <c r="E13" s="24">
         <v>130667</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="24">
         <v>1743.73</v>
       </c>
       <c r="G13" s="17">
         <v>-490</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="23">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2573,136 +2636,136 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="22">
+        <v>81</v>
+      </c>
+      <c r="F14" s="24">
         <v>1231.36</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="22"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24">
+      <c r="D15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="22"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="22">
+        <v>86</v>
+      </c>
+      <c r="E16" s="24">
         <v>122000</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="24">
         <v>855</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22">
+        <v>87</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
         <v>300</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24">
+      <c r="D18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="26">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" s="19" customFormat="1" ht="8" customHeight="1"/>
     <row r="21" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A21" s="17"/>
       <c r="B21" s="17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="22">
+        <v>79</v>
+      </c>
+      <c r="E21" s="24">
         <v>120593.8</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="24">
         <v>1187.05</v>
       </c>
       <c r="G21" s="17">
         <v>-855</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="23">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2710,134 +2773,134 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22">
+        <v>97</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
         <v>178.06</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="22"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="22">
+        <v>98</v>
+      </c>
+      <c r="F23" s="24">
         <v>1011.47</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="22">
+        <v>97</v>
+      </c>
+      <c r="F24" s="24">
         <v>151.72</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24">
+      <c r="D25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22">
+        <v>86</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24">
         <v>760</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22">
+        <v>87</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24">
         <v>300</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="22"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24">
+      <c r="D28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="22"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="26">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="22"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" s="19" customFormat="1" ht="8" customHeight="1"/>
   </sheetData>
@@ -2874,14 +2937,14 @@
     <mergeCell ref="J13:J19"/>
     <mergeCell ref="J21:J29"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2889,24 +2952,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="18.75" spans="1:2">
+    <row r="1" s="14" customFormat="1" ht="20.4" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -2914,27 +2977,27 @@
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
@@ -2951,25 +3014,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:8">
@@ -2980,36 +3043,36 @@
         <v>43497.7472222222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="8">
+        <v>110</v>
+      </c>
+      <c r="E2" s="10">
         <v>6</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="10">
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>43508.7909722222</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>110</v>
+      <c r="C3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E3" s="12">
         <v>3</v>
@@ -3017,11 +3080,11 @@
       <c r="F3" s="12">
         <v>200</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>111</v>
+      <c r="G3" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
@@ -3032,36 +3095,36 @@
         <v>43685.35625</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>43813.6430555556</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>113</v>
+      <c r="C5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -3069,11 +3132,11 @@
       <c r="F5" s="12">
         <v>200</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>114</v>
+      <c r="G5" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:8">
@@ -3084,36 +3147,36 @@
         <v>43845.6541666667</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+        <v>121</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>43868.6493055556</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>120</v>
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="E7" s="12">
         <v>6</v>
@@ -3121,11 +3184,11 @@
       <c r="F7" s="12">
         <v>200</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>111</v>
+      <c r="G7" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:8">
@@ -3136,36 +3199,36 @@
         <v>43953.5826388889</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="8">
+        <v>124</v>
+      </c>
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
         <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>108</v>
+        <v>126</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>43960.75625</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>124</v>
+      <c r="C9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3173,11 +3236,11 @@
       <c r="F9" s="12">
         <v>200</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>114</v>
+      <c r="G9" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -3188,36 +3251,36 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="8">
+        <v>110</v>
+      </c>
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="10">
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>108</v>
+        <v>130</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>44060.3277777778</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>128</v>
+      <c r="C11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -3225,11 +3288,11 @@
       <c r="F11" s="12">
         <v>100</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>111</v>
+      <c r="G11" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -3240,36 +3303,36 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+        <v>117</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>108</v>
+        <v>134</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>44078.6104166667</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>113</v>
+      <c r="C13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -3277,11 +3340,11 @@
       <c r="F13" s="12">
         <v>200</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>114</v>
+      <c r="G13" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -3292,204 +3355,204 @@
         <v>44102.6451388889</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
+        <v>117</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="8">
+        <v>138</v>
+      </c>
+      <c r="E15" s="10">
         <v>6</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>44214.4006944444</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
+        <v>117</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>44215.3979166667</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
+        <v>117</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="38" customHeight="1" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>44222.6277777778</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="8">
+        <v>114</v>
+      </c>
+      <c r="E18" s="10">
         <v>3</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="10">
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>44245.3576388889</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="8">
+        <v>146</v>
+      </c>
+      <c r="E19" s="10">
         <v>3</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="10">
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>44257.5472222222</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
+        <v>117</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>44342.76875</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
+        <v>128</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
         <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>序号</t>
   </si>
@@ -333,6 +333,17 @@
     <t>150W</t>
   </si>
   <si>
+    <t xml:space="preserve">12次洗车
+1次保养
+1次代驾
+500购物卡
+200买药什么卡？
+</t>
+  </si>
+  <si>
+    <t>车家保</t>
+  </si>
+  <si>
     <t>太平洋</t>
   </si>
   <si>
@@ -497,12 +508,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +589,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF00B050"/>
@@ -599,15 +617,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -629,46 +680,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -678,7 +689,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,16 +710,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +734,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,6 +780,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -780,7 +804,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +894,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,55 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,91 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +1005,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,17 +1058,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,192 +1098,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,46 +1297,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1671,7 +1703,7 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
@@ -1694,41 +1726,41 @@
     <col min="14" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" s="30" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1771,27 +1803,27 @@
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="27"/>
+      <c r="E3" s="31"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="17">
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="24"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="27"/>
+      <c r="E4" s="31"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -1803,10 +1835,10 @@
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -1818,7 +1850,7 @@
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
       <c r="A6" s="17">
@@ -1859,7 +1891,7 @@
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1877,7 +1909,7 @@
       <c r="K7" s="17">
         <v>282</v>
       </c>
-      <c r="M7" s="24"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1893,7 +1925,7 @@
       <c r="K8" s="17">
         <v>128</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" ht="15" spans="3:13">
       <c r="C9"/>
@@ -1909,7 +1941,7 @@
       <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" ht="29" spans="3:13">
       <c r="C10"/>
@@ -1925,7 +1957,7 @@
       <c r="K10" s="17">
         <v>0</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" ht="15" spans="3:13">
       <c r="C11"/>
@@ -1941,7 +1973,7 @@
       <c r="K11" s="17">
         <v>0</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" ht="15" spans="3:13">
       <c r="C12"/>
@@ -1957,7 +1989,7 @@
       <c r="K12" s="17">
         <v>0</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
       <c r="A13" s="17">
@@ -1996,7 +2028,7 @@
       <c r="L13" s="17">
         <v>0</v>
       </c>
-      <c r="M13" s="24"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
       <c r="A14" s="17">
@@ -2027,7 +2059,7 @@
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="33" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="17">
@@ -2130,7 +2162,7 @@
       <c r="E17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="32" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="17">
@@ -2153,7 +2185,7 @@
       </c>
     </row>
     <row r="18" ht="15" spans="6:11">
-      <c r="F18" s="28"/>
+      <c r="F18" s="32"/>
       <c r="J18" s="17" t="s">
         <v>54</v>
       </c>
@@ -2269,46 +2301,46 @@
       <c r="A25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
       <c r="A26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
       <c r="A27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
       <c r="A28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
       <c r="A29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" ht="18" customHeight="1"/>
     <row r="31" ht="18" customHeight="1"/>
@@ -2364,10 +2396,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2412,9 +2446,9 @@
       <c r="J1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" s="17" customFormat="1" ht="20" customHeight="1" spans="1:9">
       <c r="A2" s="17">
@@ -2435,7 +2469,7 @@
       <c r="F2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="25">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
@@ -2452,14 +2486,14 @@
       <c r="D3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="26">
         <v>139900</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="26">
         <v>2378.5</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
@@ -2473,11 +2507,11 @@
       <c r="E4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="26">
         <v>1679.6</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
@@ -2488,12 +2522,12 @@
       <c r="D5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
         <v>356.77</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
@@ -2504,11 +2538,11 @@
       <c r="D6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="26">
         <v>251.94</v>
       </c>
       <c r="G6" s="17"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
@@ -2519,13 +2553,13 @@
       <c r="D7" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
@@ -2538,14 +2572,14 @@
       <c r="D8" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="26">
         <v>122000</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="26">
         <v>950</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="23"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
@@ -2556,12 +2590,12 @@
       <c r="D9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
         <v>60</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
@@ -2572,13 +2606,13 @@
       <c r="D10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="23"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
@@ -2590,12 +2624,12 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="26">
+      <c r="F11" s="28">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
@@ -2611,23 +2645,23 @@
       <c r="D13" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="26">
         <v>130667</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="26">
         <v>1743.73</v>
       </c>
       <c r="G13" s="17">
         <v>-490</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="25">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="26" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2641,13 +2675,13 @@
       <c r="E14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="26">
         <v>1231.36</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A15" s="17"/>
@@ -2656,15 +2690,15 @@
       <c r="D15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25">
+      <c r="E15" s="26"/>
+      <c r="F15" s="27">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A16" s="17"/>
@@ -2675,16 +2709,16 @@
       <c r="D16" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="26">
         <v>122000</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="26">
         <v>855</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A17" s="17"/>
@@ -2693,14 +2727,14 @@
       <c r="D17" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
         <v>300</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A18" s="17"/>
@@ -2709,15 +2743,15 @@
       <c r="D18" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25">
+      <c r="E18" s="26"/>
+      <c r="F18" s="27">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A19" s="17"/>
@@ -2727,14 +2761,14 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="26">
+      <c r="F19" s="28">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" s="19" customFormat="1" ht="8" customHeight="1"/>
     <row r="21" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2748,23 +2782,23 @@
       <c r="D21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="26">
         <v>120593.8</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="26">
         <v>1187.05</v>
       </c>
       <c r="G21" s="17">
         <v>-855</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="25">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="26" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2775,14 +2809,14 @@
       <c r="D22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
         <v>178.06</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A23" s="17"/>
@@ -2794,13 +2828,13 @@
       <c r="E23" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <v>1011.47</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="23"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A24" s="17"/>
@@ -2809,13 +2843,13 @@
       <c r="D24" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="26">
         <v>151.72</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A25" s="17"/>
@@ -2824,15 +2858,15 @@
       <c r="D25" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25">
+      <c r="E25" s="26"/>
+      <c r="F25" s="27">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="23"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A26" s="17"/>
@@ -2843,14 +2877,14 @@
       <c r="D26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26">
         <v>760</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="23"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A27" s="17"/>
@@ -2859,14 +2893,14 @@
       <c r="D27" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26">
         <v>300</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="23"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A28" s="17"/>
@@ -2875,15 +2909,15 @@
       <c r="D28" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25">
+      <c r="E28" s="26"/>
+      <c r="F28" s="27">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="24"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A29" s="17"/>
@@ -2893,18 +2927,173 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="26">
+      <c r="F29" s="28">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="23"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" s="19" customFormat="1" ht="8" customHeight="1"/>
+    <row r="31" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="26">
+        <v>110521</v>
+      </c>
+      <c r="F31" s="26">
+        <v>943.86</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="25">
+        <f>SUM(F39,G31)</f>
+        <v>3666.61</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="26">
+        <v>839.75</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27">
+        <f>SUM(F31:F34)</f>
+        <v>1783.61</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26">
+        <v>965</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26">
+        <v>918</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27">
+        <f>SUM(F36:F37)</f>
+        <v>1883</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="28">
+        <f>SUM(F35,F38)</f>
+        <v>3666.61</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="40">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:XFD12"/>
@@ -2912,30 +3101,39 @@
     <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B39"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="G21:G29"/>
+    <mergeCell ref="G31:G39"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="H13:H19"/>
     <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I13:I19"/>
     <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="J13:J19"/>
     <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2964,12 +3162,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -2977,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
@@ -3014,25 +3212,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:8">
@@ -3043,10 +3241,10 @@
         <v>43497.7472222222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" s="10">
         <v>6</v>
@@ -3055,10 +3253,10 @@
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
@@ -3069,10 +3267,10 @@
         <v>43508.7909722222</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" s="12">
         <v>3</v>
@@ -3081,10 +3279,10 @@
         <v>200</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
@@ -3095,10 +3293,10 @@
         <v>43685.35625</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
@@ -3107,10 +3305,10 @@
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
@@ -3121,10 +3319,10 @@
         <v>43813.6430555556</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -3133,10 +3331,10 @@
         <v>200</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:8">
@@ -3147,10 +3345,10 @@
         <v>43845.6541666667</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
@@ -3159,10 +3357,10 @@
         <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
@@ -3173,10 +3371,10 @@
         <v>43868.6493055556</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E7" s="12">
         <v>6</v>
@@ -3185,10 +3383,10 @@
         <v>200</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:8">
@@ -3199,10 +3397,10 @@
         <v>43953.5826388889</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E8" s="10">
         <v>6</v>
@@ -3211,10 +3409,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
@@ -3225,10 +3423,10 @@
         <v>43960.75625</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -3237,10 +3435,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -3251,10 +3449,10 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" s="10">
         <v>6</v>
@@ -3263,10 +3461,10 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
@@ -3277,10 +3475,10 @@
         <v>44060.3277777778</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -3289,10 +3487,10 @@
         <v>100</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -3303,10 +3501,10 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -3315,10 +3513,10 @@
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
@@ -3329,10 +3527,10 @@
         <v>44078.6104166667</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -3341,10 +3539,10 @@
         <v>200</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -3355,10 +3553,10 @@
         <v>44102.6451388889</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -3367,10 +3565,10 @@
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:8">
@@ -3381,10 +3579,10 @@
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15" s="10">
         <v>6</v>
@@ -3393,10 +3591,10 @@
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
@@ -3407,10 +3605,10 @@
         <v>44214.4006944444</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -3419,10 +3617,10 @@
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
@@ -3433,10 +3631,10 @@
         <v>44215.3979166667</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -3445,10 +3643,10 @@
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="38" customHeight="1" spans="1:8">
@@ -3459,10 +3657,10 @@
         <v>44222.6277777778</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18" s="10">
         <v>3</v>
@@ -3471,10 +3669,10 @@
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:8">
@@ -3485,10 +3683,10 @@
         <v>44245.3576388889</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E19" s="10">
         <v>3</v>
@@ -3497,10 +3695,10 @@
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
@@ -3511,10 +3709,10 @@
         <v>44257.5472222222</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E20" s="10">
         <v>0</v>
@@ -3523,10 +3721,10 @@
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:8">
@@ -3537,10 +3735,10 @@
         <v>44342.76875</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
@@ -3549,10 +3747,10 @@
         <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="报价" sheetId="2" r:id="rId3"/>
     <sheet name="罚款" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$28</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
   <si>
     <t>序号</t>
   </si>
@@ -502,18 +505,27 @@
   <si>
     <t>上海市公安局浦东分局交通警察支队机动大队</t>
   </si>
+  <si>
+    <t>黄浮高速上行线4公里800米</t>
+  </si>
+  <si>
+    <t>黄山市公安局交通警察支队高速公路六大队</t>
+  </si>
+  <si>
+    <t>未交款</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +566,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -583,6 +601,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -596,11 +621,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -611,7 +643,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,6 +672,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -633,9 +695,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,29 +735,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,22 +743,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,40 +757,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -780,13 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +816,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,169 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,6 +1022,69 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1012,8 +1093,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1033,222 +1116,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,137 +1291,140 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1699,7 +1720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -1709,193 +1730,193 @@
       <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="17" customWidth="1"/>
-    <col min="7" max="8" width="14.125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="17" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="17" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="12.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="18" customWidth="1"/>
+    <col min="5" max="5" width="25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="18" customWidth="1"/>
+    <col min="7" max="8" width="14.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="18" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="18" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" s="31" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="18">
         <v>5068</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="18">
         <v>224.64</v>
       </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.17</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="18">
         <v>47.16</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="18">
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="18">
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="26"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="18">
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="26"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="18">
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="26"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>9890</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="18">
         <v>112.86</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="18">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="18">
         <v>73.19</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="18">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="3:13">
+    <row r="7" spans="3:13">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -1903,13 +1924,13 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <v>282</v>
       </c>
-      <c r="M7" s="26"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1919,15 +1940,15 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="18">
         <v>128</v>
       </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" ht="15" spans="3:13">
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1935,15 +1956,15 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" ht="29" spans="3:13">
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="3:13">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1951,15 +1972,15 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" ht="15" spans="3:13">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1967,15 +1988,15 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" ht="15" spans="3:13">
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="3:13">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -1983,364 +2004,364 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="26"/>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
-      <c r="A13" s="17">
+      <c r="A13" s="18">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <v>15000</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="18">
         <v>4008200410</v>
       </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="17">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="26"/>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>15500</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="18">
         <v>104</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="18">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:12">
-      <c r="A15" s="17">
+      <c r="A15" s="18">
         <v>5</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>16200</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
         <v>48.63</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="18">
         <v>48.63</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="18">
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" ht="72" spans="1:13">
-      <c r="A16" s="17">
+    <row r="16" ht="66" spans="1:13">
+      <c r="A16" s="18">
         <v>6</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>21696</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="29" spans="1:12">
-      <c r="A17" s="17">
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="33" spans="1:12">
+      <c r="A17" s="18">
         <v>7</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <v>24885</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="18">
         <v>199</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="18">
         <v>358</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="6:11">
-      <c r="F18" s="32"/>
-      <c r="J18" s="17" t="s">
+    <row r="18" spans="6:11">
+      <c r="F18" s="33"/>
+      <c r="J18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="18">
         <v>159</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:12">
-      <c r="A19" s="17">
+      <c r="A19" s="18">
         <v>8</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <v>24885</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
         <v>53</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="18">
         <v>53</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="18">
         <v>53</v>
       </c>
     </row>
-    <row r="20" ht="58" spans="1:12">
-      <c r="A20" s="17">
+    <row r="20" ht="49.5" spans="1:12">
+      <c r="A20" s="18">
         <v>9</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>26951</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>39</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <v>-10</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>25</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="18">
         <v>289</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="18">
         <f>SUM(G20,K20,I20,H20)</f>
         <v>343</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:12">
-      <c r="A21" s="17">
+    <row r="21" spans="1:12">
+      <c r="A21" s="18">
         <v>10</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="18">
         <v>26951</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="18">
         <f>SUM(G21,K21,I21,H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" ht="18" customHeight="1"/>
     <row r="31" ht="18" customHeight="1"/>
@@ -2394,703 +2415,705 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21:G29"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="17" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="17" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="38.25" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="26.375" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="17" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="18" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="38.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="18" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="18" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="34" customHeight="1" spans="1:14">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" s="17" customFormat="1" ht="34" customHeight="1" spans="1:14">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" s="17" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="17">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="22">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+    <row r="3" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <v>139900</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <v>356.77</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>251.94</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27">
+      <c r="E7" s="23"/>
+      <c r="F7" s="25">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <v>122000</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <v>950</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>60</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="21" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27">
+      <c r="E10" s="23"/>
+      <c r="F10" s="25">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="22" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="28">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" s="19" customFormat="1" ht="8" customHeight="1"/>
-    <row r="13" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" s="20" customFormat="1" ht="8" customHeight="1"/>
+    <row r="13" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>130667</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="18">
         <v>-490</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="22">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18" t="s">
+    <row r="14" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="23">
         <v>1231.36</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="21" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27">
+      <c r="E15" s="23"/>
+      <c r="F15" s="25">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>122000</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>855</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
         <v>300</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="21" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="22" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" s="19" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="28">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" s="19" customFormat="1" ht="8" customHeight="1"/>
-    <row r="21" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" s="20" customFormat="1" ht="8" customHeight="1"/>
+    <row r="21" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="23">
         <v>120593.8</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="23">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="18">
         <v>-855</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="22">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+    <row r="22" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
         <v>178.06</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="23">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="23">
         <v>151.72</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="21" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27">
+      <c r="E25" s="23"/>
+      <c r="F25" s="25">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
         <v>760</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18" t="s">
+      <c r="G26" s="18"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="21" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27">
+      <c r="E28" s="23"/>
+      <c r="F28" s="25">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="29" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="22" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" s="19" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="28">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" s="19" customFormat="1" ht="8" customHeight="1"/>
-    <row r="31" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" s="20" customFormat="1" ht="8" customHeight="1"/>
+    <row r="31" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="23">
         <v>110521</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="23">
         <v>943.86</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="25">
+      <c r="G31" s="18">
+        <v>-475</v>
+      </c>
+      <c r="H31" s="22">
         <f>SUM(F39,G31)</f>
-        <v>3666.61</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="26" t="s">
+        <v>3191.61</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="23" t="s">
+    <row r="32" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="23">
         <v>839.75</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="23" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="21" t="s">
+      <c r="F34" s="23"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27">
+      <c r="E35" s="23"/>
+      <c r="F35" s="25">
         <f>SUM(F31:F34)</f>
         <v>1783.61</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23">
         <v>965</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="24" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23">
         <v>918</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" s="18" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="21" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27">
+      <c r="E38" s="23"/>
+      <c r="F38" s="25">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" s="18" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="22" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" s="19" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="28">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="26"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -3142,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3150,18 +3173,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="20.4" spans="1:2">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="15" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3174,7 +3197,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3187,15 +3210,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
@@ -3203,7 +3228,7 @@
     <col min="4" max="4" width="66.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3246,16 +3271,16 @@
       <c r="D2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>6</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>200</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3263,13 +3288,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>43508.7909722222</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E3" s="12">
@@ -3278,7 +3303,7 @@
       <c r="F3" s="12">
         <v>200</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -3298,16 +3323,16 @@
       <c r="D4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3315,13 +3340,13 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>43813.6430555556</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="12">
@@ -3330,7 +3355,7 @@
       <c r="F5" s="12">
         <v>200</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>120</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -3350,16 +3375,16 @@
       <c r="D6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3367,13 +3392,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>43868.6493055556</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="12">
@@ -3382,7 +3407,7 @@
       <c r="F7" s="12">
         <v>200</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -3402,16 +3427,16 @@
       <c r="D8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3419,13 +3444,13 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>43960.75625</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>130</v>
       </c>
       <c r="E9" s="12">
@@ -3434,7 +3459,7 @@
       <c r="F9" s="12">
         <v>200</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>120</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -3454,16 +3479,16 @@
       <c r="D10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3471,13 +3496,13 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>44060.3277777778</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="12">
@@ -3486,7 +3511,7 @@
       <c r="F11" s="12">
         <v>100</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -3506,16 +3531,16 @@
       <c r="D12" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3523,13 +3548,13 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>44078.6104166667</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="12">
@@ -3538,7 +3563,7 @@
       <c r="F13" s="12">
         <v>200</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="11" t="s">
         <v>120</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -3558,10 +3583,10 @@
       <c r="D14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -3575,7 +3600,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3584,10 +3609,10 @@
       <c r="D15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>200</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -3601,7 +3626,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>44214.4006944444</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3610,10 +3635,10 @@
       <c r="D16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -3627,7 +3652,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>44215.3979166667</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3636,10 +3661,10 @@
       <c r="D17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -3653,7 +3678,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>44222.6277777778</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3662,10 +3687,10 @@
       <c r="D18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -3679,7 +3704,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>44245.3576388889</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3688,10 +3713,10 @@
       <c r="D19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>3</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -3705,7 +3730,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>44257.5472222222</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3714,10 +3739,10 @@
       <c r="D20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -3731,7 +3756,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>44342.76875</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3740,10 +3765,10 @@
       <c r="D21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -3753,14 +3778,41 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1"/>
-    <row r="23" ht="15" customHeight="1"/>
+    <row r="22" ht="34" customHeight="1" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44468.5694444444</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>200</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="6:6">
+      <c r="F23" s="8"/>
+    </row>
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
     <row r="26" ht="15" customHeight="1" spans="6:6">
       <c r="F26" s="2">
         <f>SUM(F2:F25)</f>
-        <v>3600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="16365" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
     <sheet name="保险" sheetId="3" r:id="rId2"/>
     <sheet name="报价" sheetId="2" r:id="rId3"/>
     <sheet name="罚款" sheetId="4" r:id="rId4"/>
+    <sheet name="基本信息" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$28</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -206,34 +207,10 @@
     <t>金豫路33号途虎</t>
   </si>
   <si>
-    <t>购车日期</t>
-  </si>
-  <si>
-    <t>2018.11.18</t>
-  </si>
-  <si>
-    <t>上牌日期</t>
-  </si>
-  <si>
-    <t>2018.12.10</t>
-  </si>
-  <si>
-    <t>发动机号</t>
-  </si>
-  <si>
-    <t>AZ6316</t>
-  </si>
-  <si>
-    <t>底盘号</t>
-  </si>
-  <si>
-    <t>LSVNS45E5JN086595</t>
-  </si>
-  <si>
-    <t>车型</t>
-  </si>
-  <si>
-    <t>斯柯达SVW71415AL轿车</t>
+    <t>2021.12.1</t>
+  </si>
+  <si>
+    <t>空气消毒</t>
   </si>
   <si>
     <t>保障项目</t>
@@ -514,6 +491,36 @@
   <si>
     <t>未交款</t>
   </si>
+  <si>
+    <t>购车日期</t>
+  </si>
+  <si>
+    <t>2018.11.18</t>
+  </si>
+  <si>
+    <t>上牌日期</t>
+  </si>
+  <si>
+    <t>2018.12.10</t>
+  </si>
+  <si>
+    <t>发动机号</t>
+  </si>
+  <si>
+    <t>AZ6316</t>
+  </si>
+  <si>
+    <t>底盘号</t>
+  </si>
+  <si>
+    <t>LSVNS45E5JN086595</t>
+  </si>
+  <si>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>斯柯达SVW71415AL轿车</t>
+  </si>
 </sst>
 </file>
 
@@ -521,8 +528,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -532,6 +539,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -587,12 +600,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="3" tint="0.4"/>
@@ -622,7 +629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,30 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,9 +665,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,6 +705,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,40 +740,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,14 +759,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,19 +823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,13 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,43 +895,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,37 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +955,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,39 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,21 +1036,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1103,6 +1062,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1124,10 +1131,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,175 +1143,184 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1312,23 +1328,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1337,9 +1350,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1355,23 +1365,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,195 +1734,195 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="18" customWidth="1"/>
-    <col min="7" max="8" width="14.125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="18" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="18" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="32" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="18">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="2">
         <v>5068</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="2">
         <v>224.64</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="2">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.17</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="2">
         <f>SUM(G2,I2,H2)</f>
         <v>588.81</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="32"/>
+      <c r="E3" s="33"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="2">
         <v>288</v>
       </c>
       <c r="L3"/>
-      <c r="M3" s="23"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="2">
         <v>13.26</v>
       </c>
       <c r="L4"/>
-      <c r="M4" s="23"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="2">
         <v>15.75</v>
       </c>
       <c r="L5"/>
-      <c r="M5" s="23"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="18">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="2">
         <v>9890</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="2">
         <v>112.86</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="2">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="2">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="2">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1924,13 +1934,13 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="3:13">
       <c r="C8"/>
@@ -1940,13 +1950,13 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="3:13">
       <c r="C9"/>
@@ -1956,13 +1966,13 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="23"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="3:13">
       <c r="C10"/>
@@ -1972,13 +1982,13 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="3:13">
       <c r="C11"/>
@@ -1988,13 +1998,13 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="23"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="3:13">
       <c r="C12"/>
@@ -2004,376 +2014,374 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="23"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:13">
-      <c r="A13" s="18">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="2">
         <v>15000</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="2">
         <v>4008200410</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="23"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:12">
-      <c r="A14" s="18">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="2">
         <v>15500</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="2">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="2">
         <v>104</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="2">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:12">
-      <c r="A15" s="18">
+      <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="2">
         <v>16200</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="2">
         <v>48.63</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="2">
         <v>48.63</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="2">
         <v>48.63</v>
       </c>
     </row>
     <row r="16" ht="66" spans="1:13">
-      <c r="A16" s="18">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="2">
         <v>21696</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="33" spans="1:12">
-      <c r="A17" s="18">
+      <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="2">
         <v>24885</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="2">
         <v>358</v>
       </c>
     </row>
     <row r="18" spans="6:11">
-      <c r="F18" s="33"/>
-      <c r="J18" s="18" t="s">
+      <c r="F18" s="34"/>
+      <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="2">
         <v>159</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:12">
-      <c r="A19" s="18">
+      <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="2">
         <v>24885</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="2">
         <v>53</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="2">
         <v>53</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="49.5" spans="1:12">
-      <c r="A20" s="18">
+      <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="2">
         <v>26951</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="2">
         <v>39</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="2">
         <v>-10</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="2">
         <v>25</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="2">
         <v>289</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="2">
         <f>SUM(G20,K20,I20,H20)</f>
         <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="18">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="2">
         <v>26951</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="2">
         <f>SUM(G21,K21,I21,H21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="19"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="19"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
-      <c r="A25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="23"/>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:3">
-      <c r="A26" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="23"/>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:3">
-      <c r="A27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="23"/>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:3">
-      <c r="A28" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="23"/>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:3">
-      <c r="A29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="23"/>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
     </row>
     <row r="30" ht="18" customHeight="1"/>
     <row r="31" ht="18" customHeight="1"/>
     <row r="32" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="34">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A17:A18"/>
@@ -2427,693 +2435,693 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18" style="18" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="18" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="38.25" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="18" customWidth="1"/>
-    <col min="12" max="12" width="20.875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="18" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="26.375" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="34" customHeight="1" spans="1:14">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="21" customFormat="1" ht="34" customHeight="1" spans="1:14">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="18">
+      <c r="J1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="22">
+      <c r="E2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="24">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4">
         <v>139900</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="G3" s="2"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23">
+      <c r="G4" s="2"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="G5" s="2"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="26">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="G7" s="2"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4">
         <v>122000</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="G8" s="2"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="26">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
+      <c r="G10" s="2"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" s="20" customFormat="1" ht="8" customHeight="1"/>
-    <row r="13" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="G11" s="2"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" s="22" customFormat="1" ht="8" customHeight="1"/>
+    <row r="13" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="4">
         <v>130667</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="2">
         <v>-490</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="24">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="I13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4">
         <v>1231.36</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="26">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="G15" s="2"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4">
         <v>122000</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
+      <c r="G16" s="2"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="26">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27">
+      <c r="G18" s="2"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" s="20" customFormat="1" ht="8" customHeight="1"/>
-    <row r="21" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="G19" s="2"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" s="22" customFormat="1" ht="8" customHeight="1"/>
+    <row r="21" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4">
         <v>120593.8</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="2">
         <v>-855</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="24">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23">
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="23">
+      <c r="G22" s="2"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="G23" s="2"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="25">
+      <c r="G24" s="2"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="26">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23">
+      <c r="G25" s="2"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23">
+      <c r="G26" s="2"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="25">
+      <c r="G27" s="2"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="26">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" s="19" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27">
+      <c r="G28" s="2"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" s="20" customFormat="1" ht="8" customHeight="1"/>
-    <row r="31" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="23">
+      <c r="G29" s="2"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" s="22" customFormat="1" ht="8" customHeight="1"/>
+    <row r="31" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="4">
         <v>110521</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="2">
         <v>-475</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="24">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="23">
+      <c r="I31" s="2"/>
+      <c r="J31" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="25">
+      <c r="G33" s="2"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="26">
         <f>SUM(F31:F34)</f>
         <v>1783.61</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23">
+      <c r="G35" s="2"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23">
+      <c r="G36" s="2"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" s="19" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="25">
+      <c r="G37" s="2"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="26">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" s="19" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27">
+      <c r="G38" s="2"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="23"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -3180,25 +3188,25 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="19" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>101</v>
+      <c r="B1" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>103</v>
+      <c r="B3" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
@@ -3214,7 +3222,7 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
@@ -3222,595 +3230,595 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="39" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43497.7472222222</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <v>200</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43508.7909722222</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D3" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16">
+        <v>200</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H3" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>43685.35625</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
+      <c r="D4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>200</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>43813.6430555556</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>200</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" ht="38" customHeight="1" spans="1:8">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>43845.6541666667</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43868.6493055556</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16">
+        <v>200</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:8">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>43953.5826388889</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>100</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:8">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>43960.75625</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>200</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44019.65625</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="12">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12">
+        <v>200</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>44060.3277777778</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>43497.7472222222</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="F11" s="16">
+        <v>100</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:8">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44066.4194444444</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>200</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:8">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44078.6104166667</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>200</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="8">
+      <c r="H13" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:8">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44102.6451388889</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>200</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" ht="40" customHeight="1" spans="1:8">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>44106.6069444444</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="12">
         <v>6</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F15" s="12">
         <v>200</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:8">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>43508.7909722222</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="G15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:8">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>44214.4006944444</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>200</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:8">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44215.3979166667</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>200</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" ht="38" customHeight="1" spans="1:8">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>44222.6277777778</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="12">
         <v>3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F18" s="12">
         <v>200</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="2">
+      <c r="G18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:8">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>44245.3576388889</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>43685.35625</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="F19" s="12">
+        <v>100</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:8">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44257.5472222222</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F20" s="12">
         <v>200</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:8">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>43813.6430555556</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="G20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:8">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>44342.76875</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F21" s="12">
         <v>200</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" ht="38" customHeight="1" spans="1:8">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>43845.6541666667</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1" spans="1:8">
-      <c r="A7" s="2">
+      <c r="G21" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" ht="34" customHeight="1" spans="1:8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>44468.5694444444</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>43868.6493055556</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="12">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="F22" s="12">
         <v>200</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:8">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>43953.5826388889</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8">
-        <v>100</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
-        <v>43960.75625</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>200</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>44019.65625</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="8">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:8">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44060.3277777778</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>100</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:8">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44066.4194444444</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:8">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10">
-        <v>44078.6104166667</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>200</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:8">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44102.6451388889</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" ht="40" customHeight="1" spans="1:8">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <v>44106.6069444444</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="8">
-        <v>6</v>
-      </c>
-      <c r="F15" s="8">
-        <v>200</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:8">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>44214.4006944444</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:8">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>44215.3979166667</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" ht="38" customHeight="1" spans="1:8">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44222.6277777778</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="G22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="8">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8">
-        <v>200</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H22" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:8">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44245.3576388889</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="8">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="1:8">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>44257.5472222222</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>200</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" ht="19" customHeight="1" spans="1:8">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10">
-        <v>44342.76875</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>200</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" ht="34" customHeight="1" spans="1:8">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10">
-        <v>44468.5694444444</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="8">
-        <v>6</v>
-      </c>
-      <c r="F22" s="8">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="6:6">
-      <c r="F23" s="8"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
     <row r="26" ht="15" customHeight="1" spans="6:6">
-      <c r="F26" s="2">
+      <c r="F26" s="6">
         <f>SUM(F2:F25)</f>
         <v>3800</v>
       </c>
@@ -3824,4 +3832,73 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" ht="18.5" customHeight="1"/>
+    <row r="7" ht="18.5" customHeight="1"/>
+    <row r="8" ht="18.5" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>序号</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>空气消毒</t>
+  </si>
+  <si>
+    <t>2022.1.19</t>
+  </si>
+  <si>
+    <t>火花塞</t>
+  </si>
+  <si>
+    <t>运河西路119号</t>
+  </si>
+  <si>
+    <t>NGK双铂金火花塞 PKER7A8EGS * 4</t>
   </si>
   <si>
     <t>保障项目</t>
@@ -527,10 +539,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -608,13 +620,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -628,32 +633,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,30 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -696,13 +670,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -718,15 +686,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -734,7 +695,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,27 +777,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -805,91 +817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +847,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,85 +1009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,17 +1038,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,17 +1061,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,11 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,26 +1110,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,148 +1140,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,17 +1322,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1348,25 +1360,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1387,54 +1399,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1730,17 +1742,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:C29"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -1926,7 +1938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" ht="15" spans="3:13">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -1958,7 +1970,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" ht="15" spans="3:13">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1974,7 +1986,7 @@
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" ht="29" spans="3:13">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1990,7 +2002,7 @@
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" ht="15" spans="3:13">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -2006,7 +2018,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" ht="15" spans="3:13">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -2139,7 +2151,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:13">
+    <row r="16" ht="72" spans="1:13">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:12">
+    <row r="17" ht="29" spans="1:12">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -2215,7 +2227,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="6:11">
+    <row r="18" ht="15" spans="6:11">
       <c r="F18" s="34"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
@@ -2262,7 +2274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" ht="49.5" spans="1:12">
+    <row r="20" ht="58" spans="1:12">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" ht="15" spans="1:12">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="15" spans="1:5">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2329,12 +2341,11 @@
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="15" spans="1:5">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2348,8 +2359,34 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+    <row r="24" ht="29" spans="1:12">
+      <c r="A24" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2">
+        <v>30325</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="2">
+        <v>240.56</v>
+      </c>
+      <c r="L24" s="2">
+        <v>290.56</v>
+      </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:3">
       <c r="A25"/>
@@ -2423,7 +2460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
@@ -2433,7 +2470,7 @@
       <selection pane="bottomLeft" activeCell="H31" sqref="H31:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
@@ -2461,19 +2498,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
@@ -2484,36 +2521,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="24">
+        <v>72</v>
+      </c>
+      <c r="H2" s="28">
         <f>SUM(F11)</f>
         <v>5676.81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4">
         <v>139900</v>
@@ -2522,7 +2559,7 @@
         <v>2378.5</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="24"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
@@ -2531,16 +2568,16 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
@@ -2549,14 +2586,14 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
@@ -2565,13 +2602,13 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
@@ -2579,16 +2616,16 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="25" t="s">
-        <v>76</v>
+      <c r="D7" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="26">
+      <c r="F7" s="29">
         <f>SUM(F3:F6)</f>
         <v>4666.81</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -2596,10 +2633,10 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E8" s="4">
         <v>122000</v>
@@ -2608,7 +2645,7 @@
         <v>950</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -2617,14 +2654,14 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>60</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
@@ -2632,33 +2669,33 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="25" t="s">
-        <v>76</v>
+      <c r="D10" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="26">
+      <c r="F10" s="29">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28">
+      <c r="C11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="30">
         <f>SUM(F7,F10)</f>
         <v>5676.81</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
@@ -2666,13 +2703,13 @@
     <row r="13" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E13" s="4">
         <v>130667</v>
@@ -2683,15 +2720,15 @@
       <c r="G13" s="2">
         <v>-490</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="28">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2699,16 +2736,16 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4">
         <v>1231.36</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="2"/>
       <c r="J14" s="4"/>
     </row>
@@ -2716,16 +2753,16 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="25" t="s">
-        <v>76</v>
+      <c r="D15" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="26">
+      <c r="F15" s="29">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="2"/>
       <c r="J15" s="4"/>
     </row>
@@ -2733,10 +2770,10 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4">
         <v>122000</v>
@@ -2745,7 +2782,7 @@
         <v>855</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
     </row>
@@ -2754,14 +2791,14 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>300</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="2"/>
       <c r="J17" s="4"/>
     </row>
@@ -2769,33 +2806,33 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="25" t="s">
-        <v>76</v>
+      <c r="D18" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="26">
+      <c r="F18" s="29">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="2"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28">
+      <c r="C19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="30">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="2"/>
       <c r="J19" s="4"/>
     </row>
@@ -2803,13 +2840,13 @@
     <row r="21" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4">
         <v>120593.8</v>
@@ -2820,15 +2857,15 @@
       <c r="G21" s="2">
         <v>-855</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="28">
         <f>SUM(F29,G21)</f>
         <v>2733.3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
@@ -2836,14 +2873,14 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="2"/>
       <c r="J22" s="4"/>
     </row>
@@ -2852,16 +2889,16 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="2"/>
       <c r="J23" s="4"/>
     </row>
@@ -2870,13 +2907,13 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="2"/>
       <c r="J24" s="4"/>
     </row>
@@ -2884,16 +2921,16 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="25" t="s">
-        <v>76</v>
+      <c r="D25" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="26">
+      <c r="F25" s="29">
         <f>SUM(F21:F24)</f>
         <v>2528.3</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
     </row>
@@ -2901,17 +2938,17 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
         <v>760</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="2"/>
       <c r="J26" s="4"/>
     </row>
@@ -2920,14 +2957,14 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
         <v>300</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
     </row>
@@ -2935,33 +2972,33 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="25" t="s">
-        <v>76</v>
+      <c r="D28" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="26">
+      <c r="F28" s="29">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="2"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28">
+      <c r="C29" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="30">
         <f>SUM(F25,F28)</f>
         <v>3588.3</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="2"/>
       <c r="J29" s="4"/>
     </row>
@@ -2970,10 +3007,10 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4">
         <v>110521</v>
@@ -2984,26 +3021,26 @@
       <c r="G31" s="2">
         <v>-475</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="28">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="29" t="s">
-        <v>89</v>
+      <c r="D32" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="2"/>
       <c r="J32" s="4"/>
     </row>
@@ -3012,16 +3049,16 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="24"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="2"/>
       <c r="J33" s="4"/>
     </row>
@@ -3029,12 +3066,12 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="29" t="s">
-        <v>89</v>
+      <c r="D34" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="24"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="2"/>
       <c r="J34" s="4"/>
     </row>
@@ -3042,16 +3079,16 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="25" t="s">
-        <v>76</v>
+      <c r="D35" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="26">
+      <c r="F35" s="29">
         <f>SUM(F31:F34)</f>
         <v>1783.61</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="2"/>
       <c r="J35" s="4"/>
     </row>
@@ -3059,17 +3096,17 @@
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
         <v>965</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="24"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="2"/>
       <c r="J36" s="4"/>
     </row>
@@ -3077,15 +3114,15 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="30" t="s">
-        <v>92</v>
+      <c r="D37" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>918</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="24"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="2"/>
       <c r="J37" s="4"/>
     </row>
@@ -3093,33 +3130,33 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="25" t="s">
-        <v>76</v>
+      <c r="D38" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="26">
+      <c r="F38" s="29">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="24"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="2"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28">
+      <c r="C39" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="30">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="24"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="2"/>
       <c r="J39" s="4"/>
     </row>
@@ -3173,7 +3210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3181,24 +3218,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="18.75" spans="1:2">
+    <row r="1" s="19" customFormat="1" ht="20.4" spans="1:2">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="109" customHeight="1" spans="1:2">
@@ -3206,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1"/>
@@ -3218,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -3228,7 +3265,7 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
@@ -3245,25 +3282,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:8">
@@ -3274,36 +3311,36 @@
         <v>43497.7472222222</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="12">
+        <v>108</v>
+      </c>
+      <c r="E2" s="14">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>200</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:8">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>43508.7909722222</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>108</v>
+      <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="E3" s="16">
         <v>3</v>
@@ -3311,11 +3348,11 @@
       <c r="F3" s="16">
         <v>200</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>109</v>
+      <c r="G3" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
@@ -3326,36 +3363,36 @@
         <v>43685.35625</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>200</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>200</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>43813.6430555556</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>111</v>
+      <c r="C5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
@@ -3363,11 +3400,11 @@
       <c r="F5" s="16">
         <v>200</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>112</v>
+      <c r="G5" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:8">
@@ -3378,36 +3415,36 @@
         <v>43845.6541666667</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="12">
+        <v>119</v>
+      </c>
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>100</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:8">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>43868.6493055556</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>118</v>
+      <c r="C7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -3415,11 +3452,11 @@
       <c r="F7" s="16">
         <v>200</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>109</v>
+      <c r="G7" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:8">
@@ -3430,36 +3467,36 @@
         <v>43953.5826388889</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="12">
+        <v>122</v>
+      </c>
+      <c r="E8" s="14">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>106</v>
+        <v>124</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>43960.75625</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>122</v>
+      <c r="C9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -3467,11 +3504,11 @@
       <c r="F9" s="16">
         <v>200</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>112</v>
+      <c r="G9" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -3482,36 +3519,36 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="12">
+        <v>108</v>
+      </c>
+      <c r="E10" s="14">
         <v>6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <v>200</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>106</v>
+        <v>128</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>44060.3277777778</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>126</v>
+      <c r="C11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -3519,11 +3556,11 @@
       <c r="F11" s="16">
         <v>100</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>109</v>
+      <c r="G11" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -3534,36 +3571,36 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="12">
+        <v>115</v>
+      </c>
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <v>200</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>106</v>
+        <v>132</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>44078.6104166667</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>111</v>
+      <c r="C13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
@@ -3571,11 +3608,11 @@
       <c r="F13" s="16">
         <v>200</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>112</v>
+      <c r="G13" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -3586,234 +3623,234 @@
         <v>44102.6451388889</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="12">
+        <v>115</v>
+      </c>
+      <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>200</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="12">
+        <v>136</v>
+      </c>
+      <c r="E15" s="14">
         <v>6</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <v>200</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>44214.4006944444</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="12">
+        <v>115</v>
+      </c>
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="14">
         <v>200</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>44215.3979166667</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="12">
+        <v>115</v>
+      </c>
+      <c r="E17" s="14">
         <v>0</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>200</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="38" customHeight="1" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>44222.6277777778</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="12">
+        <v>112</v>
+      </c>
+      <c r="E18" s="14">
         <v>3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="14">
         <v>200</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" ht="39" customHeight="1" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>44245.3576388889</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="12">
+        <v>144</v>
+      </c>
+      <c r="E19" s="14">
         <v>3</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="14">
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>44257.5472222222</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="12">
+        <v>115</v>
+      </c>
+      <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="14">
         <v>200</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>44342.76875</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="12">
+        <v>126</v>
+      </c>
+      <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="14">
         <v>200</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="34" customHeight="1" spans="1:8">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>44468.5694444444</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="12">
+        <v>136</v>
+      </c>
+      <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="14">
         <v>200</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="6:6">
-      <c r="F23" s="12"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" ht="15" customHeight="1"/>
     <row r="25" ht="15" customHeight="1"/>
@@ -3835,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3843,7 +3880,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
@@ -3851,46 +3888,46 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4"/>
     </row>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\knowledges\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$29</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="169">
   <si>
     <t>序号</t>
   </si>
@@ -545,18 +550,49 @@
   <si>
     <t>斯柯达SVW71415AL轿车</t>
   </si>
+  <si>
+    <t>2022.7.9</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>壳牌鹏致/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PENNZOIL P7 Pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 高级全合成润滑油 5W-40 SP 4L</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安保险赠送保养</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.10</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,7 +656,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="3" tint="0.4"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -646,151 +682,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,188 +745,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1043,255 +769,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,13 +840,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1370,9 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1390,71 +865,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1741,21 +1203,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -1772,72 +1233,73 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="32">
         <v>5068</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="32">
         <v>224.64</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="32">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="32">
         <f>SUM(K2,K3,K4,K5)</f>
-        <v>364.17</v>
+        <v>364.16999999999996</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -1845,85 +1307,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="32">
         <f>SUM(G2,I2,H2)</f>
-        <v>588.81</v>
-      </c>
-      <c r="M2" s="4" t="s">
+        <v>588.80999999999995</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="5:13">
-      <c r="E3" s="32"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" s="34" t="s">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="29" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>288</v>
       </c>
-      <c r="L3"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="5:13">
-      <c r="E4" s="32"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="32"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:13">
-      <c r="A6" s="2">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="32">
         <v>9890</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="32">
         <v>112.86</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="32">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="32">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1933,111 +1407,129 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="32">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="34"/>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="3:13">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="3:13">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="34"/>
     </row>
-    <row r="10" spans="3:13">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="3:13">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="3:13">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="34"/>
     </row>
-    <row r="13" ht="40" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2076,7 +1568,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" ht="48" customHeight="1" spans="1:12">
+    <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -2105,7 +1597,7 @@
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="29" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="2">
@@ -2116,7 +1608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" ht="36" customHeight="1" spans="1:12">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2154,7 +1646,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:13">
+    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -2192,32 +1684,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:12">
-      <c r="A17" s="2">
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="32">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="32">
         <v>24885</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="32">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="32">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="32">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2226,20 +1718,31 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="32">
         <v>358</v>
       </c>
+      <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="6:11">
-      <c r="F18" s="33"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:12">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -2277,7 +1780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" ht="49.5" spans="1:12">
+    <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -2313,7 +1816,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2334,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2348,7 +1851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2362,8 +1865,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:12">
-      <c r="A24" s="2">
+    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="30">
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2391,34 +1894,64 @@
         <v>290.56</v>
       </c>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:3">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
+    <row r="25" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="30">
+        <v>14</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2">
+        <v>32700</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:3">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30">
+        <v>15</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="30">
+        <v>32700</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:3">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:3">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:3">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" ht="18" customHeight="1"/>
-    <row r="31" ht="18" customHeight="1"/>
-    <row r="32" ht="18" customHeight="1"/>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="J1:K1"/>
@@ -2456,24 +1989,22 @@
     <mergeCell ref="M6:M12"/>
     <mergeCell ref="M17:M18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
@@ -2493,16 +2024,19 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="34" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="41" t="s">
         <v>66</v>
       </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2515,41 +2049,43 @@
       <c r="J1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="23">
+      <c r="G2" s="32"/>
+      <c r="H2" s="38">
         <f>SUM(F11)</f>
-        <v>5676.81</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>5676.8099999999995</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>73</v>
       </c>
+      <c r="J2" s="32"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2561,15 +2097,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
@@ -2579,15 +2115,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>78</v>
       </c>
@@ -2595,47 +2131,47 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <f>SUM(F3:F6)</f>
-        <v>4666.81</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>4666.8099999999995</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2647,15 +2183,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3" t="s">
         <v>83</v>
       </c>
@@ -2663,52 +2199,52 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="24" t="s">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="26" t="s">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="24">
         <f>SUM(F7,F10)</f>
-        <v>5676.81</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <v>5676.8099999999995</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
-    <row r="12" s="21" customFormat="1" ht="8" customHeight="1"/>
-    <row r="13" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="1:14" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2720,24 +2256,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="32">
         <v>-490</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="38">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="3" t="s">
         <v>89</v>
       </c>
@@ -2745,34 +2281,34 @@
         <v>77</v>
       </c>
       <c r="F14" s="4">
-        <v>1231.36</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+        <v>1231.3599999999999</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="34"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="24" t="s">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2784,15 +2320,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="34"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3" t="s">
         <v>83</v>
       </c>
@@ -2800,52 +2336,52 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="34"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="24" t="s">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="34"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="26" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="24">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="34"/>
     </row>
-    <row r="20" s="21" customFormat="1" ht="8" customHeight="1"/>
-    <row r="21" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2857,24 +2393,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="32">
         <v>-855</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="38">
         <f>SUM(F29,G21)</f>
-        <v>2733.3</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>2733.2999999999997</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="3" t="s">
         <v>93</v>
       </c>
@@ -2882,15 +2418,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="34"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
@@ -2900,47 +2436,47 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="34"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="34"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="24" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <f>SUM(F21:F24)</f>
-        <v>2528.3</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
+        <v>2528.2999999999997</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="34"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2950,15 +2486,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="34"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="3" t="s">
         <v>83</v>
       </c>
@@ -2966,50 +2502,50 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="34"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="24" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="34"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="26" t="s">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27">
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="24">
         <f>SUM(F25,F28)</f>
-        <v>3588.3</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
+        <v>3588.2999999999997</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="34"/>
     </row>
-    <row r="30" s="21" customFormat="1" ht="8" customHeight="1"/>
-    <row r="31" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    <row r="30" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3021,36 +2557,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="32">
         <v>-475</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="38">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="32"/>
+      <c r="J31" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="28" t="s">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="25" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="34"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
@@ -3060,45 +2596,45 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="34"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="28" t="s">
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="25" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="34"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="24" t="s">
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="25">
+      <c r="F35" s="23">
         <f>SUM(F31:F34)</f>
-        <v>1783.61</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
+        <v>1783.6100000000001</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="34"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3108,60 +2644,60 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="34"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="29" t="s">
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="26" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="34"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="24" t="s">
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="25">
+      <c r="F38" s="23">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="4"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="34"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="74" customHeight="1" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="26" t="s">
+    <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="24">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -3170,15 +2706,10 @@
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="C3:C7"/>
@@ -3193,42 +2724,46 @@
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="G31:G39"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
     <mergeCell ref="H21:H29"/>
     <mergeCell ref="H31:H39"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I13:I19"/>
     <mergeCell ref="I21:I29"/>
     <mergeCell ref="I31:I39"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="18.75" spans="1:2">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -3236,12 +2771,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:1">
+    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" ht="109" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="108.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3249,26 +2784,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1"/>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
@@ -3280,7 +2813,7 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3306,12 +2839,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>43497.7472222222</v>
+        <v>43497.747222222199</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>107</v>
@@ -3332,12 +2865,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14">
-        <v>43508.7909722222</v>
+        <v>43508.790972222203</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>111</v>
@@ -3358,12 +2891,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>43685.35625</v>
+        <v>43685.356249999997</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>114</v>
@@ -3384,7 +2917,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3410,12 +2943,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" ht="38" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>43845.6541666667</v>
+        <v>43845.654166666704</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>118</v>
@@ -3436,12 +2969,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" ht="40" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="14">
-        <v>43868.6493055556</v>
+        <v>43868.649305555598</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>121</v>
@@ -3462,12 +2995,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" ht="39" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>43953.5826388889</v>
+        <v>43953.582638888904</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>123</v>
@@ -3488,12 +3021,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="14">
-        <v>43960.75625</v>
+        <v>43960.756249999999</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -3514,7 +3047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3540,12 +3073,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="14">
-        <v>44060.3277777778</v>
+        <v>44060.327777777798</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>129</v>
@@ -3566,7 +3099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3592,12 +3125,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="14">
-        <v>44078.6104166667</v>
+        <v>44078.610416666699</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>133</v>
@@ -3618,12 +3151,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44102.6451388889</v>
+        <v>44102.645138888904</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>134</v>
@@ -3644,7 +3177,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" ht="40" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3670,12 +3203,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="14">
-        <v>44214.4006944444</v>
+        <v>44214.400694444397</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>138</v>
@@ -3696,12 +3229,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:8">
+    <row r="17" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="14">
-        <v>44215.3979166667</v>
+        <v>44215.397916666698</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>139</v>
@@ -3722,12 +3255,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" ht="38" customHeight="1" spans="1:8">
+    <row r="18" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="14">
-        <v>44222.6277777778</v>
+        <v>44222.627777777801</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>141</v>
@@ -3748,12 +3281,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:8">
+    <row r="19" spans="1:16384" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="14">
-        <v>44245.3576388889</v>
+        <v>44245.357638888898</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>143</v>
@@ -3774,12 +3307,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:8">
+    <row r="20" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="14">
-        <v>44257.5472222222</v>
+        <v>44257.547222222202</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>146</v>
@@ -3800,12 +3333,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" ht="19" customHeight="1" spans="1:8">
+    <row r="21" spans="1:16384" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="14">
-        <v>44342.76875</v>
+        <v>44342.768750000003</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>125</v>
@@ -3826,12 +3359,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" ht="34" customHeight="1" spans="1:8">
+    <row r="22" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="14">
-        <v>44468.5694444444</v>
+        <v>44468.569444444402</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>148</v>
@@ -3852,12 +3385,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" ht="38" customHeight="1" spans="1:8">
+    <row r="23" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="14">
-        <v>44588.8875</v>
+        <v>44588.887499999997</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>150</v>
@@ -3878,12 +3411,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" ht="34" customHeight="1" spans="1:16384">
+    <row r="24" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44589.4645833333</v>
+        <v>44589.464583333298</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>153</v>
@@ -20280,45 +19813,45 @@
       <c r="XFC24" s="11"/>
       <c r="XFD24" s="11"/>
     </row>
-    <row r="25" ht="15" customHeight="1"/>
-    <row r="26" ht="15" customHeight="1" spans="3:7">
+    <row r="25" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="6:6">
+    <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="6">
         <f>SUM(F2:F26)</f>
         <v>3950</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1"/>
+    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>
   </sortState>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
@@ -20327,7 +19860,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
@@ -20336,7 +19869,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>159</v>
       </c>
@@ -20345,7 +19878,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
@@ -20354,7 +19887,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>163</v>
       </c>
@@ -20363,11 +19896,11 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="18.5" customHeight="1"/>
-    <row r="7" ht="18.5" customHeight="1"/>
-    <row r="8" ht="18.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\knowledges\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="174">
   <si>
     <t>序号</t>
   </si>
@@ -228,6 +223,59 @@
   </si>
   <si>
     <t>NGK双铂金火花塞 PKER7A8EGS * 4</t>
+  </si>
+  <si>
+    <t>2022.7.9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壳牌鹏致/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PENNZOIL P7 Pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 高级全合成润滑油 5W-40 SP 4L</t>
+    </r>
+  </si>
+  <si>
+    <t>平安保险赠送保养</t>
+  </si>
+  <si>
+    <t>2022.7.10</t>
+  </si>
+  <si>
+    <t>2022.7.30</t>
+  </si>
+  <si>
+    <t>井岗路6号</t>
+  </si>
+  <si>
+    <t>驾驰/THINKAUTO多功能空调系统蒸发箱清洗三件套TS3611</t>
+  </si>
+  <si>
+    <t>优惠 139+159-27</t>
+  </si>
+  <si>
+    <t>人工费</t>
   </si>
   <si>
     <t>保障项目</t>
@@ -550,49 +598,18 @@
   <si>
     <t>斯柯达SVW71415AL轿车</t>
   </si>
-  <si>
-    <t>2022.7.9</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>壳牌鹏致/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PENNZOIL P7 Pro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 高级全合成润滑油 5W-40 SP 4L</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安保险赠送保养</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,7 +673,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="3" tint="0.39997558519241921"/>
+      <color theme="3" tint="0.399975585192419"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -682,21 +699,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,8 +898,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -769,13 +1108,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,7 +1421,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -848,6 +1435,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -865,58 +1455,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1203,20 +1812,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A26"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -1233,73 +1843,72 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="31" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+    <row r="2" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="2">
         <v>5068</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="2">
         <v>224.64</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="2">
         <f>SUM(K2,K3,K4,K5)</f>
-        <v>364.16999999999996</v>
+        <v>364.17</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -1307,97 +1916,85 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="2">
         <f>SUM(G2,I2,H2)</f>
-        <v>588.80999999999995</v>
-      </c>
-      <c r="M2" s="34" t="s">
+        <v>588.81</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="29" t="s">
+    <row r="3" ht="20.1" customHeight="1" spans="5:13">
+      <c r="E3" s="32"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>288</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="L3"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+    <row r="4" ht="20.1" customHeight="1" spans="5:13">
+      <c r="E4" s="32"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
+      <c r="L4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+    <row r="5" ht="15" customHeight="1" spans="5:13">
+      <c r="E5" s="32"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="L5"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+    <row r="6" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="2">
         <v>9890</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="2">
         <v>112.86</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="2">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="2">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1407,129 +2004,111 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="2">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+    <row r="7" spans="3:13">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="34"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+    <row r="8" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="34"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+    <row r="9" spans="3:13">
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="34"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+    <row r="10" spans="3:13">
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="34"/>
+      <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+    <row r="11" spans="3:13">
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="34"/>
+      <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+    <row r="12" spans="3:13">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="34"/>
+      <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="39.95" customHeight="1" spans="1:13">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -1568,7 +2147,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="48" customHeight="1" spans="1:12">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1597,7 +2176,7 @@
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="36" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="2">
@@ -1608,7 +2187,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36" customHeight="1" spans="1:12">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1646,7 +2225,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.15">
+    <row r="16" ht="66" spans="1:13">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -1684,32 +2263,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+    <row r="17" ht="33" spans="1:12">
+      <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="2">
         <v>24885</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1718,31 +2297,20 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="2">
         <v>358</v>
       </c>
-      <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+    <row r="18" spans="6:11">
+      <c r="F18" s="33"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="20.1" customHeight="1" spans="1:12">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -1780,7 +2348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="20" ht="49.5" spans="1:12">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1816,7 +2384,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -1837,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -1851,7 +2419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -1865,8 +2433,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="30">
+    <row r="24" ht="33" spans="1:12">
+      <c r="A24" s="2">
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1894,12 +2462,12 @@
         <v>290.56</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30">
+    <row r="25" ht="66" customHeight="1" spans="1:13">
+      <c r="A25" s="2">
         <v>14</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>165</v>
+      <c r="B25" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>38</v>
@@ -1910,66 +2478,101 @@
       <c r="E25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>167</v>
+      <c r="J25" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30">
+    <row r="26" ht="18" customHeight="1" spans="1:5">
+      <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="2">
         <v>32700</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
+    <row r="27" ht="47" customHeight="1" spans="1:13">
+      <c r="A27" s="2">
+        <v>16</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2">
+        <v>33249</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="2">
+        <v>139</v>
+      </c>
+      <c r="L27" s="2">
+        <v>271</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
+    <row r="28" ht="18" customHeight="1" spans="2:11">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="2">
+        <v>159</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="18" customHeight="1" spans="1:2">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29"/>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="18" customHeight="1"/>
+    <row r="31" ht="18" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="43">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E12"/>
     <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F17:F18"/>
@@ -1979,32 +2582,38 @@
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I12"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="L6:L12"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M6:M12"/>
     <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
@@ -2024,72 +2633,67 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="20" customFormat="1" ht="33.95" customHeight="1" spans="1:14">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+    <row r="2" ht="20.1" customHeight="1" spans="1:9">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="38">
+      <c r="E2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="23">
         <f>SUM(F11)</f>
-        <v>5676.8099999999995</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="32"/>
+        <v>5676.81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32" t="s">
-        <v>74</v>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4">
         <v>139900</v>
@@ -2097,85 +2701,85 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="22" t="s">
-        <v>80</v>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="23">
+      <c r="F7" s="25">
         <f>SUM(F3:F6)</f>
-        <v>4666.8099999999995</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+        <v>4666.81</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
-        <v>81</v>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4">
         <v>122000</v>
@@ -2183,72 +2787,72 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="22" t="s">
-        <v>80</v>
+    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="23">
+      <c r="F10" s="25">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="24">
+    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27">
         <f>SUM(F7,F10)</f>
-        <v>5676.8099999999995</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+        <v>5676.81</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>74</v>
+    <row r="12" s="21" customFormat="1" ht="8.1" customHeight="1"/>
+    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E13" s="4">
         <v>130667</v>
@@ -2256,63 +2860,63 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="2">
         <v>-490</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="23">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>88</v>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1231.36</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1231.3599999999999</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="23">
+      <c r="F15" s="25">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="34"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
-        <v>81</v>
+    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4">
         <v>122000</v>
@@ -2320,72 +2924,72 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="34"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="22" t="s">
-        <v>80</v>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="23">
+      <c r="F18" s="25">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="34"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="24">
+    <row r="19" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="34"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>74</v>
+    <row r="20" s="21" customFormat="1" ht="8.1" customHeight="1"/>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E21" s="4">
         <v>120593.8</v>
@@ -2393,163 +2997,163 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="2">
         <v>-855</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="23">
         <f>SUM(F29,G21)</f>
-        <v>2733.2999999999997</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>92</v>
+        <v>2733.3</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="34"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="34"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+    <row r="24" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="22" t="s">
-        <v>80</v>
+    <row r="25" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="23">
+      <c r="F25" s="25">
         <f>SUM(F21:F24)</f>
-        <v>2528.2999999999997</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
+        <v>2528.3</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
-        <v>81</v>
+    <row r="26" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+    <row r="27" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="34"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="22" t="s">
-        <v>80</v>
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="23">
+      <c r="F28" s="25">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="39" t="s">
+    <row r="29" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27">
+        <f>SUM(F25,F28)</f>
+        <v>3588.3</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" s="21" customFormat="1" ht="8.1" customHeight="1"/>
+    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="24">
-        <f>SUM(F25,F28)</f>
-        <v>3588.2999999999997</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E31" s="4">
         <v>110521</v>
@@ -2557,147 +3161,147 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="2">
         <v>-475</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="23">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="34" t="s">
-        <v>95</v>
+      <c r="I31" s="2"/>
+      <c r="J31" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="25" t="s">
-        <v>93</v>
+    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="25" t="s">
-        <v>93</v>
+    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="22" t="s">
-        <v>80</v>
+    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="23">
+      <c r="F35" s="25">
         <f>SUM(F31:F34)</f>
-        <v>1783.6100000000001</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="34"/>
+        <v>1783.61</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32" t="s">
-        <v>81</v>
+    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="26" t="s">
-        <v>96</v>
+    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="22" t="s">
-        <v>80</v>
+    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="23">
+      <c r="F38" s="25">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="24">
+    <row r="39" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -2706,10 +3310,15 @@
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="C3:C7"/>
@@ -2724,84 +3333,82 @@
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="G31:G39"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
     <mergeCell ref="H21:H29"/>
     <mergeCell ref="H31:H39"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I13:I19"/>
     <mergeCell ref="I21:I29"/>
     <mergeCell ref="I31:I39"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" s="18" customFormat="1" ht="18.75" spans="1:2">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="108.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="108.95" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" ht="30" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
@@ -2813,44 +3420,44 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="20.1" customHeight="1" spans="1:8">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>43497.747222222199</v>
+        <v>43497.7472222222</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E2" s="12">
         <v>6</v>
@@ -2859,24 +3466,24 @@
         <v>200</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="20.1" customHeight="1" spans="1:8">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14">
-        <v>43508.790972222203</v>
+        <v>43508.7909722222</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E3" s="16">
         <v>3</v>
@@ -2885,24 +3492,24 @@
         <v>200</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="20.1" customHeight="1" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>43685.356249999997</v>
+        <v>43685.35625</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2911,13 +3518,13 @@
         <v>200</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="20.1" customHeight="1" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2925,10 +3532,10 @@
         <v>43813.6430555556</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
@@ -2937,24 +3544,24 @@
         <v>200</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="38.1" customHeight="1" spans="1:8">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>43845.654166666704</v>
+        <v>43845.6541666667</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
@@ -2963,24 +3570,24 @@
         <v>100</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="39.95" customHeight="1" spans="1:8">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="14">
-        <v>43868.649305555598</v>
+        <v>43868.6493055556</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -2989,24 +3596,24 @@
         <v>200</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="39" customHeight="1" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>43953.582638888904</v>
+        <v>43953.5826388889</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E8" s="12">
         <v>6</v>
@@ -3015,24 +3622,24 @@
         <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="20.1" customHeight="1" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="14">
-        <v>43960.756249999999</v>
+        <v>43960.75625</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -3041,13 +3648,13 @@
         <v>200</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="20.1" customHeight="1" spans="1:8">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3055,10 +3662,10 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12">
         <v>6</v>
@@ -3067,24 +3674,24 @@
         <v>200</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="20.1" customHeight="1" spans="1:8">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="14">
-        <v>44060.327777777798</v>
+        <v>44060.3277777778</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -3093,13 +3700,13 @@
         <v>100</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="20.1" customHeight="1" spans="1:8">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3107,10 +3714,10 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -3119,24 +3726,24 @@
         <v>200</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="20.1" customHeight="1" spans="1:8">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="14">
-        <v>44078.610416666699</v>
+        <v>44078.6104166667</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
@@ -3145,24 +3752,24 @@
         <v>200</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="20.1" customHeight="1" spans="1:8">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44102.645138888904</v>
+        <v>44102.6451388889</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -3171,13 +3778,13 @@
         <v>200</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="39.95" customHeight="1" spans="1:8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3185,10 +3792,10 @@
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E15" s="12">
         <v>6</v>
@@ -3197,24 +3804,24 @@
         <v>200</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="1:8">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="14">
-        <v>44214.400694444397</v>
+        <v>44214.4006944444</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -3223,24 +3830,24 @@
         <v>200</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="14">
-        <v>44215.397916666698</v>
+        <v>44215.3979166667</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -3249,24 +3856,24 @@
         <v>200</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="38.1" customHeight="1" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="14">
-        <v>44222.627777777801</v>
+        <v>44222.6277777778</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E18" s="12">
         <v>3</v>
@@ -3275,24 +3882,24 @@
         <v>200</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="39" customHeight="1" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="14">
-        <v>44245.357638888898</v>
+        <v>44245.3576388889</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E19" s="12">
         <v>3</v>
@@ -3301,24 +3908,24 @@
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="20.1" customHeight="1" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="14">
-        <v>44257.547222222202</v>
+        <v>44257.5472222222</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -3327,24 +3934,24 @@
         <v>200</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:16384" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="18.95" customHeight="1" spans="1:8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="14">
-        <v>44342.768750000003</v>
+        <v>44342.76875</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
@@ -3353,24 +3960,24 @@
         <v>200</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="33.95" customHeight="1" spans="1:8">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="14">
-        <v>44468.569444444402</v>
+        <v>44468.5694444444</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E22" s="12">
         <v>6</v>
@@ -3379,24 +3986,24 @@
         <v>200</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="38.1" customHeight="1" spans="1:8">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="14">
-        <v>44588.887499999997</v>
+        <v>44588.8875</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -3405,24 +4012,24 @@
         <v>50</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="33.95" customHeight="1" spans="1:16384">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44589.464583333298</v>
+        <v>44589.4645833333</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E24" s="12">
         <v>6</v>
@@ -3431,10 +4038,10 @@
         <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -19813,94 +20420,95 @@
       <c r="XFC24" s="11"/>
       <c r="XFD24" s="11"/>
     </row>
-    <row r="25" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="15" customHeight="1"/>
+    <row r="26" ht="15" customHeight="1" spans="3:7">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="15" customHeight="1" spans="6:6">
       <c r="F27" s="6">
         <f>SUM(F2:F26)</f>
         <v>3950</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>
   </sortState>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="18.6" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="18.6" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="18.6" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="18.6" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="18.6" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" ht="18.6" customHeight="1"/>
+    <row r="7" ht="18.6" customHeight="1"/>
+    <row r="8" ht="18.6" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\knowledges\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$29</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="179">
   <si>
     <t>序号</t>
   </si>
@@ -598,18 +603,27 @@
   <si>
     <t>斯柯达SVW71415AL轿车</t>
   </si>
+  <si>
+    <t>山深线（国道205）1385公里380米</t>
+  </si>
+  <si>
+    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车在高速公路、城市快速路以外的道路上行驶超过规定时速百分之二十以上未达到百分之五十的</t>
+  </si>
+  <si>
+    <t>当涂县公安局交通管理大队</t>
+  </si>
+  <si>
+    <t>G347国道304公里795米</t>
+  </si>
+  <si>
+    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车行驶超过规定时速百分之十以上未达到百分之二十的</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,7 +687,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="3" tint="0.399975585192419"/>
+      <color theme="3" tint="0.39994506668294322"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -705,151 +719,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,194 +775,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1108,255 +799,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,13 +870,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1435,9 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1455,77 +895,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1812,21 +1233,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -1843,72 +1263,73 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="32">
         <v>5068</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="32">
         <v>224.64</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="32">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="32">
         <f>SUM(K2,K3,K4,K5)</f>
-        <v>364.17</v>
+        <v>364.16999999999996</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -1916,85 +1337,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="32">
         <f>SUM(G2,I2,H2)</f>
-        <v>588.81</v>
-      </c>
-      <c r="M2" s="4" t="s">
+        <v>588.80999999999995</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="5:13">
-      <c r="E3" s="32"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" s="36" t="s">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>288</v>
       </c>
-      <c r="L3"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="37"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="5:13">
-      <c r="E4" s="32"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="37"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="5:13">
-      <c r="E5" s="32"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="37"/>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A6" s="2">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="32">
         <v>9890</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="32">
         <v>112.86</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="32">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="32">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -2004,111 +1437,129 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="32">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="37"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="3:13">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="37"/>
     </row>
-    <row r="10" spans="3:13">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="3:13">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="3:13">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="37"/>
     </row>
-    <row r="13" ht="39.95" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2147,7 +1598,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" ht="48" customHeight="1" spans="1:12">
+    <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -2176,7 +1627,7 @@
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="30" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="2">
@@ -2187,7 +1638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" ht="36" customHeight="1" spans="1:12">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2225,7 +1676,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:13">
+    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -2263,32 +1714,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:12">
-      <c r="A17" s="2">
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="32">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="32">
         <v>24885</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="32">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="32">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="32">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2297,20 +1748,31 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="32">
         <v>358</v>
       </c>
+      <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="6:11">
-      <c r="F18" s="33"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:12">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -2348,7 +1810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" ht="49.5" spans="1:12">
+    <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -2384,7 +1846,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2405,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2419,7 +1881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2433,7 +1895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:12">
+    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -2462,11 +1924,11 @@
         <v>290.56</v>
       </c>
     </row>
-    <row r="25" ht="66" customHeight="1" spans="1:13">
+    <row r="25" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>14</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2478,18 +1940,18 @@
       <c r="E25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:5">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2502,56 +1964,90 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" ht="47" customHeight="1" spans="1:13">
-      <c r="A27" s="2">
+    <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32">
         <v>16</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="32">
         <v>33249</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="32" t="s">
         <v>71</v>
       </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="32">
         <v>271</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="2:11">
-      <c r="B28" s="34"/>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:2">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" ht="18" customHeight="1"/>
-    <row r="31" ht="18" customHeight="1"/>
-    <row r="32" ht="18" customHeight="1"/>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
@@ -2568,52 +2064,23 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
@@ -2633,16 +2100,19 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="33.95" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="38" t="s">
         <v>75</v>
       </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2655,41 +2125,43 @@
       <c r="J1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="23">
+      <c r="G2" s="32"/>
+      <c r="H2" s="41">
         <f>SUM(F11)</f>
-        <v>5676.81</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>5676.8099999999995</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>82</v>
       </c>
+      <c r="J2" s="32"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2701,15 +2173,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2719,15 +2191,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
@@ -2735,47 +2207,47 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <f>SUM(F3:F6)</f>
-        <v>4666.81</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>4666.8099999999995</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2787,15 +2259,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3" t="s">
         <v>92</v>
       </c>
@@ -2803,52 +2275,52 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="24" t="s">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="26" t="s">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="24">
         <f>SUM(F7,F10)</f>
-        <v>5676.81</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <v>5676.8099999999995</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
-    <row r="12" s="21" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="1:14" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2860,24 +2332,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="32">
         <v>-490</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="41">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
@@ -2885,34 +2357,34 @@
         <v>86</v>
       </c>
       <c r="F14" s="4">
-        <v>1231.36</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+        <v>1231.3599999999999</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="37"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="24" t="s">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="37"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2924,15 +2396,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="37"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3" t="s">
         <v>92</v>
       </c>
@@ -2940,52 +2412,52 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="24" t="s">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="37"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="26" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="24">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="37"/>
     </row>
-    <row r="20" s="21" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="32" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2997,24 +2469,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="32">
         <v>-855</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="41">
         <f>SUM(F29,G21)</f>
-        <v>2733.3</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>2733.2999999999997</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="3" t="s">
         <v>102</v>
       </c>
@@ -3022,15 +2494,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="37"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="3" t="s">
         <v>85</v>
       </c>
@@ -3040,47 +2512,47 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="37"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="24" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <f>SUM(F21:F24)</f>
-        <v>2528.3</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
+        <v>2528.2999999999997</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="37"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3090,15 +2562,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
@@ -3106,50 +2578,50 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="37"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="24" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="37"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="26" t="s">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27">
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="24">
         <f>SUM(F25,F28)</f>
-        <v>3588.3</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
+        <v>3588.2999999999997</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="37"/>
     </row>
-    <row r="30" s="21" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    <row r="30" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3161,36 +2633,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="32">
         <v>-475</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="41">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="32"/>
+      <c r="J31" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="28" t="s">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="37"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
@@ -3200,45 +2672,45 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="37"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="28" t="s">
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="25" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="37"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="24" t="s">
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="25">
+      <c r="F35" s="23">
         <f>SUM(F31:F34)</f>
-        <v>1783.61</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
+        <v>1783.6100000000001</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="37"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3248,68 +2720,78 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="37"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="29" t="s">
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="26" t="s">
         <v>105</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="37"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="24" t="s">
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="25">
+      <c r="F38" s="23">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="4"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="37"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="26" t="s">
+    <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="24">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="G31:G39"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A30:XFD30"/>
     <mergeCell ref="C39:E39"/>
@@ -3326,49 +2808,38 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="H13:H19"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="J13:J19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="18.75" spans="1:2">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -3376,12 +2847,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:1">
+    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" ht="108.95" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="108.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3389,26 +2860,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1"/>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
@@ -3420,7 +2889,7 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3446,12 +2915,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>43497.7472222222</v>
+        <v>43497.747222222199</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>116</v>
@@ -3472,12 +2941,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="14">
-        <v>43508.7909722222</v>
+        <v>43508.790972222203</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>120</v>
@@ -3498,12 +2967,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>43685.35625</v>
+        <v>43685.356249999997</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>123</v>
@@ -3524,7 +2993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3550,12 +3019,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" ht="38.1" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>43845.6541666667</v>
+        <v>43845.654166666704</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>127</v>
@@ -3576,12 +3045,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="14">
-        <v>43868.6493055556</v>
+        <v>43868.649305555598</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>130</v>
@@ -3602,12 +3071,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="39" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>43953.5826388889</v>
+        <v>43953.582638888904</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>132</v>
@@ -3628,12 +3097,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="14">
-        <v>43960.75625</v>
+        <v>43960.756249999999</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>134</v>
@@ -3654,7 +3123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3680,12 +3149,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="14">
-        <v>44060.3277777778</v>
+        <v>44060.327777777798</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>138</v>
@@ -3706,7 +3175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3732,12 +3201,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="14">
-        <v>44078.6104166667</v>
+        <v>44078.610416666699</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>142</v>
@@ -3758,12 +3227,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44102.6451388889</v>
+        <v>44102.645138888904</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>143</v>
@@ -3784,7 +3253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" ht="39.95" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3810,12 +3279,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="14">
-        <v>44214.4006944444</v>
+        <v>44214.400694444397</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>147</v>
@@ -3836,12 +3305,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:8">
+    <row r="17" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="14">
-        <v>44215.3979166667</v>
+        <v>44215.397916666698</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>148</v>
@@ -3862,12 +3331,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" ht="38.1" customHeight="1" spans="1:8">
+    <row r="18" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="14">
-        <v>44222.6277777778</v>
+        <v>44222.627777777801</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>150</v>
@@ -3888,12 +3357,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:8">
+    <row r="19" spans="1:16384" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="14">
-        <v>44245.3576388889</v>
+        <v>44245.357638888898</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>152</v>
@@ -3914,12 +3383,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:8">
+    <row r="20" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="14">
-        <v>44257.5472222222</v>
+        <v>44257.547222222202</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>155</v>
@@ -3940,12 +3409,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" ht="18.95" customHeight="1" spans="1:8">
+    <row r="21" spans="1:16384" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="14">
-        <v>44342.76875</v>
+        <v>44342.768750000003</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>134</v>
@@ -3966,12 +3435,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" ht="33.95" customHeight="1" spans="1:8">
+    <row r="22" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="14">
-        <v>44468.5694444444</v>
+        <v>44468.569444444402</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>157</v>
@@ -3992,12 +3461,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" ht="38.1" customHeight="1" spans="1:8">
+    <row r="23" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="14">
-        <v>44588.8875</v>
+        <v>44588.887499999997</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>159</v>
@@ -4018,12 +3487,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" ht="33.95" customHeight="1" spans="1:16384">
+    <row r="24" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44589.4645833333</v>
+        <v>44589.464583333298</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>162</v>
@@ -20420,46 +19889,91 @@
       <c r="XFC24" s="11"/>
       <c r="XFD24" s="11"/>
     </row>
-    <row r="25" ht="15" customHeight="1"/>
-    <row r="26" ht="15" customHeight="1" spans="3:7">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="6"/>
+    <row r="25" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44839.811111111114</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12">
+        <v>100</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="6:6">
+    <row r="26" spans="1:16384" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44837.855555555558</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="6">
         <f>SUM(F2:F26)</f>
-        <v>3950</v>
+        <v>4050</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1"/>
+    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>
   </sortState>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>164</v>
       </c>
@@ -20468,7 +19982,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>166</v>
       </c>
@@ -20477,7 +19991,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="18.6" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
@@ -20486,7 +20000,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="18.6" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>170</v>
       </c>
@@ -20495,7 +20009,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="18.6" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -20504,11 +20018,11 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="18.6" customHeight="1"/>
-    <row r="7" ht="18.6" customHeight="1"/>
-    <row r="8" ht="18.6" customHeight="1"/>
+    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="181">
   <si>
     <t>序号</t>
   </si>
@@ -618,12 +618,34 @@
   <si>
     <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车行驶超过规定时速百分之十以上未达到百分之二十的</t>
   </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>022.11.17</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5次洗车
+1次代驾
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +747,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -805,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,30 +930,32 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -932,8 +963,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,10 +1329,10 @@
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1379,7 @@
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1350,57 +1388,57 @@
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>288</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="37"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="37"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
@@ -1441,20 +1479,20 @@
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1462,18 +1500,18 @@
         <v>282</v>
       </c>
       <c r="L7" s="32"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1481,18 +1519,18 @@
         <v>128</v>
       </c>
       <c r="L8" s="32"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1500,18 +1538,18 @@
         <v>0</v>
       </c>
       <c r="L9" s="32"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1519,18 +1557,18 @@
         <v>0</v>
       </c>
       <c r="L10" s="32"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1538,18 +1576,18 @@
         <v>0</v>
       </c>
       <c r="L11" s="32"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1557,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="32"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1730,7 +1768,7 @@
       <c r="E17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="35" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="32">
@@ -1759,7 +1797,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -1968,10 +2006,10 @@
       <c r="A27" s="32">
         <v>16</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="32">
@@ -1997,8 +2035,8 @@
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="H28" s="32"/>
@@ -2021,33 +2059,6 @@
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
@@ -2064,6 +2075,33 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,11 +2111,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31:H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2107,12 +2145,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="41">
+      <c r="H2" s="39">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
@@ -2174,7 +2212,7 @@
         <v>2378.5</v>
       </c>
       <c r="G3" s="32"/>
-      <c r="H3" s="41"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
@@ -2192,7 +2230,7 @@
         <v>1679.6</v>
       </c>
       <c r="G4" s="32"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
     </row>
@@ -2208,7 +2246,7 @@
         <v>356.77</v>
       </c>
       <c r="G5" s="32"/>
-      <c r="H5" s="41"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
@@ -2223,7 +2261,7 @@
         <v>251.94</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="41"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
     </row>
@@ -2240,7 +2278,7 @@
         <v>4666.8099999999995</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="41"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
@@ -2260,7 +2298,7 @@
         <v>950</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="41"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
@@ -2276,7 +2314,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="32"/>
-      <c r="H9" s="41"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
@@ -2293,28 +2331,28 @@
         <v>1010</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="H10" s="41"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="24">
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
       <c r="G11" s="32"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:14" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="41" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
       <c r="B13" s="32" t="s">
@@ -2335,14 +2373,14 @@
       <c r="G13" s="32">
         <v>-490</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="34" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2360,9 +2398,9 @@
         <v>1231.3599999999999</v>
       </c>
       <c r="G14" s="32"/>
-      <c r="H14" s="41"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="37"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
@@ -2377,9 +2415,9 @@
         <v>2975.09</v>
       </c>
       <c r="G15" s="32"/>
-      <c r="H15" s="41"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="37"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
@@ -2397,9 +2435,9 @@
         <v>855</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="41"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
@@ -2413,9 +2451,9 @@
         <v>300</v>
       </c>
       <c r="G17" s="32"/>
-      <c r="H17" s="41"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
@@ -2430,28 +2468,28 @@
         <v>1155</v>
       </c>
       <c r="G18" s="32"/>
-      <c r="H18" s="41"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="37"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="24">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
       <c r="G19" s="32"/>
-      <c r="H19" s="41"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" s="41" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="B21" s="32" t="s">
@@ -2472,14 +2510,14 @@
       <c r="G21" s="32">
         <v>-855</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="34" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2495,9 +2533,9 @@
         <v>178.06</v>
       </c>
       <c r="G22" s="32"/>
-      <c r="H22" s="41"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32"/>
@@ -2513,9 +2551,9 @@
         <v>1011.47</v>
       </c>
       <c r="G23" s="32"/>
-      <c r="H23" s="41"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="37"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
@@ -2528,9 +2566,9 @@
         <v>151.72</v>
       </c>
       <c r="G24" s="32"/>
-      <c r="H24" s="41"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="37"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32"/>
@@ -2545,9 +2583,9 @@
         <v>2528.2999999999997</v>
       </c>
       <c r="G25" s="32"/>
-      <c r="H25" s="41"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="32"/>
-      <c r="J25" s="37"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
@@ -2563,9 +2601,9 @@
         <v>760</v>
       </c>
       <c r="G26" s="32"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32"/>
@@ -2579,9 +2617,9 @@
         <v>300</v>
       </c>
       <c r="G27" s="32"/>
-      <c r="H27" s="41"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="32"/>
-      <c r="J27" s="37"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
@@ -2596,28 +2634,28 @@
         <v>1060</v>
       </c>
       <c r="G28" s="32"/>
-      <c r="H28" s="41"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="37"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="24">
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
       <c r="G29" s="32"/>
-      <c r="H29" s="41"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="37"/>
+      <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:10" s="40" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" s="41" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
@@ -2636,12 +2674,12 @@
       <c r="G31" s="32">
         <v>-475</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="39">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
       <c r="I31" s="32"/>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="34" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2655,9 +2693,9 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="32"/>
-      <c r="H32" s="41"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="32"/>
-      <c r="J32" s="37"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32"/>
@@ -2673,9 +2711,9 @@
         <v>839.75</v>
       </c>
       <c r="G33" s="32"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="37"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
@@ -2686,9 +2724,9 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="41"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="37"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="32"/>
@@ -2703,9 +2741,9 @@
         <v>1783.6100000000001</v>
       </c>
       <c r="G35" s="32"/>
-      <c r="H35" s="41"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="37"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32"/>
@@ -2721,9 +2759,9 @@
         <v>965</v>
       </c>
       <c r="G36" s="32"/>
-      <c r="H36" s="41"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="37"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32"/>
@@ -2737,9 +2775,9 @@
         <v>918</v>
       </c>
       <c r="G37" s="32"/>
-      <c r="H37" s="41"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="37"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32"/>
@@ -2754,37 +2792,187 @@
         <v>1883</v>
       </c>
       <c r="G38" s="32"/>
-      <c r="H38" s="41"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="32"/>
-      <c r="J38" s="37"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="24">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
       <c r="G39" s="32"/>
-      <c r="H39" s="41"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="32"/>
-      <c r="J39" s="37"/>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32">
+        <v>-200</v>
+      </c>
+      <c r="H40" s="39">
+        <f>SUM(F48,G40)</f>
+        <v>-200</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="34"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="23">
+        <f>SUM(F40:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="32"/>
+      <c r="C48" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="24">
+        <f>SUM(F44,F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
+  <mergeCells count="48">
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="H40:H48"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C38"/>
@@ -2801,26 +2989,18 @@
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2872,7 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t>序号</t>
   </si>
@@ -640,6 +640,26 @@
 </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50W</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人人身意外伤害保险</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -834,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,44 +954,53 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,10 +1358,10 @@
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
@@ -1341,31 +1370,31 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="34">
         <v>5068</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="34">
         <v>224.64</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="34">
         <v>0</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="34">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.16999999999996</v>
       </c>
@@ -1375,97 +1404,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="34">
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2">
         <v>288</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <v>9890</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="34">
         <v>112.86</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="34">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="34">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1475,127 +1504,127 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="34">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1753,31 +1782,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+      <c r="A17" s="34">
         <v>7</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="34">
         <v>24885</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="34">
         <v>0</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="34">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1786,29 +1815,29 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="34">
         <v>358</v>
       </c>
-      <c r="M17" s="32"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -2003,52 +2032,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32">
+      <c r="A27" s="34">
         <v>16</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="34">
         <v>33249</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="34">
         <v>271</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
@@ -2059,6 +2088,33 @@
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
@@ -2075,33 +2131,6 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,7 +2144,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2145,12 +2174,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2168,10 +2197,10 @@
       <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2186,20 +2215,20 @@
       <c r="F2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="39">
+      <c r="G2" s="34"/>
+      <c r="H2" s="41">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2211,15 +2240,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2229,15 +2258,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
@@ -2245,30 +2274,30 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="22" t="s">
         <v>89</v>
       </c>
@@ -2277,15 +2306,15 @@
         <f>SUM(F3:F6)</f>
         <v>4666.8099999999995</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2297,15 +2326,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="3" t="s">
         <v>92</v>
       </c>
@@ -2313,15 +2342,15 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="22" t="s">
         <v>89</v>
       </c>
@@ -2330,35 +2359,35 @@
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="24">
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:14" s="41" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2370,24 +2399,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="34">
         <v>-490</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="41">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
@@ -2397,15 +2426,15 @@
       <c r="F14" s="4">
         <v>1231.3599999999999</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
@@ -2414,15 +2443,15 @@
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2434,15 +2463,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>92</v>
       </c>
@@ -2450,15 +2479,15 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="22" t="s">
         <v>89</v>
       </c>
@@ -2467,35 +2496,35 @@
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="24">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:10" s="41" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2507,24 +2536,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="34">
         <v>-855</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="41">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="39" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="3" t="s">
         <v>102</v>
       </c>
@@ -2532,15 +2561,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="3" t="s">
         <v>85</v>
       </c>
@@ -2550,30 +2579,30 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
@@ -2582,15 +2611,15 @@
         <f>SUM(F21:F24)</f>
         <v>2528.2999999999997</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2600,15 +2629,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
@@ -2616,15 +2645,15 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="22" t="s">
         <v>89</v>
       </c>
@@ -2633,33 +2662,33 @@
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="40" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="24">
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:10" s="41" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2671,36 +2700,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="34">
         <v>-475</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="41">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="34" t="s">
+      <c r="I31" s="34"/>
+      <c r="J31" s="39" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
@@ -2710,28 +2739,28 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="25" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="22" t="s">
         <v>89</v>
       </c>
@@ -2740,15 +2769,15 @@
         <f>SUM(F31:F34)</f>
         <v>1783.6100000000001</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2758,15 +2787,15 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="26" t="s">
         <v>105</v>
       </c>
@@ -2774,15 +2803,15 @@
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="22" t="s">
         <v>89</v>
       </c>
@@ -2791,169 +2820,205 @@
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="40" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="24">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32">
+      <c r="E40" s="31">
+        <v>98897</v>
+      </c>
+      <c r="F40" s="31">
+        <v>757.17</v>
+      </c>
+      <c r="G40" s="34">
         <v>-200</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="41">
         <f>SUM(F48,G40)</f>
-        <v>-200</v>
-      </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="44" t="s">
+        <v>2167.7600000000002</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="34"/>
+      <c r="E42" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="31">
+        <v>425.59</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="23">
-        <f>SUM(F40:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="34"/>
+        <f>SUM(F40,F42)</f>
+        <v>1182.76</v>
+      </c>
+      <c r="G44" s="34"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="34"/>
+      <c r="F45" s="32">
+        <v>965</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="47" t="s">
+        <v>182</v>
+      </c>
       <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="34"/>
+      <c r="F46" s="3">
+        <v>220</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="32"/>
-      <c r="C48" s="40" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="24">
-        <f>SUM(F44,F47)</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
+        <f>SUM(F44,F45,F46)</f>
+        <v>2367.7600000000002</v>
+      </c>
+      <c r="G48" s="34"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="H40:H48"/>
-    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
     <mergeCell ref="J40:J48"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C48:E48"/>
@@ -2970,33 +3035,11 @@
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="H40:H48"/>
+    <mergeCell ref="I40:I48"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
   <si>
     <t>序号</t>
   </si>
@@ -660,6 +660,12 @@
     <t>个人人身意外伤害保险</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>怀宁县公安局交警大队</t>
+  </si>
+  <si>
+    <t>烟汕线（国道206）1261公里</t>
+  </si>
 </sst>
 </file>
 
@@ -956,51 +962,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,10 +1364,10 @@
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
@@ -1370,31 +1376,31 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="35">
         <v>5068</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="35">
         <v>224.64</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="35">
         <v>0</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="35">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.16999999999996</v>
       </c>
@@ -1404,20 +1410,20 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="35">
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -1429,14 +1435,14 @@
         <v>288</v>
       </c>
       <c r="L3" s="36"/>
-      <c r="M3" s="39"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="37"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -1448,14 +1454,14 @@
         <v>13.26</v>
       </c>
       <c r="L4" s="36"/>
-      <c r="M4" s="39"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -1467,34 +1473,34 @@
         <v>15.75</v>
       </c>
       <c r="L5" s="36"/>
-      <c r="M5" s="39"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
+      <c r="A6" s="35">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="35">
         <v>9890</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="35">
         <v>112.86</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="35">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="35">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1504,17 +1510,17 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="35">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -1528,12 +1534,12 @@
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -1547,12 +1553,12 @@
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
@@ -1566,12 +1572,12 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
@@ -1585,12 +1591,12 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -1604,12 +1610,12 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -1623,8 +1629,8 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1782,31 +1788,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="34">
+      <c r="A17" s="35">
         <v>7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="35">
         <v>24885</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="35">
         <v>0</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="35">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="35">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1815,29 +1821,29 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="35">
         <v>358</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -2032,52 +2038,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34">
+      <c r="A27" s="35">
         <v>16</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="35">
         <v>33249</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="35">
         <v>271</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
@@ -2088,33 +2094,6 @@
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
@@ -2131,6 +2110,33 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2142,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J40" sqref="J40:J48"/>
     </sheetView>
@@ -2174,12 +2180,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2197,10 +2203,10 @@
       <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2215,20 +2221,20 @@
       <c r="F2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="41">
+      <c r="G2" s="35"/>
+      <c r="H2" s="42">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2240,15 +2246,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2258,15 +2264,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
@@ -2274,30 +2280,30 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="22" t="s">
         <v>89</v>
       </c>
@@ -2306,15 +2312,15 @@
         <f>SUM(F3:F6)</f>
         <v>4666.8099999999995</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2326,15 +2332,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="3" t="s">
         <v>92</v>
       </c>
@@ -2342,15 +2348,15 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="22" t="s">
         <v>89</v>
       </c>
@@ -2359,14 +2365,14 @@
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="43" t="s">
         <v>93</v>
       </c>
@@ -2376,18 +2382,18 @@
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:14" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="44" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2399,24 +2405,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="35">
         <v>-490</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="42">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
@@ -2426,15 +2432,15 @@
       <c r="F14" s="4">
         <v>1231.3599999999999</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
@@ -2443,15 +2449,15 @@
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2463,15 +2469,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="3" t="s">
         <v>92</v>
       </c>
@@ -2479,15 +2485,15 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="39"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="22" t="s">
         <v>89</v>
       </c>
@@ -2496,14 +2502,14 @@
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="39"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="43" t="s">
         <v>93</v>
       </c>
@@ -2513,18 +2519,18 @@
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="37"/>
     </row>
-    <row r="20" spans="1:10" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" s="44" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2536,24 +2542,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="35">
         <v>-855</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="42">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="37" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="3" t="s">
         <v>102</v>
       </c>
@@ -2561,15 +2567,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="39"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="3" t="s">
         <v>85</v>
       </c>
@@ -2579,30 +2585,30 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="39"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="39"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="22" t="s">
         <v>89</v>
       </c>
@@ -2611,15 +2617,15 @@
         <f>SUM(F21:F24)</f>
         <v>2528.2999999999997</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="39"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2629,15 +2635,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="39"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
@@ -2645,15 +2651,15 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="39"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="22" t="s">
         <v>89</v>
       </c>
@@ -2662,14 +2668,14 @@
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="39"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="43" t="s">
         <v>93</v>
       </c>
@@ -2679,16 +2685,16 @@
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="39"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="37"/>
     </row>
-    <row r="30" spans="1:10" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" s="44" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2700,36 +2706,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="35">
         <v>-475</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="42">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="39" t="s">
+      <c r="I31" s="35"/>
+      <c r="J31" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="39"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
@@ -2739,28 +2745,28 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="39"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="25" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="39"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="22" t="s">
         <v>89</v>
       </c>
@@ -2769,15 +2775,15 @@
         <f>SUM(F31:F34)</f>
         <v>1783.6100000000001</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="39"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2787,15 +2793,15 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="39"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="26" t="s">
         <v>105</v>
       </c>
@@ -2803,15 +2809,15 @@
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="39"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="22" t="s">
         <v>89</v>
       </c>
@@ -2820,14 +2826,14 @@
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="39"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="43" t="s">
         <v>93</v>
       </c>
@@ -2837,16 +2843,16 @@
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="39"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2858,64 +2864,64 @@
       <c r="F40" s="31">
         <v>757.17</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="35">
         <v>-200</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="42">
         <f>SUM(F48,G40)</f>
         <v>2167.7600000000002</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="42" t="s">
+      <c r="I40" s="35"/>
+      <c r="J40" s="45" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="39"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="33" t="s">
         <v>181</v>
       </c>
       <c r="F42" s="31">
         <v>425.59</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="39"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="31"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="39"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="22" t="s">
         <v>89</v>
       </c>
@@ -2924,14 +2930,14 @@
         <f>SUM(F40,F42)</f>
         <v>1182.76</v>
       </c>
-      <c r="G44" s="34"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="39"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2941,41 +2947,41 @@
       <c r="F45" s="32">
         <v>965</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="39"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="47" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="34" t="s">
         <v>182</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="3">
         <v>220</v>
       </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="39"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="39"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="34"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="43" t="s">
         <v>93</v>
       </c>
@@ -2985,19 +2991,39 @@
         <f>SUM(F44,F45,F46)</f>
         <v>2367.7600000000002</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="39"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="H40:H48"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="G13:G19"/>
@@ -3014,32 +3040,12 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="J21:J29"/>
     <mergeCell ref="J31:J39"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="H40:H48"/>
-    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,11 +3099,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -20114,7 +20120,7 @@
     </row>
     <row r="25" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10">
         <v>44839.811111111114</v>
@@ -20140,7 +20146,7 @@
     </row>
     <row r="26" spans="1:16384" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10">
         <v>44837.855555555558</v>
@@ -20164,14 +20170,46 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44941.671527777777</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
       <c r="F27" s="6">
-        <f>SUM(F2:F26)</f>
-        <v>4050</v>
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.15">
+      <c r="F32" s="6">
+        <f>SUM(F2:F31)</f>
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F1048576" s="6">
+        <f>SUM(F2:F1048575)</f>
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\knowledges\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="13140" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>序号</t>
   </si>
@@ -34,13 +29,13 @@
     <t>时间</t>
   </si>
   <si>
-    <t>项目</t>
-  </si>
-  <si>
     <t>公里数</t>
   </si>
   <si>
     <t>门店</t>
+  </si>
+  <si>
+    <t>项目</t>
   </si>
   <si>
     <t>联系方式</t>
@@ -67,10 +62,10 @@
     <t>2019.4.20</t>
   </si>
   <si>
-    <t>首保</t>
+    <t>上海绿地徐捷汽车销售服务有限公司</t>
   </si>
   <si>
-    <t>上海绿地徐捷汽车销售服务有限公司</t>
+    <t>首保</t>
   </si>
   <si>
     <t>021-50329339</t>
@@ -95,10 +90,10 @@
     <t>2019.11.23</t>
   </si>
   <si>
-    <t>1万公里保养</t>
+    <t>上海云峰交运汽车销售服务有限公司</t>
   </si>
   <si>
-    <t>上海云峰交运汽车销售服务有限公司</t>
+    <t>1万公里保养</t>
   </si>
   <si>
     <t>施佳怡：15000529153</t>
@@ -133,10 +128,10 @@
     <t>2020.4.18</t>
   </si>
   <si>
-    <t>漆面修复</t>
+    <t>上海腾众</t>
   </si>
   <si>
-    <t>上海腾众</t>
+    <t>漆面修复</t>
   </si>
   <si>
     <t>前后两个面喷漆</t>
@@ -145,10 +140,10 @@
     <t>2020.5.17</t>
   </si>
   <si>
-    <t>常规保养</t>
+    <t>万缘汽车港金桥店</t>
   </si>
   <si>
-    <t>万缘汽车港金桥店</t>
+    <t>常规保养</t>
   </si>
   <si>
     <t>021-50650762</t>
@@ -161,10 +156,10 @@
     <t>2020.7.18</t>
   </si>
   <si>
-    <t>更换空调滤芯</t>
+    <t>自行更换</t>
   </si>
   <si>
-    <t>自行更换</t>
+    <t>更换空调滤芯</t>
   </si>
   <si>
     <t>\</t>
@@ -185,10 +180,10 @@
     <t>2021.4.3</t>
   </si>
   <si>
-    <t>清洗空调蒸发箱</t>
+    <t>金豫路32号途虎</t>
   </si>
   <si>
-    <t>金豫路32号途虎</t>
+    <t>清洗空调蒸发箱</t>
   </si>
   <si>
     <t>3M多功能空调系统清洗三件套</t>
@@ -206,10 +201,10 @@
     <t>壳牌/Shell 超凡喜力 新升级高效动力版 SP A3/B4 5W-40 4L</t>
   </si>
   <si>
-    <t>空气滤清器</t>
+    <t>金豫路33号途虎</t>
   </si>
   <si>
-    <t>金豫路33号途虎</t>
+    <t>空气滤清器</t>
   </si>
   <si>
     <t>2021.12.1</t>
@@ -221,10 +216,10 @@
     <t>2022.1.19</t>
   </si>
   <si>
-    <t>火花塞</t>
+    <t>运河西路119号</t>
   </si>
   <si>
-    <t>运河西路119号</t>
+    <t>火花塞</t>
   </si>
   <si>
     <t>NGK双铂金火花塞 PKER7A8EGS * 4</t>
@@ -281,6 +276,39 @@
   </si>
   <si>
     <t>人工费</t>
+  </si>
+  <si>
+    <t>2023.2.27</t>
+  </si>
+  <si>
+    <t>179+159-35=303</t>
+  </si>
+  <si>
+    <t>壳牌/Shell 超凡喜力 新升级全合成润滑油 ULTRA 5W-40 SP A3/B4 4L</t>
+  </si>
+  <si>
+    <t>保养2次卡，588/2=294</t>
+  </si>
+  <si>
+    <t>除积碳</t>
+  </si>
+  <si>
+    <t>统湃/Tunap新升级【可视化清洗】发动机缸内除碳剂</t>
+  </si>
+  <si>
+    <t>人工费（可视化清洗）</t>
+  </si>
+  <si>
+    <t>刹车油</t>
+  </si>
+  <si>
+    <t>驾驰/发动机油底壳放油螺栓DP8070</t>
+  </si>
+  <si>
+    <t>博世/BOSCH 刹车油 制动液 离合器油ENV6 1L</t>
+  </si>
+  <si>
+    <t>人工费（更换刹车油服务）</t>
   </si>
   <si>
     <t>保障项目</t>
@@ -392,6 +420,54 @@
   </si>
   <si>
     <t>车家保</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>022.11.17</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5次洗车
+1次代驾
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50W</t>
+    </r>
+  </si>
+  <si>
+    <t>个人人身意外伤害保险</t>
   </si>
   <si>
     <t>太平洋</t>
@@ -574,6 +650,27 @@
     <t>安庆市公安局交警支队一大队</t>
   </si>
   <si>
+    <t>山深线（国道205）1385公里380米</t>
+  </si>
+  <si>
+    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车在高速公路、城市快速路以外的道路上行驶超过规定时速百分之二十以上未达到百分之五十的</t>
+  </si>
+  <si>
+    <t>当涂县公安局交通管理大队</t>
+  </si>
+  <si>
+    <t>G347国道304公里795米</t>
+  </si>
+  <si>
+    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车行驶超过规定时速百分之十以上未达到百分之二十的</t>
+  </si>
+  <si>
+    <t>烟汕线（国道206）1261公里</t>
+  </si>
+  <si>
+    <t>怀宁县公安局交警大队</t>
+  </si>
+  <si>
     <t>购车日期</t>
   </si>
   <si>
@@ -603,75 +700,18 @@
   <si>
     <t>斯柯达SVW71415AL轿车</t>
   </si>
-  <si>
-    <t>山深线（国道205）1385公里380米</t>
-  </si>
-  <si>
-    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车在高速公路、城市快速路以外的道路上行驶超过规定时速百分之二十以上未达到百分之五十的</t>
-  </si>
-  <si>
-    <t>当涂县公安局交通管理大队</t>
-  </si>
-  <si>
-    <t>G347国道304公里795米</t>
-  </si>
-  <si>
-    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车行驶超过规定时速百分之十以上未达到百分之二十的</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>022.11.17</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5次洗车
-1次代驾
-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50W</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人人身意外伤害保险</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀宁县公安局交警大队</t>
-  </si>
-  <si>
-    <t>烟汕线（国道206）1261公里</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,14 +775,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="3" tint="0.39994506668294322"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
+      <color theme="3" tint="0.399945066682943"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -767,21 +800,165 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,7 +991,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,12 +1153,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -854,13 +1217,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,17 +1502,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -925,101 +1530,129 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,26 +1939,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27:L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
     <col min="7" max="8" width="14.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
@@ -1336,73 +1970,72 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="35" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35">
+    <row r="2" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="2">
+        <v>5068</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="35">
-        <v>5068</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="2">
         <v>224.64</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="2">
         <f>SUM(K2,K3,K4,K5)</f>
-        <v>364.16999999999996</v>
+        <v>364.17</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -1410,97 +2043,85 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="2">
         <f>SUM(G2,I2,H2)</f>
-        <v>588.80999999999995</v>
-      </c>
-      <c r="M2" s="37" t="s">
+        <v>588.81</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="30" t="s">
+    <row r="3" s="36" customFormat="1" ht="20.1" customHeight="1" spans="4:13">
+      <c r="D3" s="37"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="36">
         <v>288</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+    <row r="4" ht="20.1" customHeight="1" spans="4:13">
+      <c r="D4" s="38"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
+      <c r="L4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+    <row r="5" ht="15" customHeight="1" spans="4:13">
+      <c r="D5" s="38"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
+      <c r="L5"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
+    <row r="6" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="2">
+        <v>9890</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="35">
-        <v>9890</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="2">
         <v>112.86</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="2">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="2">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1510,140 +2131,122 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="2">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+    <row r="7" ht="15" spans="3:13">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+    <row r="8" ht="20.1" customHeight="1" spans="3:13">
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="37"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+    <row r="9" ht="15" spans="3:13">
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="37"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+    <row r="10" ht="29" spans="3:13">
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="37"/>
+      <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+    <row r="11" ht="15" spans="3:13">
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="37"/>
+      <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+    <row r="12" ht="15" spans="3:13">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
+      <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="39.95" customHeight="1" spans="1:13">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15000</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -1671,58 +2274,58 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+    <row r="14" s="36" customFormat="1" ht="48" customHeight="1" spans="1:12">
+      <c r="A14" s="36">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="36">
+        <v>15500</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
-        <v>15500</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="36">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="36">
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="36">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="36">
         <v>104</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="36">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="36" customHeight="1" spans="1:12">
       <c r="A15" s="2">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="2">
+        <v>16200</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16200</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
@@ -1749,70 +2352,70 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="16" s="36" customFormat="1" ht="72" spans="1:13">
+      <c r="A16" s="36">
         <v>6</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="36">
         <v>21696</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="2">
+      <c r="E16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="36">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="36">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="36">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="36">
         <v>0</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="36">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="35">
+    <row r="17" ht="29" spans="1:12">
+      <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="2">
+        <v>24885</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="35">
-        <v>24885</v>
-      </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1821,42 +2424,31 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="2">
         <v>358</v>
       </c>
-      <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+    <row r="18" ht="15" spans="6:11">
+      <c r="F18" s="41"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="20.1" customHeight="1" spans="1:12">
       <c r="A19" s="2">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="2">
+        <v>24885</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="2">
-        <v>24885</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
@@ -1883,54 +2475,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+    <row r="20" s="36" customFormat="1" ht="58" spans="1:12">
+      <c r="A20" s="36">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="36">
         <v>26951</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="D20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="2">
+      <c r="G20" s="36">
+        <v>39</v>
+      </c>
+      <c r="H20" s="36">
         <v>-10</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="36">
         <v>25</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="36">
         <v>289</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="36">
         <f>SUM(G20,K20,I20,H20)</f>
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" ht="15" spans="1:12">
       <c r="A21" s="2">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="2">
+        <v>26951</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="2">
-        <v>26951</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>59</v>
@@ -1940,46 +2532,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" ht="15" spans="1:5">
       <c r="A22" s="2">
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" ht="15" spans="1:5">
       <c r="A23" s="2">
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" ht="29" spans="1:12">
       <c r="A24" s="2">
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="2">
+        <v>30325</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" s="2">
-        <v>30325</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>64</v>
@@ -1997,124 +2589,236 @@
         <v>290.56</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+    <row r="25" s="36" customFormat="1" ht="66" customHeight="1" spans="1:13">
+      <c r="A25" s="36">
         <v>14</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="36">
         <v>32700</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="E25" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="18" customHeight="1" spans="1:5">
       <c r="A26" s="2">
         <v>15</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="2">
+        <v>32700</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" s="2">
-        <v>32700</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35">
+    <row r="27" ht="47.1" customHeight="1" spans="1:13">
+      <c r="A27" s="2">
         <v>16</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="35">
+      <c r="C27" s="2">
         <v>33249</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="D27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="E27" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="2">
         <v>271</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+    <row r="28" ht="18" customHeight="1" spans="5:11">
+      <c r="E28" s="38"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29"/>
-      <c r="B29"/>
+    <row r="29" ht="18" customHeight="1" spans="1:13">
+      <c r="A29" s="2">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2">
+        <v>37435</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="2">
+        <v>179</v>
+      </c>
+      <c r="L29" s="2">
+        <v>303</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="18" customHeight="1" spans="5:5">
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="5:11">
+      <c r="E31" s="38"/>
+      <c r="J31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" s="36" customFormat="1" ht="57" customHeight="1" spans="1:13">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="36">
+        <v>294</v>
+      </c>
+      <c r="L32" s="36">
+        <v>294</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="44" spans="5:12">
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="2">
+        <v>198</v>
+      </c>
+      <c r="L33" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34" ht="29" spans="10:11">
+      <c r="J34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" ht="29" spans="5:11">
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="44" spans="10:11">
+      <c r="J36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" ht="29" spans="10:11">
+      <c r="J37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="4:11">
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="2">
+        <v>41.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="57">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A38"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B38"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C38"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D37"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E12"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E37"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F17:F18"/>
@@ -2129,31 +2833,40 @@
     <mergeCell ref="I6:I12"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="L6:L12"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L33:L37"/>
     <mergeCell ref="M2:M5"/>
     <mergeCell ref="M6:M12"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="F35:I37"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:XFD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="J40" sqref="J40:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
@@ -2173,72 +2886,67 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="20" customFormat="1" ht="33.95" customHeight="1" spans="1:14">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+        <v>88</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35">
+    <row r="2" ht="20.1" customHeight="1" spans="1:9">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="42">
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="29">
         <f>SUM(F11)</f>
-        <v>5676.8099999999995</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="35"/>
+        <v>5676.81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35" t="s">
-        <v>83</v>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E3" s="4">
         <v>139900</v>
@@ -2246,85 +2954,85 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="22" t="s">
-        <v>89</v>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="23">
+      <c r="F7" s="30">
         <f>SUM(F3:F6)</f>
-        <v>4666.8099999999995</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+        <v>4666.81</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35" t="s">
-        <v>90</v>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4">
         <v>122000</v>
@@ -2332,72 +3040,72 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="22" t="s">
-        <v>89</v>
+    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="23">
+      <c r="F10" s="30">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="24">
+    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="31">
         <f>SUM(F7,F10)</f>
-        <v>5676.8099999999995</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+        <v>5676.81</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" s="44" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
+    <row r="12" s="21" customFormat="1" ht="8.1" customHeight="1"/>
+    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>83</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E13" s="4">
         <v>130667</v>
@@ -2405,63 +3113,63 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="2">
         <v>-490</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="29">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="I13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="F14" s="4">
+        <v>1231.36</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1231.3599999999999</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="22" t="s">
-        <v>89</v>
+    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="23">
+      <c r="F15" s="30">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="37"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35" t="s">
-        <v>90</v>
+    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E16" s="4">
         <v>122000</v>
@@ -2469,72 +3177,72 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="37"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="37"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="22" t="s">
-        <v>89</v>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="23">
+      <c r="F18" s="30">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="37"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="24">
+    <row r="19" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="31">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="37"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" s="44" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>83</v>
+    <row r="20" s="21" customFormat="1" ht="8.1" customHeight="1"/>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4">
         <v>120593.8</v>
@@ -2542,163 +3250,163 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="2">
         <v>-855</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="29">
         <f>SUM(F29,G21)</f>
-        <v>2733.2999999999997</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>101</v>
+        <v>2733.3</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="37"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="37"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+    <row r="24" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="37"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="22" t="s">
-        <v>89</v>
+    <row r="25" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="23">
+      <c r="F25" s="30">
         <f>SUM(F21:F24)</f>
-        <v>2528.2999999999997</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="37"/>
+        <v>2528.3</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35" t="s">
-        <v>90</v>
+    <row r="26" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="37"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+    <row r="27" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="37"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="22" t="s">
-        <v>89</v>
+    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="23">
+      <c r="F28" s="30">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="37"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="24">
+    <row r="29" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="31">
         <f>SUM(F25,F28)</f>
-        <v>3588.2999999999997</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="37"/>
+        <v>3588.3</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" s="44" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35" t="s">
-        <v>83</v>
+    <row r="30" s="21" customFormat="1" ht="8.1" customHeight="1"/>
+    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E31" s="4">
         <v>110521</v>
@@ -2706,317 +3414,285 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="2">
         <v>-475</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="29">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="37" t="s">
-        <v>104</v>
+      <c r="I31" s="2"/>
+      <c r="J31" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="25" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="37"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="37"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="30">
+        <f>SUM(F31:F34)</f>
+        <v>1783.61</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="23">
-        <f>SUM(F31:F34)</f>
-        <v>1783.6100000000001</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="37"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="26" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="37"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="22" t="s">
-        <v>89</v>
+    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="23">
+      <c r="F38" s="30">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="37"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="24">
+    <row r="39" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="31">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="37"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>83</v>
+    <row r="40" ht="15" spans="2:10">
+      <c r="B40" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="31">
+        <v>95</v>
+      </c>
+      <c r="E40" s="4">
         <v>98897</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="4">
         <v>757.17</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="2">
         <v>-200</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="29">
         <f>SUM(F48,G40)</f>
-        <v>2167.7600000000002</v>
-      </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="45" t="s">
-        <v>180</v>
+        <v>2167.76</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+    <row r="41" ht="15" spans="4:10">
       <c r="D41" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="37"/>
+        <v>113</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="29"/>
+      <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+    <row r="42" ht="15" spans="4:10">
       <c r="D42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="31">
+        <v>96</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="4">
         <v>425.59</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="37"/>
+      <c r="H42" s="29"/>
+      <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+    <row r="43" ht="15" spans="4:10">
       <c r="D43" s="25" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="37"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="29"/>
+      <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="23">
+    <row r="44" ht="15" spans="4:10">
+      <c r="D44" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="30">
         <f>SUM(F40,F42)</f>
         <v>1182.76</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="29"/>
+      <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35" t="s">
-        <v>90</v>
+    <row r="45" ht="15" spans="3:10">
+      <c r="C45" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32">
+        <v>102</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
         <v>965</v>
       </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="29"/>
+      <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="31"/>
+    <row r="46" ht="15" spans="4:10">
+      <c r="D46" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="3">
         <v>220</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="37"/>
+      <c r="H46" s="29"/>
+      <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="37"/>
+    <row r="47" ht="15" spans="4:10">
+      <c r="D47" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="35"/>
-      <c r="C48" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="24">
+    <row r="48" spans="3:10">
+      <c r="C48" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="31">
         <f>SUM(F44,F45,F46)</f>
-        <v>2367.7600000000002</v>
-      </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="37"/>
+        <v>2367.76</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="J48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="H40:H48"/>
-    <mergeCell ref="I40:I48"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B40:B48"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C13:C15"/>
@@ -3025,88 +3701,92 @@
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C47"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="G31:G39"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
     <mergeCell ref="H21:H29"/>
     <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H48"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I13:I19"/>
     <mergeCell ref="I21:I29"/>
     <mergeCell ref="I31:I39"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="J40:J48"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" s="18" customFormat="1" ht="20.4" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="27" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="108.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="108.95" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" ht="30" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
@@ -3118,70 +3798,70 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="20.1" customHeight="1" spans="1:8">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>43497.747222222199</v>
+        <v>43497.7472222222</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="12">
+        <v>132</v>
+      </c>
+      <c r="E2" s="14">
         <v>6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>200</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="20.1" customHeight="1" spans="1:8">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>43508.790972222203</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>121</v>
+      <c r="B3" s="12">
+        <v>43508.7909722222</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="E3" s="16">
         <v>3</v>
@@ -3189,51 +3869,51 @@
       <c r="F3" s="16">
         <v>200</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>122</v>
+      <c r="G3" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="20.1" customHeight="1" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>43685.356249999997</v>
+        <v>43685.35625</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="12">
+        <v>139</v>
+      </c>
+      <c r="E4" s="14">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>200</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>119</v>
+        <v>140</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="20.1" customHeight="1" spans="1:8">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>43813.6430555556</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>124</v>
+      <c r="C5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
@@ -3241,51 +3921,51 @@
       <c r="F5" s="16">
         <v>200</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>125</v>
+      <c r="G5" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="38.1" customHeight="1" spans="1:8">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>43845.654166666704</v>
+        <v>43845.6541666667</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="12">
+        <v>143</v>
+      </c>
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>100</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>119</v>
+        <v>144</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="39.95" customHeight="1" spans="1:8">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
-        <v>43868.649305555598</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>131</v>
+      <c r="B7" s="12">
+        <v>43868.6493055556</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="E7" s="16">
         <v>6</v>
@@ -3293,51 +3973,51 @@
       <c r="F7" s="16">
         <v>200</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>122</v>
+      <c r="G7" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="39" customHeight="1" spans="1:8">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>43953.582638888904</v>
+        <v>43953.5826388889</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="12">
+        <v>146</v>
+      </c>
+      <c r="E8" s="14">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>119</v>
+        <v>148</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="20.1" customHeight="1" spans="1:8">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
-        <v>43960.756249999999</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>135</v>
+      <c r="B9" s="12">
+        <v>43960.75625</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -3345,14 +4025,14 @@
       <c r="F9" s="16">
         <v>200</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>125</v>
+      <c r="G9" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="20.1" customHeight="1" spans="1:8">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3360,36 +4040,36 @@
         <v>44019.65625</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12">
+        <v>132</v>
+      </c>
+      <c r="E10" s="14">
         <v>6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <v>200</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>119</v>
+        <v>152</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="20.1" customHeight="1" spans="1:8">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
-        <v>44060.327777777798</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>139</v>
+      <c r="B11" s="12">
+        <v>44060.3277777778</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -3397,14 +4077,14 @@
       <c r="F11" s="16">
         <v>100</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>122</v>
+      <c r="G11" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="20.1" customHeight="1" spans="1:8">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3412,36 +4092,36 @@
         <v>44066.4194444444</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="12">
+        <v>139</v>
+      </c>
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <v>200</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>119</v>
+        <v>156</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="20.1" customHeight="1" spans="1:8">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
-        <v>44078.610416666699</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>124</v>
+      <c r="B13" s="12">
+        <v>44078.6104166667</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
@@ -3449,297 +4129,297 @@
       <c r="F13" s="16">
         <v>200</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>125</v>
+      <c r="G13" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="20.1" customHeight="1" spans="1:8">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44102.645138888904</v>
+        <v>44102.6451388889</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="12">
+        <v>139</v>
+      </c>
+      <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>200</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="39.95" customHeight="1" spans="1:8">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>44106.6069444444</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="12">
+        <v>160</v>
+      </c>
+      <c r="E15" s="14">
         <v>6</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <v>200</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="20.1" customHeight="1" spans="1:8">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
-        <v>44214.400694444397</v>
+      <c r="B16" s="12">
+        <v>44214.4006944444</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="12">
+        <v>139</v>
+      </c>
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="14">
         <v>200</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="20.1" customHeight="1" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
-        <v>44215.397916666698</v>
+      <c r="B17" s="12">
+        <v>44215.3979166667</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="12">
+        <v>139</v>
+      </c>
+      <c r="E17" s="14">
         <v>0</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>200</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="38.1" customHeight="1" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="14">
-        <v>44222.627777777801</v>
+      <c r="B18" s="12">
+        <v>44222.6277777778</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="12">
+        <v>136</v>
+      </c>
+      <c r="E18" s="14">
         <v>3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="14">
         <v>200</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="39" customHeight="1" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
-        <v>44245.357638888898</v>
+      <c r="B19" s="12">
+        <v>44245.3576388889</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="12">
+        <v>168</v>
+      </c>
+      <c r="E19" s="14">
         <v>3</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="14">
         <v>100</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="20.1" customHeight="1" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="14">
-        <v>44257.547222222202</v>
+      <c r="B20" s="12">
+        <v>44257.5472222222</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="12">
+        <v>139</v>
+      </c>
+      <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="14">
         <v>200</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:16384" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="18.95" customHeight="1" spans="1:8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
-        <v>44342.768750000003</v>
+      <c r="B21" s="12">
+        <v>44342.76875</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>200</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>200</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="22" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="33.95" customHeight="1" spans="1:8">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="14">
-        <v>44468.569444444402</v>
+      <c r="B22" s="12">
+        <v>44468.5694444444</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="12">
+        <v>160</v>
+      </c>
+      <c r="E22" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="14">
         <v>200</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="38.1" customHeight="1" spans="1:8">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="14">
-        <v>44588.887499999997</v>
+      <c r="B23" s="12">
+        <v>44588.8875</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="14">
         <v>50</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="33.95" customHeight="1" spans="1:16384">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44589.464583333298</v>
+        <v>44589.4645833333</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="12">
+        <v>146</v>
+      </c>
+      <c r="E24" s="14">
         <v>6</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="14">
         <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -20118,70 +20798,70 @@
       <c r="XFC24" s="11"/>
       <c r="XFD24" s="11"/>
     </row>
-    <row r="25" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="37.5" customHeight="1" spans="1:8">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>44839.811111111114</v>
+        <v>44839.8111111111</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="12">
+        <v>180</v>
+      </c>
+      <c r="E25" s="14">
         <v>3</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="14">
         <v>100</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="45" customHeight="1" spans="1:8">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>44837.855555555558</v>
+        <v>44837.8555555556</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="H26" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="37.5" customHeight="1" spans="1:8">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>44941.671527777777</v>
+        <v>44941.6715277778</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>184</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -20190,21 +20870,21 @@
         <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1"/>
+    <row r="32" spans="6:6">
       <c r="F32" s="6">
         <f>SUM(F2:F31)</f>
         <v>4100</v>
       </c>
     </row>
-    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="1048576" spans="6:6">
       <c r="F1048576" s="6">
         <f>SUM(F2:F1048575)</f>
         <v>8200</v>
@@ -20214,76 +20894,77 @@
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>
   </sortState>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="18.6" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="18.6" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="18.6" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="18.6" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="18.6" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" ht="18.6" customHeight="1"/>
+    <row r="7" ht="18.6" customHeight="1"/>
+    <row r="8" ht="18.6" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\knowledges\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">罚款!$C$1:$C$29</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="201">
   <si>
     <t>序号</t>
   </si>
@@ -699,19 +704,34 @@
   </si>
   <si>
     <t>斯柯达SVW71415AL轿车</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>225/45 R17</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>225mm宽</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>扁平比=轮胎的厚度是宽度的45%=101.25毫米厚</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>17英寸轮毂</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,7 +795,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="3" tint="0.399945066682943"/>
+      <color theme="3" tint="0.39991454817346722"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -807,158 +827,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,194 +890,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1217,255 +914,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,17 +985,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1548,14 +997,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1570,89 +1013,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1939,21 +1372,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -1970,72 +1402,73 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" ht="33.95" customHeight="1" spans="1:13">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" s="30" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="33">
         <v>5068</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="33">
         <v>224.64</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="33">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="33">
         <f>SUM(K2,K3,K4,K5)</f>
-        <v>364.17</v>
+        <v>364.16999999999996</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -2043,85 +1476,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="33">
         <f>SUM(G2,I2,H2)</f>
-        <v>588.81</v>
-      </c>
-      <c r="M2" s="4" t="s">
+        <v>588.80999999999995</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="36" customFormat="1" ht="20.1" customHeight="1" spans="4:13">
-      <c r="D3" s="37"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="36" t="s">
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="31">
         <v>288</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="42"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="35"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="4:13">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="38"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="34"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="4:13">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="38"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="34"/>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A6" s="2">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="33">
         <v>9890</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="33">
         <v>112.86</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="33">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="33">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -2131,111 +1576,129 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="33">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="3:13">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:13">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
     </row>
-    <row r="9" ht="15" spans="3:13">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
     </row>
-    <row r="10" ht="29" spans="3:13">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
     </row>
-    <row r="11" ht="15" spans="3:13">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
     </row>
-    <row r="12" ht="15" spans="3:13">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
-    <row r="13" ht="39.95" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2274,47 +1737,47 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" s="36" customFormat="1" ht="48" customHeight="1" spans="1:12">
-      <c r="A14" s="36">
+    <row r="14" spans="1:13" s="31" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="31">
         <v>15500</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="31">
         <v>0</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="31">
         <v>0</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="31">
         <f>SUM(K14)</f>
         <v>104</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="31">
         <v>104</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="31">
         <f>SUM(G14,I14,H14)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="15" ht="36" customHeight="1" spans="1:12">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2352,70 +1815,70 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="16" s="36" customFormat="1" ht="72" spans="1:13">
-      <c r="A16" s="36">
+    <row r="16" spans="1:13" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
         <v>6</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="31">
         <v>21696</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="31">
         <v>0</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="31">
         <v>0</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="31">
         <v>0</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="31">
         <v>0</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="31">
         <v>0</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="29" spans="1:12">
-      <c r="A17" s="2">
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="33">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="33">
         <v>24885</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="33">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="33">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="33">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2424,20 +1887,31 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="33">
         <v>358</v>
       </c>
+      <c r="M17" s="33"/>
     </row>
-    <row r="18" ht="15" spans="6:11">
-      <c r="F18" s="41"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:12">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -2475,43 +1949,43 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" s="36" customFormat="1" ht="58" spans="1:12">
-      <c r="A20" s="36">
+    <row r="20" spans="1:13" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="31">
         <v>9</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="31">
         <v>26951</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="31">
         <v>39</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="31">
         <v>-10</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="31">
         <v>25</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="31">
         <v>289</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="31">
         <f>SUM(G20,K20,I20,H20)</f>
         <v>343</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:12">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2532,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2546,7 +2020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2560,7 +2034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" ht="29" spans="1:12">
+    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -2589,30 +2063,30 @@
         <v>290.56</v>
       </c>
     </row>
-    <row r="25" s="36" customFormat="1" ht="66" customHeight="1" spans="1:13">
-      <c r="A25" s="36">
+    <row r="25" spans="1:13" s="31" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="31">
         <v>14</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="31">
         <v>32700</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="M25" s="31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:5">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -2629,77 +2103,99 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" ht="47.1" customHeight="1" spans="1:13">
-      <c r="A27" s="2">
+    <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="33">
         <v>16</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="33">
         <v>33249</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>52</v>
       </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="33">
         <v>271</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="5:11">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="38"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:13">
-      <c r="A29" s="2">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="33">
         <v>17</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="33">
         <v>37435</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="33">
         <v>179</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="33">
         <v>303</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="5:5">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="38"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="5:11">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="38"/>
       <c r="J31" s="2" t="s">
         <v>74</v>
@@ -2707,78 +2203,130 @@
       <c r="K31" s="2">
         <v>159</v>
       </c>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
     </row>
-    <row r="32" s="36" customFormat="1" ht="57" customHeight="1" spans="1:13">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36" t="s">
+    <row r="32" spans="1:13" s="31" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="31">
         <v>294</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="31">
         <v>294</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="44" spans="5:12">
-      <c r="E33" s="2" t="s">
+    <row r="33" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33" t="s">
         <v>79</v>
       </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="2">
         <v>198</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="33">
         <v>744</v>
       </c>
     </row>
-    <row r="34" ht="29" spans="10:11">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K34" s="2">
         <v>230</v>
       </c>
+      <c r="L34" s="33"/>
     </row>
-    <row r="35" ht="29" spans="5:11">
-      <c r="E35" s="2" t="s">
+    <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
         <v>82</v>
       </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="K35" s="2">
         <v>9</v>
       </c>
+      <c r="L35" s="33"/>
     </row>
-    <row r="36" ht="44" spans="10:11">
+    <row r="36" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K36" s="2">
         <v>198</v>
       </c>
+      <c r="L36" s="33"/>
     </row>
-    <row r="37" ht="29" spans="10:11">
+    <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K37" s="2">
         <v>109</v>
       </c>
+      <c r="L37" s="33"/>
     </row>
-    <row r="38" ht="15" spans="4:11">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2796,35 +2344,37 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C38"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F12"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="F35:I37"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="H17:H18"/>
@@ -2846,27 +2396,23 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="M29:M31"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="F35:I37"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:XFD48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="J40" sqref="J40:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="2" customWidth="1"/>
@@ -2886,16 +2432,19 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="33.95" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="49" t="s">
         <v>86</v>
       </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2908,41 +2457,43 @@
       <c r="J1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:9">
-      <c r="A2" s="2">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="29">
+      <c r="G2" s="33"/>
+      <c r="H2" s="45">
         <f>SUM(F11)</f>
-        <v>5676.81</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>5676.8099999999995</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>93</v>
       </c>
+      <c r="J2" s="33"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2954,15 +2505,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>96</v>
       </c>
@@ -2972,15 +2523,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
@@ -2988,47 +2539,47 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="30">
+      <c r="F7" s="26">
         <f>SUM(F3:F6)</f>
-        <v>4666.81</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+        <v>4666.8099999999995</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3040,15 +2591,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
@@ -3056,52 +2607,52 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="23" t="s">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="30">
+      <c r="F10" s="26">
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="31">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="27">
         <f>SUM(F7,F10)</f>
-        <v>5676.81</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+        <v>5676.8099999999995</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
-    <row r="12" s="21" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="1:14" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3113,24 +2664,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="33">
         <v>-490</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="45">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3" t="s">
         <v>109</v>
       </c>
@@ -3138,34 +2689,34 @@
         <v>97</v>
       </c>
       <c r="F14" s="4">
-        <v>1231.36</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+        <v>1231.3599999999999</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="23" t="s">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="30">
+      <c r="F15" s="26">
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3177,15 +2728,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
@@ -3193,52 +2744,52 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="23" t="s">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="30">
+      <c r="F18" s="26">
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="31">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="27">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
     </row>
-    <row r="20" s="21" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -3250,24 +2801,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="33">
         <v>-855</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="45">
         <f>SUM(F29,G21)</f>
-        <v>2733.3</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>2733.2999999999997</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="3" t="s">
         <v>113</v>
       </c>
@@ -3275,15 +2826,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
@@ -3293,47 +2844,47 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="23" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="30">
+      <c r="F25" s="26">
         <f>SUM(F21:F24)</f>
-        <v>2528.3</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
+        <v>2528.2999999999997</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3343,15 +2894,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="3" t="s">
         <v>103</v>
       </c>
@@ -3359,50 +2910,50 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="23" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="30">
+      <c r="F28" s="26">
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="24" t="s">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="31">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="27">
         <f>SUM(F25,F28)</f>
-        <v>3588.3</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
+        <v>3588.2999999999997</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
     </row>
-    <row r="30" s="21" customFormat="1" ht="8.1" customHeight="1"/>
-    <row r="31" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    <row r="30" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3414,36 +2965,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="33">
         <v>-475</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="45">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="33"/>
+      <c r="J31" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="25" t="s">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="3" t="s">
         <v>96</v>
       </c>
@@ -3453,45 +3004,45 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="25" t="s">
+    <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="23" t="s">
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="30">
+      <c r="F35" s="26">
         <f>SUM(F31:F34)</f>
-        <v>1783.61</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
+        <v>1783.6100000000001</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3501,66 +3052,66 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="26" t="s">
+    <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="24" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:10">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="23" t="s">
+    <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="30">
+      <c r="F38" s="26">
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="4"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="74.1" customHeight="1" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="24" t="s">
+    <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="31">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="27">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
     </row>
-    <row r="40" ht="15" spans="2:10">
-      <c r="B40" s="27" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3572,62 +3123,80 @@
       <c r="F40" s="4">
         <v>757.17</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="33">
         <v>-200</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="45">
         <f>SUM(F48,G40)</f>
-        <v>2167.76</v>
-      </c>
-      <c r="J40" s="34" t="s">
+        <v>2167.7600000000002</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="J40" s="44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="4:10">
-      <c r="D41" s="25" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="H41" s="29"/>
-      <c r="J41" s="4"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
     </row>
-    <row r="42" ht="15" spans="4:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="4">
         <v>425.59</v>
       </c>
-      <c r="H42" s="29"/>
-      <c r="J42" s="4"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
     </row>
-    <row r="43" ht="15" spans="4:10">
-      <c r="D43" s="25" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
-      <c r="H43" s="29"/>
-      <c r="J43" s="4"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
     </row>
-    <row r="44" ht="15" spans="4:10">
-      <c r="D44" s="23" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="30">
+      <c r="F44" s="26">
         <f>SUM(F40,F42)</f>
         <v>1182.76</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="J44" s="4"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
     </row>
-    <row r="45" ht="15" spans="3:10">
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3637,54 +3206,71 @@
       <c r="F45" s="4">
         <v>965</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="J45" s="4"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
     </row>
-    <row r="46" ht="15" spans="4:10">
-      <c r="D46" s="28" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="25" t="s">
         <v>120</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3">
         <v>220</v>
       </c>
-      <c r="H46" s="29"/>
-      <c r="J46" s="4"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="34"/>
     </row>
-    <row r="47" ht="15" spans="4:10">
-      <c r="D47" s="23" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="30"/>
-      <c r="H47" s="29"/>
-      <c r="J47" s="4"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34"/>
     </row>
-    <row r="48" spans="3:10">
-      <c r="C48" s="24" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="33"/>
+      <c r="C48" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="31">
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="27">
         <f>SUM(F44,F45,F46)</f>
-        <v>2367.76</v>
-      </c>
-      <c r="H48" s="29"/>
-      <c r="J48" s="4"/>
+        <v>2367.7600000000002</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A31:A39"/>
@@ -3692,61 +3278,56 @@
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C44"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="G21:G29"/>
     <mergeCell ref="G31:G39"/>
     <mergeCell ref="G40:G48"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="H40:H48"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A2:A11"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I13:I19"/>
     <mergeCell ref="I21:I29"/>
     <mergeCell ref="I31:I39"/>
     <mergeCell ref="I40:I48"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
     <mergeCell ref="J21:J29"/>
     <mergeCell ref="J31:J39"/>
     <mergeCell ref="J40:J48"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H48"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="20.4" spans="1:2">
+    <row r="1" spans="1:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
@@ -3754,12 +3335,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:1">
+    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" ht="108.95" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="108.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3767,26 +3348,24 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1"/>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.625" style="6" customWidth="1"/>
@@ -3798,7 +3377,7 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3824,12 +3403,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>43497.7472222222</v>
+        <v>43497.747222222199</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>131</v>
@@ -3850,12 +3429,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>43508.7909722222</v>
+        <v>43508.790972222203</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>135</v>
@@ -3876,12 +3455,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>43685.35625</v>
+        <v>43685.356249999997</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>138</v>
@@ -3902,7 +3481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3928,12 +3507,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" ht="38.1" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>43845.6541666667</v>
+        <v>43845.654166666704</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>142</v>
@@ -3954,12 +3533,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>43868.6493055556</v>
+        <v>43868.649305555598</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>145</v>
@@ -3980,12 +3559,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" ht="39" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>43953.5826388889</v>
+        <v>43953.582638888904</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>147</v>
@@ -4006,12 +3585,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="12">
-        <v>43960.75625</v>
+        <v>43960.756249999999</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>149</v>
@@ -4032,7 +3611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4058,12 +3637,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>44060.3277777778</v>
+        <v>44060.327777777798</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>153</v>
@@ -4084,7 +3663,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4110,12 +3689,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>44078.6104166667</v>
+        <v>44078.610416666699</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>157</v>
@@ -4136,12 +3715,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44102.6451388889</v>
+        <v>44102.645138888904</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>158</v>
@@ -4162,7 +3741,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" ht="39.95" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4188,12 +3767,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="12">
-        <v>44214.4006944444</v>
+        <v>44214.400694444397</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>162</v>
@@ -4214,12 +3793,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:8">
+    <row r="17" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="12">
-        <v>44215.3979166667</v>
+        <v>44215.397916666698</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>163</v>
@@ -4240,12 +3819,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" ht="38.1" customHeight="1" spans="1:8">
+    <row r="18" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="12">
-        <v>44222.6277777778</v>
+        <v>44222.627777777801</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>165</v>
@@ -4266,12 +3845,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:8">
+    <row r="19" spans="1:16384" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="12">
-        <v>44245.3576388889</v>
+        <v>44245.357638888898</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>167</v>
@@ -4292,12 +3871,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:8">
+    <row r="20" spans="1:16384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="12">
-        <v>44257.5472222222</v>
+        <v>44257.547222222202</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>170</v>
@@ -4318,12 +3897,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" ht="18.95" customHeight="1" spans="1:8">
+    <row r="21" spans="1:16384" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="12">
-        <v>44342.76875</v>
+        <v>44342.768750000003</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>149</v>
@@ -4344,12 +3923,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" ht="33.95" customHeight="1" spans="1:8">
+    <row r="22" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="12">
-        <v>44468.5694444444</v>
+        <v>44468.569444444402</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>172</v>
@@ -4370,12 +3949,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" ht="38.1" customHeight="1" spans="1:8">
+    <row r="23" spans="1:16384" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="12">
-        <v>44588.8875</v>
+        <v>44588.887499999997</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>174</v>
@@ -4396,12 +3975,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" ht="33.95" customHeight="1" spans="1:16384">
+    <row r="24" spans="1:16384" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44589.4645833333</v>
+        <v>44589.464583333298</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>177</v>
@@ -20798,12 +20377,12 @@
       <c r="XFC24" s="11"/>
       <c r="XFD24" s="11"/>
     </row>
-    <row r="25" ht="37.5" customHeight="1" spans="1:8">
+    <row r="25" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>44839.8111111111</v>
+        <v>44839.811111111099</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>179</v>
@@ -20824,12 +20403,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" ht="45" customHeight="1" spans="1:8">
+    <row r="26" spans="1:16384" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>44837.8555555556</v>
+        <v>44837.855555555601</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>182</v>
@@ -20850,12 +20429,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" ht="37.5" customHeight="1" spans="1:8">
+    <row r="27" spans="1:16384" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>44941.6715277778</v>
+        <v>44941.671527777798</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>184</v>
@@ -20876,15 +20455,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1"/>
-    <row r="32" spans="6:6">
+    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="F32" s="6">
         <f>SUM(F2:F31)</f>
         <v>4100</v>
       </c>
     </row>
-    <row r="1048576" spans="6:6">
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F1048576" s="6">
         <f>SUM(F2:F1048575)</f>
         <v>8200</v>
@@ -20894,28 +20473,30 @@
   <sortState ref="A2:H15">
     <sortCondition ref="B2"/>
   </sortState>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
@@ -20924,7 +20505,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:3">
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>188</v>
       </c>
@@ -20933,7 +20514,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="18.6" customHeight="1" spans="1:3">
+    <row r="3" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -20942,7 +20523,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" ht="18.6" customHeight="1" spans="1:3">
+    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>192</v>
       </c>
@@ -20951,20 +20532,36 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="18.6" customHeight="1" spans="1:3">
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="32" t="s">
         <v>195</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="18.6" customHeight="1"/>
-    <row r="7" ht="18.6" customHeight="1"/>
-    <row r="8" ht="18.6" customHeight="1"/>
+    <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="205">
   <si>
     <t>序号</t>
   </si>
@@ -726,6 +726,22 @@
     <t>17英寸轮毂</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>2023.3.20</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波银泰环球城店</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调杀菌</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M 空调系统杀菌除臭剂复合抑菌祛味剂</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1022,8 +1038,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1031,35 +1071,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,12 +1084,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,11 +1394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1430,10 +1446,10 @@
       <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
@@ -1442,31 +1458,31 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="34">
         <v>5068</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="34">
         <v>224.64</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="34">
         <v>0</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="34">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.16999999999996</v>
       </c>
@@ -1476,97 +1492,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="34">
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="31">
         <v>288</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="34"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="34">
         <v>9890</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="34">
         <v>112.86</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1576,127 +1592,127 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="34">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1854,31 +1870,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
+      <c r="A17" s="34">
         <v>7</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="34">
         <v>24885</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="34">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1887,29 +1903,29 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="34">
         <v>358</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -2104,113 +2120,113 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <v>16</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="34">
         <v>33249</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="34">
         <v>271</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="38"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="37"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33">
+      <c r="A29" s="34">
         <v>17</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="34">
         <v>37435</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="34">
         <v>179</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="34">
         <v>303</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="38"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="37"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="38"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="37"/>
       <c r="J31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K31" s="2">
         <v>159</v>
       </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="31" t="s">
         <v>39</v>
       </c>
@@ -2228,105 +2244,105 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="2">
         <v>198</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="34">
         <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K34" s="2">
         <v>230</v>
       </c>
-      <c r="L34" s="33"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="K35" s="2">
         <v>9</v>
       </c>
-      <c r="L35" s="33"/>
+      <c r="L35" s="34"/>
     </row>
     <row r="36" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K36" s="2">
         <v>198</v>
       </c>
-      <c r="L36" s="33"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K37" s="2">
         <v>109</v>
       </c>
-      <c r="L37" s="33"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2335,10 +2351,74 @@
       </c>
       <c r="K38" s="2">
         <v>41.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="2">
+        <v>39141</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L39" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="F35:I37"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B38"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
@@ -2355,47 +2435,6 @@
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G12"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="F35:I37"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2439,12 +2478,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2462,10 +2501,10 @@
       <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2480,20 +2519,20 @@
       <c r="F2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="45">
+      <c r="G2" s="34"/>
+      <c r="H2" s="48">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2505,15 +2544,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3" t="s">
         <v>96</v>
       </c>
@@ -2523,15 +2562,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
@@ -2539,30 +2578,30 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="22" t="s">
         <v>100</v>
       </c>
@@ -2571,15 +2610,15 @@
         <f>SUM(F3:F6)</f>
         <v>4666.8099999999995</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2591,15 +2630,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
@@ -2607,15 +2646,15 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="22" t="s">
         <v>100</v>
       </c>
@@ -2624,14 +2663,14 @@
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="46" t="s">
         <v>104</v>
       </c>
@@ -2641,18 +2680,18 @@
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:14" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2664,24 +2703,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="34">
         <v>-490</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="48">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="3" t="s">
         <v>109</v>
       </c>
@@ -2691,15 +2730,15 @@
       <c r="F14" s="4">
         <v>1231.3599999999999</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="22" t="s">
         <v>100</v>
       </c>
@@ -2708,15 +2747,15 @@
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2728,15 +2767,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
@@ -2744,15 +2783,15 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="22" t="s">
         <v>100</v>
       </c>
@@ -2761,14 +2800,14 @@
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="46" t="s">
         <v>104</v>
       </c>
@@ -2778,18 +2817,18 @@
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2801,24 +2840,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="34">
         <v>-855</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="48">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="42" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="3" t="s">
         <v>113</v>
       </c>
@@ -2826,15 +2865,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
@@ -2844,30 +2883,30 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="22" t="s">
         <v>100</v>
       </c>
@@ -2876,15 +2915,15 @@
         <f>SUM(F21:F24)</f>
         <v>2528.2999999999997</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2894,15 +2933,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="3" t="s">
         <v>103</v>
       </c>
@@ -2910,15 +2949,15 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="22" t="s">
         <v>100</v>
       </c>
@@ -2927,14 +2966,14 @@
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="46" t="s">
         <v>104</v>
       </c>
@@ -2944,16 +2983,16 @@
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2965,36 +3004,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="34">
         <v>-475</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="48">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34" t="s">
+      <c r="I31" s="34"/>
+      <c r="J31" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="3" t="s">
         <v>96</v>
       </c>
@@ -3004,28 +3043,28 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="22" t="s">
         <v>100</v>
       </c>
@@ -3034,15 +3073,15 @@
         <f>SUM(F31:F34)</f>
         <v>1783.6100000000001</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3052,15 +3091,15 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="24" t="s">
         <v>116</v>
       </c>
@@ -3068,15 +3107,15 @@
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="22" t="s">
         <v>100</v>
       </c>
@@ -3085,14 +3124,14 @@
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="46" t="s">
         <v>104</v>
       </c>
@@ -3102,16 +3141,16 @@
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3123,34 +3162,34 @@
       <c r="F40" s="4">
         <v>757.17</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="34">
         <v>-200</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="48">
         <f>SUM(F48,G40)</f>
         <v>2167.7600000000002</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="44" t="s">
+      <c r="I40" s="34"/>
+      <c r="J40" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="3" t="s">
         <v>96</v>
       </c>
@@ -3160,27 +3199,27 @@
       <c r="F42" s="4">
         <v>425.59</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
@@ -3189,14 +3228,14 @@
         <f>SUM(F40,F42)</f>
         <v>1182.76</v>
       </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3206,14 +3245,14 @@
       <c r="F45" s="4">
         <v>965</v>
       </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="25" t="s">
         <v>120</v>
       </c>
@@ -3221,26 +3260,26 @@
       <c r="F46" s="3">
         <v>220</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="33"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="46" t="s">
         <v>104</v>
       </c>
@@ -3250,13 +3289,45 @@
         <f>SUM(F44,F45,F46)</f>
         <v>2367.7600000000002</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H48"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B39"/>
     <mergeCell ref="B40:B48"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -3273,38 +3344,6 @@
     <mergeCell ref="J13:J19"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
-    <mergeCell ref="I40:I48"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="H40:H48"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20483,7 +20522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t>序号</t>
   </si>
@@ -238,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>壳牌鹏致/</t>
@@ -247,6 +248,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>PENNZOIL P7 Pro</t>
@@ -256,6 +258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 高级全合成润滑油 5W-40 SP 4L</t>
@@ -432,6 +435,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -441,6 +445,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>022.11.17</t>
@@ -457,6 +462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -466,6 +472,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>50W</t>
@@ -742,12 +749,24 @@
     <t>3M 空调系统杀菌除臭剂复合抑菌祛味剂</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>沪渝高速450公里100米</t>
+  </si>
+  <si>
+    <t>驾驶校车、中型以上载客载货汽车、危险物品运输车辆以外的机动车高速公路上行驶超过规定时速百分之十以上未达到百分之二十的</t>
+  </si>
+  <si>
+    <t>池州支队高速一大队</t>
+  </si>
+  <si>
+    <t>未交款</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +778,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -766,12 +786,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -779,18 +801,21 @@
       <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2F973F"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -798,6 +823,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -806,6 +832,7 @@
       <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -813,6 +840,7 @@
       <sz val="12"/>
       <color theme="3" tint="0.39991454817346722"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -820,6 +848,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -827,12 +856,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -840,6 +871,7 @@
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -855,6 +887,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -936,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,14 +1078,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1053,8 +1096,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,14 +1105,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1078,17 +1130,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
@@ -1446,10 +1489,10 @@
       <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
@@ -1458,31 +1501,31 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>5068</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>224.64</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <v>0</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="33">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.16999999999996</v>
       </c>
@@ -1492,97 +1535,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="33">
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="31">
         <v>288</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="43"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="42"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>9890</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>112.86</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="33">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1592,127 +1635,127 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="42"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="42"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="42"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="42"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="42"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1870,31 +1913,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>24885</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>0</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1903,29 +1946,29 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="33">
         <v>358</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -2120,113 +2163,113 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>16</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>33249</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="33">
         <v>271</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="37"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="38"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>17</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>37435</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <v>179</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="33">
         <v>303</v>
       </c>
-      <c r="M29" s="34" t="s">
+      <c r="M29" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="37"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="38"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="37"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="38"/>
       <c r="J31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K31" s="2">
         <v>159</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="35"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="31" t="s">
         <v>39</v>
       </c>
@@ -2244,105 +2287,105 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="2">
         <v>198</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="33">
         <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K34" s="2">
         <v>230</v>
       </c>
-      <c r="L34" s="34"/>
+      <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="K35" s="2">
         <v>9</v>
       </c>
-      <c r="L35" s="34"/>
+      <c r="L35" s="33"/>
     </row>
     <row r="36" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K36" s="2">
         <v>198</v>
       </c>
-      <c r="L36" s="34"/>
+      <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K37" s="2">
         <v>109</v>
       </c>
-      <c r="L37" s="34"/>
+      <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2378,19 +2421,34 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D37"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E37"/>
@@ -2407,34 +2465,19 @@
     <mergeCell ref="I6:I12"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,12 +2521,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2501,10 +2544,10 @@
       <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2519,20 +2562,20 @@
       <c r="F2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="48">
+      <c r="G2" s="33"/>
+      <c r="H2" s="45">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2544,15 +2587,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>96</v>
       </c>
@@ -2562,15 +2605,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
@@ -2578,30 +2621,30 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="22" t="s">
         <v>100</v>
       </c>
@@ -2610,15 +2653,15 @@
         <f>SUM(F3:F6)</f>
         <v>4666.8099999999995</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2630,15 +2673,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
@@ -2646,15 +2689,15 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="22" t="s">
         <v>100</v>
       </c>
@@ -2663,14 +2706,14 @@
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="46" t="s">
         <v>104</v>
       </c>
@@ -2680,18 +2723,18 @@
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:14" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2703,24 +2746,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <v>-490</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="45">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="3" t="s">
         <v>109</v>
       </c>
@@ -2730,15 +2773,15 @@
       <c r="F14" s="4">
         <v>1231.3599999999999</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="42"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="22" t="s">
         <v>100</v>
       </c>
@@ -2747,15 +2790,15 @@
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="42"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2767,15 +2810,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="42"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
@@ -2783,15 +2826,15 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="22" t="s">
         <v>100</v>
       </c>
@@ -2800,14 +2843,14 @@
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="42"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="46" t="s">
         <v>104</v>
       </c>
@@ -2817,18 +2860,18 @@
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="42"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2840,24 +2883,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <v>-855</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="45">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="34" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="3" t="s">
         <v>113</v>
       </c>
@@ -2865,15 +2908,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="42"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
@@ -2883,30 +2926,30 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="42"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="42"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="22" t="s">
         <v>100</v>
       </c>
@@ -2915,15 +2958,15 @@
         <f>SUM(F21:F24)</f>
         <v>2528.2999999999997</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="42"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2933,15 +2976,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="42"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="3" t="s">
         <v>103</v>
       </c>
@@ -2949,15 +2992,15 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="42"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="22" t="s">
         <v>100</v>
       </c>
@@ -2966,14 +3009,14 @@
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="42"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="46" t="s">
         <v>104</v>
       </c>
@@ -2983,16 +3026,16 @@
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="42"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3004,36 +3047,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <v>-475</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="45">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="42" t="s">
+      <c r="I31" s="33"/>
+      <c r="J31" s="34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="42"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="3" t="s">
         <v>96</v>
       </c>
@@ -3043,28 +3086,28 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="42"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="42"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="22" t="s">
         <v>100</v>
       </c>
@@ -3073,15 +3116,15 @@
         <f>SUM(F31:F34)</f>
         <v>1783.6100000000001</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="42"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3091,15 +3134,15 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="42"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="24" t="s">
         <v>116</v>
       </c>
@@ -3107,15 +3150,15 @@
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="42"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="22" t="s">
         <v>100</v>
       </c>
@@ -3124,14 +3167,14 @@
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="42"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="46" t="s">
         <v>104</v>
       </c>
@@ -3141,16 +3184,16 @@
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="42"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3162,34 +3205,34 @@
       <c r="F40" s="4">
         <v>757.17</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="33">
         <v>-200</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="45">
         <f>SUM(F48,G40)</f>
         <v>2167.7600000000002</v>
       </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="49" t="s">
+      <c r="I40" s="33"/>
+      <c r="J40" s="44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="42"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>96</v>
       </c>
@@ -3199,27 +3242,27 @@
       <c r="F42" s="4">
         <v>425.59</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="42"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="34"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="42"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
@@ -3228,14 +3271,14 @@
         <f>SUM(F40,F42)</f>
         <v>1182.76</v>
       </c>
-      <c r="G44" s="34"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="42"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3245,14 +3288,14 @@
       <c r="F45" s="4">
         <v>965</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="42"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="25" t="s">
         <v>120</v>
       </c>
@@ -3260,26 +3303,26 @@
       <c r="F46" s="3">
         <v>220</v>
       </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="42"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="34"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="42"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="34"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="46" t="s">
         <v>104</v>
       </c>
@@ -3289,24 +3332,34 @@
         <f>SUM(F44,F45,F46)</f>
         <v>2367.7600000000002</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="42"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="H40:H48"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
-    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B39"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="G13:G19"/>
@@ -3323,27 +3376,17 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:XFD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="J13:J19"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H48"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,9 +3442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -20494,18 +20537,44 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:16384" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>45099.702777777777</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="29" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="F32" s="6">
         <f>SUM(F2:F31)</f>
-        <v>4100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F1048576" s="6">
         <f>SUM(F2:F1048575)</f>
-        <v>8200</v>
+        <v>8400</v>
       </c>
     </row>
   </sheetData>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="214">
   <si>
     <t>序号</t>
   </si>
@@ -760,6 +760,42 @@
   </si>
   <si>
     <t>未交款</t>
+  </si>
+  <si>
+    <t>2023.12.10</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>200W</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>三责医保外医疗费用责任险</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>30W</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1次小保养
+7次道路救援
+2次20公里代驾
+送检、安全送检</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -976,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,16 +1115,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1096,8 +1135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1105,23 +1144,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1130,8 +1160,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,10 +1528,10 @@
       <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
@@ -1501,31 +1540,31 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="36">
         <v>5068</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="36">
         <v>224.64</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="36">
         <v>0</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="36">
         <f>SUM(K2,K3,K4,K5)</f>
         <v>364.16999999999996</v>
       </c>
@@ -1535,97 +1574,97 @@
       <c r="K2" s="2">
         <v>47.16</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="36">
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="31">
         <v>288</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="34"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="34"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33">
+      <c r="A6" s="36">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="36">
         <v>9890</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="36">
         <v>112.86</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="36">
         <v>-19.55</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="36">
         <f>SUM(K6,K7,K8)</f>
         <v>483.19</v>
       </c>
@@ -1635,127 +1674,127 @@
       <c r="K6" s="2">
         <v>73.19</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="36">
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>282</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="2">
         <v>128</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1913,31 +1952,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
+      <c r="A17" s="36">
         <v>7</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="36">
         <v>24885</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="36">
         <v>0</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="36">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="36">
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1946,29 +1985,29 @@
       <c r="K17" s="2">
         <v>199</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="36">
         <v>358</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>159</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -2163,113 +2202,113 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33">
+      <c r="A27" s="36">
         <v>16</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="36">
         <v>33249</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>139</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="36">
         <v>271</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="36" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="38"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="39"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="2">
         <v>159</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33">
+      <c r="A29" s="36">
         <v>17</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="36">
         <v>37435</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="36">
         <v>179</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="36">
         <v>303</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="38"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="39"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="38"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="39"/>
       <c r="J31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K31" s="2">
         <v>159</v>
       </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="42"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="31" t="s">
         <v>39</v>
       </c>
@@ -2287,105 +2326,105 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="2">
         <v>198</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="36">
         <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K34" s="2">
         <v>230</v>
       </c>
-      <c r="L34" s="33"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="K35" s="2">
         <v>9</v>
       </c>
-      <c r="L35" s="33"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K36" s="2">
         <v>198</v>
       </c>
-      <c r="L36" s="33"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="K37" s="2">
         <v>109</v>
       </c>
-      <c r="L37" s="33"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
@@ -2421,6 +2460,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="F35:I37"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B38"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A12"/>
@@ -2437,47 +2517,6 @@
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G12"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="F35:I37"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I6:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40:J48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2521,12 +2560,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2544,10 +2583,10 @@
       <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -2562,20 +2601,20 @@
       <c r="F2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="45">
+      <c r="G2" s="36"/>
+      <c r="H2" s="50">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2587,15 +2626,15 @@
       <c r="F3" s="4">
         <v>2378.5</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="3" t="s">
         <v>96</v>
       </c>
@@ -2605,15 +2644,15 @@
       <c r="F4" s="4">
         <v>1679.6</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
@@ -2621,30 +2660,30 @@
       <c r="F5" s="4">
         <v>356.77</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="4">
         <v>251.94</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="22" t="s">
         <v>100</v>
       </c>
@@ -2653,15 +2692,15 @@
         <f>SUM(F3:F6)</f>
         <v>4666.8099999999995</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2673,15 +2712,15 @@
       <c r="F8" s="4">
         <v>950</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
@@ -2689,15 +2728,15 @@
       <c r="F9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="22" t="s">
         <v>100</v>
       </c>
@@ -2706,35 +2745,35 @@
         <f>SUM(F8:F9)</f>
         <v>1010</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="27">
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:14" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="49" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2746,24 +2785,24 @@
       <c r="F13" s="4">
         <v>1743.73</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="36">
         <v>-490</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="50">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="3" t="s">
         <v>109</v>
       </c>
@@ -2773,15 +2812,15 @@
       <c r="F14" s="4">
         <v>1231.3599999999999</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="22" t="s">
         <v>100</v>
       </c>
@@ -2790,15 +2829,15 @@
         <f>SUM(F13:F14)</f>
         <v>2975.09</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2810,15 +2849,15 @@
       <c r="F16" s="4">
         <v>855</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="3" t="s">
         <v>103</v>
       </c>
@@ -2826,15 +2865,15 @@
       <c r="F17" s="4">
         <v>300</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="22" t="s">
         <v>100</v>
       </c>
@@ -2843,35 +2882,35 @@
         <f>SUM(F16:F17)</f>
         <v>1155</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="27">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="44"/>
     </row>
-    <row r="20" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" s="49" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2883,24 +2922,24 @@
       <c r="F21" s="4">
         <v>1187.05</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="36">
         <v>-855</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="50">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="44" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="3" t="s">
         <v>113</v>
       </c>
@@ -2908,15 +2947,15 @@
       <c r="F22" s="4">
         <v>178.06</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
@@ -2926,30 +2965,30 @@
       <c r="F23" s="4">
         <v>1011.47</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F24" s="4">
         <v>151.72</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="22" t="s">
         <v>100</v>
       </c>
@@ -2958,15 +2997,15 @@
         <f>SUM(F21:F24)</f>
         <v>2528.2999999999997</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2976,15 +3015,15 @@
       <c r="F26" s="4">
         <v>760</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="3" t="s">
         <v>103</v>
       </c>
@@ -2992,15 +3031,15 @@
       <c r="F27" s="4">
         <v>300</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="22" t="s">
         <v>100</v>
       </c>
@@ -3009,33 +3048,33 @@
         <f>SUM(F26:F27)</f>
         <v>1060</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="46" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="27">
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:10" s="47" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" s="49" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3047,36 +3086,36 @@
       <c r="F31" s="4">
         <v>943.86</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="36">
         <v>-475</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="50">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34" t="s">
+      <c r="I31" s="36"/>
+      <c r="J31" s="44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="3" t="s">
         <v>96</v>
       </c>
@@ -3086,28 +3125,28 @@
       <c r="F33" s="4">
         <v>839.75</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="23" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="22" t="s">
         <v>100</v>
       </c>
@@ -3116,15 +3155,15 @@
         <f>SUM(F31:F34)</f>
         <v>1783.6100000000001</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3134,15 +3173,15 @@
       <c r="F36" s="4">
         <v>965</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="24" t="s">
         <v>116</v>
       </c>
@@ -3150,15 +3189,15 @@
       <c r="F37" s="4">
         <v>918</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="22" t="s">
         <v>100</v>
       </c>
@@ -3167,33 +3206,33 @@
         <f>SUM(F36:F37)</f>
         <v>1883</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="46" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="27">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3205,34 +3244,34 @@
       <c r="F40" s="4">
         <v>757.17</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="36">
         <v>-200</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="50">
         <f>SUM(F48,G40)</f>
         <v>2167.7600000000002</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="44" t="s">
+      <c r="I40" s="36"/>
+      <c r="J40" s="51" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="3" t="s">
         <v>96</v>
       </c>
@@ -3242,27 +3281,27 @@
       <c r="F42" s="4">
         <v>425.59</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="44"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
@@ -3271,14 +3310,14 @@
         <f>SUM(F40,F42)</f>
         <v>1182.76</v>
       </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="44"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3288,14 +3327,14 @@
       <c r="F45" s="4">
         <v>965</v>
       </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="25" t="s">
         <v>120</v>
       </c>
@@ -3303,42 +3342,217 @@
       <c r="F46" s="3">
         <v>220</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B48" s="33"/>
-      <c r="C48" s="46" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="27">
         <f>SUM(F44,F45,F46)</f>
         <v>2367.7600000000002</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="44"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="33">
+        <v>88896</v>
+      </c>
+      <c r="F49" s="33">
+        <v>1061.17</v>
+      </c>
+      <c r="G49" s="36">
+        <v>-360</v>
+      </c>
+      <c r="H49" s="50">
+        <f>SUM(F56,G49)</f>
+        <v>2351.4499999999998</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="33">
+        <v>651.39</v>
+      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="33">
+        <v>33.89</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="44"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="26">
+        <f>SUM(F49,F50,F51)</f>
+        <v>1746.45</v>
+      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="44"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33">
+        <v>965</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="44"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="44"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="44"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="36"/>
+      <c r="C56" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="27">
+        <f>SUM(F52,F53,F54)</f>
+        <v>2711.45</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="56">
+    <mergeCell ref="J49:J56"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="G49:G56"/>
+    <mergeCell ref="H49:H56"/>
+    <mergeCell ref="I49:I56"/>
+    <mergeCell ref="J21:J29"/>
+    <mergeCell ref="J31:J39"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H48"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="I31:I39"/>
+    <mergeCell ref="I40:I48"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="G31:G39"/>
+    <mergeCell ref="G40:G48"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B31:B39"/>
     <mergeCell ref="B40:B48"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -3355,42 +3569,10 @@
     <mergeCell ref="J13:J19"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G21:G29"/>
-    <mergeCell ref="G31:G39"/>
-    <mergeCell ref="G40:G48"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I21:I29"/>
-    <mergeCell ref="I31:I39"/>
-    <mergeCell ref="I40:I48"/>
-    <mergeCell ref="J21:J29"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="H40:H48"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3442,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
@@ -20559,8 +20741,8 @@
       <c r="G28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50" t="s">
+      <c r="H28" s="34"/>
+      <c r="I28" s="34" t="s">
         <v>208</v>
       </c>
     </row>

--- a/车辆信息.xlsx
+++ b/车辆信息.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="车辆" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="224">
   <si>
     <t>序号</t>
   </si>
@@ -795,6 +795,46 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.1.28</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥稻香路店途虎</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>壳牌/Shell 超凡喜力 新升级全合成润滑油 ULTRA 5W-40 SP A3/B4 4L</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规保养</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.2.1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎压监测安装</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>途虎王牌TT9N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换轮胎</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓普绿飞劲轮胎 逸劲ZE914</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>4轮定位</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,14 +1160,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1135,8 +1181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,14 +1190,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1159,18 +1214,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,11 +1519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1528,10 +1571,10 @@
       <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
@@ -1578,66 +1621,66 @@
         <f>SUM(G2,I2,H2)</f>
         <v>588.80999999999995</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="31">
         <v>288</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="45"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="39"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
         <v>13.26</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="44"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>15.75</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36">
@@ -1678,20 +1721,20 @@
         <f>SUM(G6,I6,H6)</f>
         <v>576.5</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1699,18 +1742,18 @@
         <v>282</v>
       </c>
       <c r="L7" s="36"/>
-      <c r="M7" s="44"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1718,18 +1761,18 @@
         <v>128</v>
       </c>
       <c r="L8" s="36"/>
-      <c r="M8" s="44"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1737,18 +1780,18 @@
         <v>0</v>
       </c>
       <c r="L9" s="36"/>
-      <c r="M9" s="44"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1756,18 +1799,18 @@
         <v>0</v>
       </c>
       <c r="L10" s="36"/>
-      <c r="M10" s="44"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1775,18 +1818,18 @@
         <v>0</v>
       </c>
       <c r="L11" s="36"/>
-      <c r="M11" s="44"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="36"/>
-      <c r="M12" s="44"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1967,7 +2010,7 @@
       <c r="E17" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="36">
@@ -1996,7 +2039,7 @@
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
@@ -2214,7 +2257,7 @@
       <c r="D27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H27" s="36"/>
@@ -2237,7 +2280,7 @@
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="39"/>
+      <c r="E28" s="41"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="2" t="s">
@@ -2262,7 +2305,7 @@
       <c r="D29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="41" t="s">
         <v>52</v>
       </c>
       <c r="J29" s="36" t="s">
@@ -2283,7 +2326,7 @@
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="39"/>
+      <c r="E30" s="41"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -2294,7 +2337,7 @@
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="39"/>
+      <c r="E31" s="41"/>
       <c r="J31" s="2" t="s">
         <v>74</v>
       </c>
@@ -2305,10 +2348,10 @@
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="37"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="31" t="s">
         <v>39</v>
       </c>
@@ -2458,21 +2501,154 @@
         <v>99</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="66" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K40" s="2">
+        <v>294</v>
+      </c>
+      <c r="L40" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44010</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K41" s="2">
+        <v>399</v>
+      </c>
+      <c r="L41" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="A42" s="35">
+        <v>21</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="35">
+        <v>44010</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2176.1999999999998</v>
+      </c>
+      <c r="L42" s="2">
+        <v>2176.1999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="35">
+        <v>22</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="35">
+        <v>44010</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J43" s="2">
+        <v>99</v>
+      </c>
+      <c r="K43" s="2">
+        <v>99</v>
+      </c>
+      <c r="L43" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="35">
+        <v>23</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D37"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E37"/>
@@ -2489,34 +2665,19 @@
     <mergeCell ref="I6:I12"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2528,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H49" sqref="H49:H56"/>
     </sheetView>
@@ -2560,12 +2721,12 @@
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="36"/>
-      <c r="H2" s="50">
+      <c r="H2" s="48">
         <f>SUM(F11)</f>
         <v>5676.8099999999995</v>
       </c>
@@ -2627,7 +2788,7 @@
         <v>2378.5</v>
       </c>
       <c r="G3" s="36"/>
-      <c r="H3" s="50"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
     </row>
@@ -2645,7 +2806,7 @@
         <v>1679.6</v>
       </c>
       <c r="G4" s="36"/>
-      <c r="H4" s="50"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
@@ -2661,7 +2822,7 @@
         <v>356.77</v>
       </c>
       <c r="G5" s="36"/>
-      <c r="H5" s="50"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
     </row>
@@ -2676,7 +2837,7 @@
         <v>251.94</v>
       </c>
       <c r="G6" s="36"/>
-      <c r="H6" s="50"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
     </row>
@@ -2693,7 +2854,7 @@
         <v>4666.8099999999995</v>
       </c>
       <c r="G7" s="36"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
     </row>
@@ -2713,7 +2874,7 @@
         <v>950</v>
       </c>
       <c r="G8" s="36"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
     </row>
@@ -2729,7 +2890,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
     </row>
@@ -2746,28 +2907,28 @@
         <v>1010</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="27">
         <f>SUM(F7,F10)</f>
         <v>5676.8099999999995</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="H11" s="50"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="1:14" s="49" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="50" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36" t="s">
@@ -2788,14 +2949,14 @@
       <c r="G13" s="36">
         <v>-490</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="48">
         <f>SUM(F19,G13)</f>
         <v>3640.09</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="37" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2813,9 +2974,9 @@
         <v>1231.3599999999999</v>
       </c>
       <c r="G14" s="36"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
@@ -2830,9 +2991,9 @@
         <v>2975.09</v>
       </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="50"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
@@ -2850,9 +3011,9 @@
         <v>855</v>
       </c>
       <c r="G16" s="36"/>
-      <c r="H16" s="50"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="44"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
@@ -2866,9 +3027,9 @@
         <v>300</v>
       </c>
       <c r="G17" s="36"/>
-      <c r="H17" s="50"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="44"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
@@ -2883,28 +3044,28 @@
         <v>1155</v>
       </c>
       <c r="G18" s="36"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="44"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="27">
         <f>SUM(F15,F18)</f>
         <v>4130.09</v>
       </c>
       <c r="G19" s="36"/>
-      <c r="H19" s="50"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="44"/>
+      <c r="J19" s="37"/>
     </row>
-    <row r="20" spans="1:10" s="49" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:10" s="50" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36" t="s">
@@ -2925,14 +3086,14 @@
       <c r="G21" s="36">
         <v>-855</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="48">
         <f>SUM(F29,G21)</f>
         <v>2733.2999999999997</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="37" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2948,9 +3109,9 @@
         <v>178.06</v>
       </c>
       <c r="G22" s="36"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="44"/>
+      <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
@@ -2966,9 +3127,9 @@
         <v>1011.47</v>
       </c>
       <c r="G23" s="36"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="44"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
@@ -2981,9 +3142,9 @@
         <v>151.72</v>
       </c>
       <c r="G24" s="36"/>
-      <c r="H24" s="50"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="44"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
@@ -2998,9 +3159,9 @@
         <v>2528.2999999999997</v>
       </c>
       <c r="G25" s="36"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="44"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
@@ -3016,9 +3177,9 @@
         <v>760</v>
       </c>
       <c r="G26" s="36"/>
-      <c r="H26" s="50"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="44"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
@@ -3032,9 +3193,9 @@
         <v>300</v>
       </c>
       <c r="G27" s="36"/>
-      <c r="H27" s="50"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="44"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
@@ -3049,28 +3210,28 @@
         <v>1060</v>
       </c>
       <c r="G28" s="36"/>
-      <c r="H28" s="50"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="27">
         <f>SUM(F25,F28)</f>
         <v>3588.2999999999997</v>
       </c>
       <c r="G29" s="36"/>
-      <c r="H29" s="50"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="44"/>
+      <c r="J29" s="37"/>
     </row>
-    <row r="30" spans="1:10" s="49" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" s="50" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
@@ -3089,12 +3250,12 @@
       <c r="G31" s="36">
         <v>-475</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="48">
         <f>SUM(F39,G31)</f>
         <v>3191.61</v>
       </c>
       <c r="I31" s="36"/>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="37" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3108,9 +3269,9 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="50"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="44"/>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
@@ -3126,9 +3287,9 @@
         <v>839.75</v>
       </c>
       <c r="G33" s="36"/>
-      <c r="H33" s="50"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="44"/>
+      <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
@@ -3139,9 +3300,9 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="50"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="44"/>
+      <c r="J34" s="37"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
@@ -3156,9 +3317,9 @@
         <v>1783.6100000000001</v>
       </c>
       <c r="G35" s="36"/>
-      <c r="H35" s="50"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="44"/>
+      <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
@@ -3174,9 +3335,9 @@
         <v>965</v>
       </c>
       <c r="G36" s="36"/>
-      <c r="H36" s="50"/>
+      <c r="H36" s="48"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="44"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
@@ -3190,9 +3351,9 @@
         <v>918</v>
       </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="50"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="44"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
@@ -3207,29 +3368,29 @@
         <v>1883</v>
       </c>
       <c r="G38" s="36"/>
-      <c r="H38" s="50"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="36"/>
-      <c r="J38" s="44"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="27">
         <f>SUM(F35,F38)</f>
         <v>3666.61</v>
       </c>
       <c r="G39" s="36"/>
-      <c r="H39" s="50"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="36"/>
-      <c r="J39" s="44"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="51" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -3247,12 +3408,12 @@
       <c r="G40" s="36">
         <v>-200</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="48">
         <f>SUM(F48,G40)</f>
         <v>2167.7600000000002</v>
       </c>
       <c r="I40" s="36"/>
-      <c r="J40" s="51" t="s">
+      <c r="J40" s="49" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3265,9 +3426,9 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="50"/>
+      <c r="H41" s="48"/>
       <c r="I41" s="36"/>
-      <c r="J41" s="44"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" s="36"/>
@@ -3282,9 +3443,9 @@
         <v>425.59</v>
       </c>
       <c r="G42" s="36"/>
-      <c r="H42" s="50"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="44"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" s="36"/>
@@ -3295,9 +3456,9 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="50"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="44"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" s="36"/>
@@ -3311,9 +3472,9 @@
         <v>1182.76</v>
       </c>
       <c r="G44" s="36"/>
-      <c r="H44" s="50"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="36"/>
-      <c r="J44" 